--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14640" windowHeight="7730"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>date</t>
   </si>
@@ -317,6 +317,9 @@
   <si>
     <t>赢合科技</t>
   </si>
+  <si>
+    <t>东港股份</t>
+  </si>
 </sst>
 </file>
 
@@ -324,8 +327,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -334,81 +337,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,18 +355,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,9 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,8 +411,67 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +493,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,13 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,37 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,25 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,73 +667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,60 +684,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -756,13 +705,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +749,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,19 +804,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,112 +825,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" t="str">
-        <f>CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
+        <f t="shared" ref="A322:A334" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
       </c>
       <c r="B322">
@@ -14827,7 +14830,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" t="str">
-        <f>CONCATENATE(LEFT(M323,4),"-",MID(M323,5,2),"-",RIGHT(M323,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-07-25</v>
       </c>
       <c r="B323">
@@ -14869,7 +14872,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" t="str">
-        <f>CONCATENATE(LEFT(M324,4),"-",MID(M324,5,2),"-",RIGHT(M324,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B324">
@@ -14911,7 +14914,7 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" t="str">
-        <f>CONCATENATE(LEFT(M325,4),"-",MID(M325,5,2),"-",RIGHT(M325,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B325">
@@ -14953,7 +14956,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" t="str">
-        <f>CONCATENATE(LEFT(M326,4),"-",MID(M326,5,2),"-",RIGHT(M326,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B326">
@@ -14995,7 +14998,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" t="str">
-        <f>CONCATENATE(LEFT(M327,4),"-",MID(M327,5,2),"-",RIGHT(M327,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-13</v>
       </c>
       <c r="B327">
@@ -15037,7 +15040,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" t="str">
-        <f>CONCATENATE(LEFT(M328,4),"-",MID(M328,5,2),"-",RIGHT(M328,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-15</v>
       </c>
       <c r="B328">
@@ -15079,7 +15082,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" t="str">
-        <f>CONCATENATE(LEFT(M329,4),"-",MID(M329,5,2),"-",RIGHT(M329,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-15</v>
       </c>
       <c r="B329">
@@ -15121,7 +15124,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" t="str">
-        <f>CONCATENATE(LEFT(M330,4),"-",MID(M330,5,2),"-",RIGHT(M330,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-17</v>
       </c>
       <c r="B330">
@@ -15163,170 +15166,254 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" t="str">
-        <f>CONCATENATE(LEFT(M331,4),"-",MID(M331,5,2),"-",RIGHT(M331,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-03</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="1">
         <v>4327</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="1">
         <v>601688</v>
       </c>
-      <c r="D331" s="2" t="s">
+      <c r="D331" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E331" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F331" s="2">
+      <c r="E331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="1">
         <v>-300</v>
       </c>
-      <c r="G331" s="2">
+      <c r="G331" s="1">
         <v>15.17</v>
       </c>
-      <c r="H331" s="2">
+      <c r="H331" s="1">
         <v>4551</v>
       </c>
-      <c r="I331" s="2" t="s">
+      <c r="I331" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J331" s="2" t="s">
+      <c r="J331" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K331" s="2">
+      <c r="K331" s="1">
         <v>5485</v>
       </c>
-      <c r="L331" s="2">
-        <v>0</v>
-      </c>
-      <c r="M331" s="2">
+      <c r="L331" s="1">
+        <v>0</v>
+      </c>
+      <c r="M331" s="1">
         <v>20180903</v>
       </c>
     </row>
     <row r="332" spans="1:13">
       <c r="A332" t="str">
-        <f>CONCATENATE(LEFT(M332,4),"-",MID(M332,5,2),"-",RIGHT(M332,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-03</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="1">
         <v>2271</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="1">
         <v>300059</v>
       </c>
-      <c r="D332" s="2" t="s">
+      <c r="D332" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E332" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F332" s="2">
+      <c r="E332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="1">
         <v>-500</v>
       </c>
-      <c r="G332" s="2">
+      <c r="G332" s="1">
         <v>12.5</v>
       </c>
-      <c r="H332" s="2">
+      <c r="H332" s="1">
         <v>6250</v>
       </c>
-      <c r="I332" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J332" s="2">
-        <v>182173908</v>
-      </c>
-      <c r="K332" s="2">
+      <c r="I332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K332" s="1">
         <v>8340</v>
       </c>
-      <c r="L332" s="2">
-        <v>0</v>
-      </c>
-      <c r="M332" s="2">
+      <c r="L332" s="1">
+        <v>0</v>
+      </c>
+      <c r="M332" s="1">
         <v>20180903</v>
       </c>
     </row>
     <row r="333" spans="1:13">
       <c r="A333" t="str">
-        <f>CONCATENATE(LEFT(M333,4),"-",MID(M333,5,2),"-",RIGHT(M333,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-18</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="1">
         <v>7449</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="1">
         <v>300457</v>
       </c>
-      <c r="D333" s="2" t="s">
+      <c r="D333" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E333" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F333" s="2">
+      <c r="E333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F333" s="1">
         <v>200</v>
       </c>
-      <c r="G333" s="2">
+      <c r="G333" s="1">
         <v>24.96</v>
       </c>
-      <c r="H333" s="2">
+      <c r="H333" s="1">
         <v>4992</v>
       </c>
-      <c r="I333" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J333" s="2">
-        <v>182173908</v>
-      </c>
-      <c r="K333" s="2">
+      <c r="I333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J333" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K333" s="1">
         <v>8001</v>
       </c>
-      <c r="L333" s="2">
-        <v>0</v>
-      </c>
-      <c r="M333" s="2">
+      <c r="L333" s="1">
+        <v>0</v>
+      </c>
+      <c r="M333" s="1">
         <v>20180918</v>
       </c>
     </row>
     <row r="334" spans="1:13">
       <c r="A334" t="str">
-        <f>CONCATENATE(LEFT(M334,4),"-",MID(M334,5,2),"-",RIGHT(M334,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-20</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="1">
         <v>4675</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334" s="1">
         <v>300457</v>
       </c>
-      <c r="D334" s="2" t="s">
+      <c r="D334" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E334" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F334" s="2">
+      <c r="E334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F334" s="1">
         <v>-200</v>
       </c>
-      <c r="G334" s="2">
+      <c r="G334" s="1">
         <v>24.28</v>
       </c>
-      <c r="H334" s="2">
+      <c r="H334" s="1">
         <v>4856</v>
       </c>
-      <c r="I334" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J334" s="2">
-        <v>182173908</v>
-      </c>
-      <c r="K334" s="2">
+      <c r="I334" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K334" s="1">
         <v>5435</v>
       </c>
-      <c r="L334" s="2">
-        <v>0</v>
-      </c>
-      <c r="M334" s="2">
+      <c r="L334" s="1">
+        <v>0</v>
+      </c>
+      <c r="M334" s="1">
         <v>20180920</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13">
+      <c r="A335" t="str">
+        <f>CONCATENATE(LEFT(M335,4),"-",MID(M335,5,2),"-",RIGHT(M335,2))</f>
+        <v>2018-09-28</v>
+      </c>
+      <c r="B335" s="2">
+        <v>7254</v>
+      </c>
+      <c r="C335" s="2">
+        <v>2117</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F335" s="2">
+        <v>200</v>
+      </c>
+      <c r="G335" s="2">
+        <v>14.85</v>
+      </c>
+      <c r="H335" s="2">
+        <v>2970</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="2">
+        <v>182173908</v>
+      </c>
+      <c r="K335" s="2">
+        <v>6390</v>
+      </c>
+      <c r="L335" s="2">
+        <v>0</v>
+      </c>
+      <c r="M335" s="2">
+        <v>20180928</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13">
+      <c r="A336" t="str">
+        <f>CONCATENATE(LEFT(M336,4),"-",MID(M336,5,2),"-",RIGHT(M336,2))</f>
+        <v>2018-10-09</v>
+      </c>
+      <c r="B336" s="2">
+        <v>8597</v>
+      </c>
+      <c r="C336" s="2">
+        <v>2117</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="2">
+        <v>-200</v>
+      </c>
+      <c r="G336" s="2">
+        <v>14.17</v>
+      </c>
+      <c r="H336" s="2">
+        <v>2834</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="2">
+        <v>182173908</v>
+      </c>
+      <c r="K336" s="2">
+        <v>7468</v>
+      </c>
+      <c r="L336" s="2">
+        <v>0</v>
+      </c>
+      <c r="M336" s="2">
+        <v>20181009</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>date</t>
   </si>
@@ -320,16 +320,22 @@
   <si>
     <t>东港股份</t>
   </si>
+  <si>
+    <t>航天通信</t>
+  </si>
+  <si>
+    <t>汉得信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -337,6 +343,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,17 +398,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +420,47 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -402,52 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,29 +485,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +511,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +541,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,61 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,61 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +613,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,6 +690,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,17 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,21 +790,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -792,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,141 +810,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1292,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M336"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338:M340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -14788,7 +14791,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" t="str">
-        <f t="shared" ref="A322:A334" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
+        <f t="shared" ref="A322:A341" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
       </c>
       <c r="B322">
@@ -15334,86 +15337,254 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" t="str">
-        <f>CONCATENATE(LEFT(M335,4),"-",MID(M335,5,2),"-",RIGHT(M335,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-28</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="1">
         <v>7254</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335" s="1">
         <v>2117</v>
       </c>
-      <c r="D335" s="2" t="s">
+      <c r="D335" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E335" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F335" s="2">
+      <c r="E335" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F335" s="1">
         <v>200</v>
       </c>
-      <c r="G335" s="2">
+      <c r="G335" s="1">
         <v>14.85</v>
       </c>
-      <c r="H335" s="2">
+      <c r="H335" s="1">
         <v>2970</v>
       </c>
-      <c r="I335" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J335" s="2">
-        <v>182173908</v>
-      </c>
-      <c r="K335" s="2">
+      <c r="I335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K335" s="1">
         <v>6390</v>
       </c>
-      <c r="L335" s="2">
-        <v>0</v>
-      </c>
-      <c r="M335" s="2">
+      <c r="L335" s="1">
+        <v>0</v>
+      </c>
+      <c r="M335" s="1">
         <v>20180928</v>
       </c>
     </row>
     <row r="336" spans="1:13">
       <c r="A336" t="str">
-        <f>CONCATENATE(LEFT(M336,4),"-",MID(M336,5,2),"-",RIGHT(M336,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-10-09</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="1">
         <v>8597</v>
       </c>
-      <c r="C336" s="2">
+      <c r="C336" s="1">
         <v>2117</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="D336" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E336" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F336" s="2">
+      <c r="E336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="1">
         <v>-200</v>
       </c>
-      <c r="G336" s="2">
+      <c r="G336" s="1">
         <v>14.17</v>
       </c>
-      <c r="H336" s="2">
+      <c r="H336" s="1">
         <v>2834</v>
       </c>
-      <c r="I336" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J336" s="2">
-        <v>182173908</v>
-      </c>
-      <c r="K336" s="2">
+      <c r="I336" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K336" s="1">
         <v>7468</v>
       </c>
-      <c r="L336" s="2">
-        <v>0</v>
-      </c>
-      <c r="M336" s="2">
+      <c r="L336" s="1">
+        <v>0</v>
+      </c>
+      <c r="M336" s="1">
         <v>20181009</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13">
+      <c r="A337" t="str">
+        <f t="shared" si="5"/>
+        <v>2018-10-31</v>
+      </c>
+      <c r="B337">
+        <v>11864</v>
+      </c>
+      <c r="C337">
+        <v>600677</v>
+      </c>
+      <c r="D337" t="s">
+        <v>101</v>
+      </c>
+      <c r="E337" t="s">
+        <v>20</v>
+      </c>
+      <c r="F337">
+        <v>500</v>
+      </c>
+      <c r="G337">
+        <v>8.63</v>
+      </c>
+      <c r="H337">
+        <v>4315</v>
+      </c>
+      <c r="I337" t="s">
+        <v>15</v>
+      </c>
+      <c r="J337" t="s">
+        <v>16</v>
+      </c>
+      <c r="K337">
+        <v>6108</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>20181031</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13">
+      <c r="A338" t="str">
+        <f>CONCATENATE(LEFT(M338,4),"-",MID(M338,5,2),"-",RIGHT(M338,2))</f>
+        <v>2018-11-09</v>
+      </c>
+      <c r="B338" s="1">
+        <v>8370</v>
+      </c>
+      <c r="C338" s="1">
+        <v>300170</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F338" s="1">
+        <v>300</v>
+      </c>
+      <c r="G338" s="1">
+        <v>11.33</v>
+      </c>
+      <c r="H338" s="1">
+        <v>3399</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K338" s="1">
+        <v>9365</v>
+      </c>
+      <c r="L338" s="1">
+        <v>0</v>
+      </c>
+      <c r="M338" s="1">
+        <v>20181109</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
+      <c r="A339" t="str">
+        <f>CONCATENATE(LEFT(M339,4),"-",MID(M339,5,2),"-",RIGHT(M339,2))</f>
+        <v>2018-11-16</v>
+      </c>
+      <c r="B339" s="1">
+        <v>7551</v>
+      </c>
+      <c r="C339" s="1">
+        <v>600677</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" s="1">
+        <v>-500</v>
+      </c>
+      <c r="G339" s="1">
+        <v>9.23</v>
+      </c>
+      <c r="H339" s="1">
+        <v>4615</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K339" s="1">
+        <v>8261</v>
+      </c>
+      <c r="L339" s="1">
+        <v>0</v>
+      </c>
+      <c r="M339" s="1">
+        <v>20181116</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13">
+      <c r="A340" t="str">
+        <f>CONCATENATE(LEFT(M340,4),"-",MID(M340,5,2),"-",RIGHT(M340,2))</f>
+        <v>2018-11-16</v>
+      </c>
+      <c r="B340" s="1">
+        <v>7553</v>
+      </c>
+      <c r="C340" s="1">
+        <v>300170</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="1">
+        <v>-300</v>
+      </c>
+      <c r="G340" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="H340" s="1">
+        <v>3648</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K340" s="1">
+        <v>12763</v>
+      </c>
+      <c r="L340" s="1">
+        <v>0</v>
+      </c>
+      <c r="M340" s="1">
+        <v>20181116</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\DjangoTest\HelloWorld\tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="109">
   <si>
     <t>date</t>
   </si>
@@ -326,18 +331,31 @@
   <si>
     <t>汉得信息</t>
   </si>
+  <si>
+    <t>菲利华</t>
+  </si>
+  <si>
+    <t>京汉股份</t>
+  </si>
+  <si>
+    <t>数字政通</t>
+  </si>
+  <si>
+    <t>信维通信</t>
+  </si>
+  <si>
+    <t>雅克科技</t>
+  </si>
+  <si>
+    <t>信维通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,345 +364,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -692,317 +395,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1289,26 +709,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338:M340"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="10.5454545454545"/>
-    <col min="13" max="13" width="9.54545454545454"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875"/>
+    <col min="13" max="13" width="9.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,9 +769,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
+        <f>CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
         <v>2016-01-04</v>
       </c>
       <c r="B2" s="1">
@@ -1370,7 +790,7 @@
         <v>-800</v>
       </c>
       <c r="G2" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H2" s="1">
         <v>7040</v>
@@ -1391,9 +811,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M3,4),"-",MID(M3,5,2),"-",RIGHT(M3,2))</f>
         <v>2016-01-04</v>
       </c>
       <c r="B3" s="1">
@@ -1433,9 +853,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M4,4),"-",MID(M4,5,2),"-",RIGHT(M4,2))</f>
         <v>2016-01-04</v>
       </c>
       <c r="B4" s="1">
@@ -1454,7 +874,7 @@
         <v>-500</v>
       </c>
       <c r="G4" s="1">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H4" s="1">
         <v>8710</v>
@@ -1475,9 +895,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M5,4),"-",MID(M5,5,2),"-",RIGHT(M5,2))</f>
         <v>2016-01-05</v>
       </c>
       <c r="B5" s="1">
@@ -1517,9 +937,9 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M6,4),"-",MID(M6,5,2),"-",RIGHT(M6,2))</f>
         <v>2016-01-05</v>
       </c>
       <c r="B6" s="1">
@@ -1559,9 +979,9 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M7,4),"-",MID(M7,5,2),"-",RIGHT(M7,2))</f>
         <v>2016-01-06</v>
       </c>
       <c r="B7" s="1">
@@ -1601,9 +1021,9 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M8,4),"-",MID(M8,5,2),"-",RIGHT(M8,2))</f>
         <v>2016-01-06</v>
       </c>
       <c r="B8" s="1">
@@ -1643,9 +1063,9 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M9,4),"-",MID(M9,5,2),"-",RIGHT(M9,2))</f>
         <v>2016-01-12</v>
       </c>
       <c r="B9" s="1">
@@ -1685,9 +1105,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M10,4),"-",MID(M10,5,2),"-",RIGHT(M10,2))</f>
         <v>2016-01-12</v>
       </c>
       <c r="B10" s="1">
@@ -1727,9 +1147,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M11,4),"-",MID(M11,5,2),"-",RIGHT(M11,2))</f>
         <v>2016-01-12</v>
       </c>
       <c r="B11" s="1">
@@ -1769,9 +1189,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M12,4),"-",MID(M12,5,2),"-",RIGHT(M12,2))</f>
         <v>2016-01-13</v>
       </c>
       <c r="B12" s="1">
@@ -1811,9 +1231,9 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M13,4),"-",MID(M13,5,2),"-",RIGHT(M13,2))</f>
         <v>2016-01-13</v>
       </c>
       <c r="B13" s="1">
@@ -1853,9 +1273,9 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M14,4),"-",MID(M14,5,2),"-",RIGHT(M14,2))</f>
         <v>2016-01-15</v>
       </c>
       <c r="B14" s="1">
@@ -1895,9 +1315,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M15,4),"-",MID(M15,5,2),"-",RIGHT(M15,2))</f>
         <v>2016-01-15</v>
       </c>
       <c r="B15" s="1">
@@ -1937,9 +1357,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M16,4),"-",MID(M16,5,2),"-",RIGHT(M16,2))</f>
         <v>2016-01-15</v>
       </c>
       <c r="B16" s="1">
@@ -1979,9 +1399,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M17,4),"-",MID(M17,5,2),"-",RIGHT(M17,2))</f>
         <v>2016-01-15</v>
       </c>
       <c r="B17" s="1">
@@ -2021,9 +1441,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M18,4),"-",MID(M18,5,2),"-",RIGHT(M18,2))</f>
         <v>2016-01-19</v>
       </c>
       <c r="B18" s="1">
@@ -2063,9 +1483,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M19,4),"-",MID(M19,5,2),"-",RIGHT(M19,2))</f>
         <v>2016-01-19</v>
       </c>
       <c r="B19" s="1">
@@ -2105,9 +1525,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M20,4),"-",MID(M20,5,2),"-",RIGHT(M20,2))</f>
         <v>2016-01-19</v>
       </c>
       <c r="B20" s="1">
@@ -2147,9 +1567,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M21,4),"-",MID(M21,5,2),"-",RIGHT(M21,2))</f>
         <v>2016-01-21</v>
       </c>
       <c r="B21" s="1">
@@ -2189,9 +1609,9 @@
         <v>20160121</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M22,4),"-",MID(M22,5,2),"-",RIGHT(M22,2))</f>
         <v>2016-01-22</v>
       </c>
       <c r="B22" s="1">
@@ -2231,9 +1651,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M23,4),"-",MID(M23,5,2),"-",RIGHT(M23,2))</f>
         <v>2016-01-22</v>
       </c>
       <c r="B23" s="1">
@@ -2273,9 +1693,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M24,4),"-",MID(M24,5,2),"-",RIGHT(M24,2))</f>
         <v>2016-01-22</v>
       </c>
       <c r="B24" s="1">
@@ -2315,9 +1735,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M25,4),"-",MID(M25,5,2),"-",RIGHT(M25,2))</f>
         <v>2016-01-25</v>
       </c>
       <c r="B25" s="1">
@@ -2357,9 +1777,9 @@
         <v>20160125</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M26,4),"-",MID(M26,5,2),"-",RIGHT(M26,2))</f>
         <v>2016-01-26</v>
       </c>
       <c r="B26" s="1">
@@ -2399,9 +1819,9 @@
         <v>20160126</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M27,4),"-",MID(M27,5,2),"-",RIGHT(M27,2))</f>
         <v>2016-02-03</v>
       </c>
       <c r="B27" s="1">
@@ -2441,9 +1861,9 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M28,4),"-",MID(M28,5,2),"-",RIGHT(M28,2))</f>
         <v>2016-02-03</v>
       </c>
       <c r="B28" s="1">
@@ -2483,9 +1903,9 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M29,4),"-",MID(M29,5,2),"-",RIGHT(M29,2))</f>
         <v>2016-02-04</v>
       </c>
       <c r="B29" s="1">
@@ -2525,9 +1945,9 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M30,4),"-",MID(M30,5,2),"-",RIGHT(M30,2))</f>
         <v>2016-02-04</v>
       </c>
       <c r="B30" s="1">
@@ -2567,9 +1987,9 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M31,4),"-",MID(M31,5,2),"-",RIGHT(M31,2))</f>
         <v>2016-02-16</v>
       </c>
       <c r="B31" s="1">
@@ -2609,9 +2029,9 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M32,4),"-",MID(M32,5,2),"-",RIGHT(M32,2))</f>
         <v>2016-02-16</v>
       </c>
       <c r="B32" s="1">
@@ -2651,9 +2071,9 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M33,4),"-",MID(M33,5,2),"-",RIGHT(M33,2))</f>
         <v>2016-02-17</v>
       </c>
       <c r="B33" s="1">
@@ -2693,9 +2113,9 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M34,4),"-",MID(M34,5,2),"-",RIGHT(M34,2))</f>
         <v>2016-02-17</v>
       </c>
       <c r="B34" s="1">
@@ -2714,7 +2134,7 @@
         <v>-300</v>
       </c>
       <c r="G34" s="1">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="H34" s="1">
         <v>4953</v>
@@ -2735,9 +2155,9 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M35,4),"-",MID(M35,5,2),"-",RIGHT(M35,2))</f>
         <v>2016-02-19</v>
       </c>
       <c r="B35" s="1">
@@ -2777,9 +2197,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M36,4),"-",MID(M36,5,2),"-",RIGHT(M36,2))</f>
         <v>2016-02-19</v>
       </c>
       <c r="B36" s="1">
@@ -2798,7 +2218,7 @@
         <v>300</v>
       </c>
       <c r="G36" s="1">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="H36" s="1">
         <v>5643</v>
@@ -2819,9 +2239,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M37,4),"-",MID(M37,5,2),"-",RIGHT(M37,2))</f>
         <v>2016-02-19</v>
       </c>
       <c r="B37" s="1">
@@ -2861,9 +2281,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M38,4),"-",MID(M38,5,2),"-",RIGHT(M38,2))</f>
         <v>2016-02-22</v>
       </c>
       <c r="B38" s="1">
@@ -2903,9 +2323,9 @@
         <v>20160222</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M39,4),"-",MID(M39,5,2),"-",RIGHT(M39,2))</f>
         <v>2016-02-23</v>
       </c>
       <c r="B39" s="1">
@@ -2945,9 +2365,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M40,4),"-",MID(M40,5,2),"-",RIGHT(M40,2))</f>
         <v>2016-02-23</v>
       </c>
       <c r="B40" s="1">
@@ -2987,9 +2407,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M41,4),"-",MID(M41,5,2),"-",RIGHT(M41,2))</f>
         <v>2016-02-23</v>
       </c>
       <c r="B41" s="1">
@@ -3029,9 +2449,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M42,4),"-",MID(M42,5,2),"-",RIGHT(M42,2))</f>
         <v>2016-02-23</v>
       </c>
       <c r="B42" s="1">
@@ -3071,9 +2491,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M43,4),"-",MID(M43,5,2),"-",RIGHT(M43,2))</f>
         <v>2016-02-24</v>
       </c>
       <c r="B43" s="1">
@@ -3113,9 +2533,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M44,4),"-",MID(M44,5,2),"-",RIGHT(M44,2))</f>
         <v>2016-02-24</v>
       </c>
       <c r="B44" s="1">
@@ -3155,9 +2575,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M45,4),"-",MID(M45,5,2),"-",RIGHT(M45,2))</f>
         <v>2016-02-24</v>
       </c>
       <c r="B45" s="1">
@@ -3197,9 +2617,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M46,4),"-",MID(M46,5,2),"-",RIGHT(M46,2))</f>
         <v>2016-02-24</v>
       </c>
       <c r="B46" s="1">
@@ -3239,9 +2659,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M47,4),"-",MID(M47,5,2),"-",RIGHT(M47,2))</f>
         <v>2016-02-24</v>
       </c>
       <c r="B47" s="1">
@@ -3281,9 +2701,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M48,4),"-",MID(M48,5,2),"-",RIGHT(M48,2))</f>
         <v>2016-02-26</v>
       </c>
       <c r="B48" s="1">
@@ -3323,9 +2743,9 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M49,4),"-",MID(M49,5,2),"-",RIGHT(M49,2))</f>
         <v>2016-02-26</v>
       </c>
       <c r="B49" s="1">
@@ -3365,9 +2785,9 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M50,4),"-",MID(M50,5,2),"-",RIGHT(M50,2))</f>
         <v>2016-02-29</v>
       </c>
       <c r="B50" s="1">
@@ -3407,9 +2827,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M51,4),"-",MID(M51,5,2),"-",RIGHT(M51,2))</f>
         <v>2016-02-29</v>
       </c>
       <c r="B51" s="1">
@@ -3449,9 +2869,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M52,4),"-",MID(M52,5,2),"-",RIGHT(M52,2))</f>
         <v>2016-02-29</v>
       </c>
       <c r="B52" s="1">
@@ -3491,9 +2911,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M53,4),"-",MID(M53,5,2),"-",RIGHT(M53,2))</f>
         <v>2016-02-29</v>
       </c>
       <c r="B53" s="1">
@@ -3533,9 +2953,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M54,4),"-",MID(M54,5,2),"-",RIGHT(M54,2))</f>
         <v>2016-03-01</v>
       </c>
       <c r="B54" s="1">
@@ -3575,9 +2995,9 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M55,4),"-",MID(M55,5,2),"-",RIGHT(M55,2))</f>
         <v>2016-03-01</v>
       </c>
       <c r="B55" s="1">
@@ -3617,9 +3037,9 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M56,4),"-",MID(M56,5,2),"-",RIGHT(M56,2))</f>
         <v>2016-03-28</v>
       </c>
       <c r="B56" s="1">
@@ -3659,9 +3079,9 @@
         <v>20160328</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M57,4),"-",MID(M57,5,2),"-",RIGHT(M57,2))</f>
         <v>2016-03-29</v>
       </c>
       <c r="B57" s="1">
@@ -3701,9 +3121,9 @@
         <v>20160329</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M58,4),"-",MID(M58,5,2),"-",RIGHT(M58,2))</f>
         <v>2016-03-30</v>
       </c>
       <c r="B58" s="1">
@@ -3722,7 +3142,7 @@
         <v>1200</v>
       </c>
       <c r="G58" s="1">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H58" s="1">
         <v>23088</v>
@@ -3743,9 +3163,9 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M59,4),"-",MID(M59,5,2),"-",RIGHT(M59,2))</f>
         <v>2016-03-30</v>
       </c>
       <c r="B59" s="1">
@@ -3785,9 +3205,9 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M60,4),"-",MID(M60,5,2),"-",RIGHT(M60,2))</f>
         <v>2016-03-31</v>
       </c>
       <c r="B60" s="1">
@@ -3806,7 +3226,7 @@
         <v>-1200</v>
       </c>
       <c r="G60" s="1">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H60" s="1">
         <v>23088</v>
@@ -3827,9 +3247,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M61,4),"-",MID(M61,5,2),"-",RIGHT(M61,2))</f>
         <v>2016-03-31</v>
       </c>
       <c r="B61" s="1">
@@ -3869,9 +3289,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M62,4),"-",MID(M62,5,2),"-",RIGHT(M62,2))</f>
         <v>2016-03-31</v>
       </c>
       <c r="B62" s="1">
@@ -3911,9 +3331,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M63,4),"-",MID(M63,5,2),"-",RIGHT(M63,2))</f>
         <v>2016-04-01</v>
       </c>
       <c r="B63" s="1">
@@ -3953,9 +3373,9 @@
         <v>20160401</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M64,4),"-",MID(M64,5,2),"-",RIGHT(M64,2))</f>
         <v>2016-04-05</v>
       </c>
       <c r="B64" s="1">
@@ -3995,9 +3415,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(LEFT(M65,4),"-",MID(M65,5,2),"-",RIGHT(M65,2))</f>
         <v>2016-04-05</v>
       </c>
       <c r="B65" s="1">
@@ -4016,7 +3436,7 @@
         <v>2300</v>
       </c>
       <c r="G65" s="1">
-        <v>7.051</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="H65" s="1">
         <v>16218</v>
@@ -4037,9 +3457,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
+        <f>CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
         <v>2016-04-05</v>
       </c>
       <c r="B66" s="1">
@@ -4079,9 +3499,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M67,4),"-",MID(M67,5,2),"-",RIGHT(M67,2))</f>
         <v>2016-04-06</v>
       </c>
       <c r="B67" s="1">
@@ -4121,9 +3541,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M68,4),"-",MID(M68,5,2),"-",RIGHT(M68,2))</f>
         <v>2016-04-06</v>
       </c>
       <c r="B68" s="1">
@@ -4142,7 +3562,7 @@
         <v>-2800</v>
       </c>
       <c r="G68" s="1">
-        <v>5.371</v>
+        <v>5.3710000000000004</v>
       </c>
       <c r="H68" s="1">
         <v>15040</v>
@@ -4163,9 +3583,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M69,4),"-",MID(M69,5,2),"-",RIGHT(M69,2))</f>
         <v>2016-04-06</v>
       </c>
       <c r="B69" s="1">
@@ -4205,9 +3625,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M70,4),"-",MID(M70,5,2),"-",RIGHT(M70,2))</f>
         <v>2016-04-11</v>
       </c>
       <c r="B70" s="1">
@@ -4247,9 +3667,9 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M71,4),"-",MID(M71,5,2),"-",RIGHT(M71,2))</f>
         <v>2016-04-11</v>
       </c>
       <c r="B71" s="1">
@@ -4289,9 +3709,9 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M72,4),"-",MID(M72,5,2),"-",RIGHT(M72,2))</f>
         <v>2016-04-12</v>
       </c>
       <c r="B72" s="1">
@@ -4331,9 +3751,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M73,4),"-",MID(M73,5,2),"-",RIGHT(M73,2))</f>
         <v>2016-04-12</v>
       </c>
       <c r="B73" s="1">
@@ -4373,9 +3793,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M74,4),"-",MID(M74,5,2),"-",RIGHT(M74,2))</f>
         <v>2016-04-12</v>
       </c>
       <c r="B74" s="1">
@@ -4415,9 +3835,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M75,4),"-",MID(M75,5,2),"-",RIGHT(M75,2))</f>
         <v>2016-04-13</v>
       </c>
       <c r="B75" s="1">
@@ -4457,9 +3877,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M76,4),"-",MID(M76,5,2),"-",RIGHT(M76,2))</f>
         <v>2016-04-13</v>
       </c>
       <c r="B76" s="1">
@@ -4499,9 +3919,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M77,4),"-",MID(M77,5,2),"-",RIGHT(M77,2))</f>
         <v>2016-04-13</v>
       </c>
       <c r="B77" s="1">
@@ -4541,9 +3961,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M78,4),"-",MID(M78,5,2),"-",RIGHT(M78,2))</f>
         <v>2016-04-13</v>
       </c>
       <c r="B78" s="1">
@@ -4583,9 +4003,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M79,4),"-",MID(M79,5,2),"-",RIGHT(M79,2))</f>
         <v>2016-04-13</v>
       </c>
       <c r="B79" s="1">
@@ -4625,9 +4045,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M80,4),"-",MID(M80,5,2),"-",RIGHT(M80,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B80" s="1">
@@ -4667,9 +4087,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M81,4),"-",MID(M81,5,2),"-",RIGHT(M81,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B81" s="1">
@@ -4709,9 +4129,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M82,4),"-",MID(M82,5,2),"-",RIGHT(M82,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B82" s="1">
@@ -4751,9 +4171,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M83,4),"-",MID(M83,5,2),"-",RIGHT(M83,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B83" s="1">
@@ -4793,9 +4213,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M84,4),"-",MID(M84,5,2),"-",RIGHT(M84,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B84" s="1">
@@ -4835,9 +4255,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M85,4),"-",MID(M85,5,2),"-",RIGHT(M85,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B85" s="1">
@@ -4877,9 +4297,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M86,4),"-",MID(M86,5,2),"-",RIGHT(M86,2))</f>
         <v>2016-04-14</v>
       </c>
       <c r="B86" s="1">
@@ -4919,9 +4339,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M87,4),"-",MID(M87,5,2),"-",RIGHT(M87,2))</f>
         <v>2016-04-18</v>
       </c>
       <c r="B87" s="1">
@@ -4961,9 +4381,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M88,4),"-",MID(M88,5,2),"-",RIGHT(M88,2))</f>
         <v>2016-04-18</v>
       </c>
       <c r="B88" s="1">
@@ -5003,9 +4423,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M89,4),"-",MID(M89,5,2),"-",RIGHT(M89,2))</f>
         <v>2016-04-18</v>
       </c>
       <c r="B89" s="1">
@@ -5045,9 +4465,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M90,4),"-",MID(M90,5,2),"-",RIGHT(M90,2))</f>
         <v>2016-04-20</v>
       </c>
       <c r="B90" s="1">
@@ -5087,9 +4507,9 @@
         <v>20160420</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M91,4),"-",MID(M91,5,2),"-",RIGHT(M91,2))</f>
         <v>2016-04-29</v>
       </c>
       <c r="B91" s="1">
@@ -5129,9 +4549,9 @@
         <v>20160429</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M92,4),"-",MID(M92,5,2),"-",RIGHT(M92,2))</f>
         <v>2016-06-02</v>
       </c>
       <c r="B92" s="1">
@@ -5150,7 +4570,7 @@
         <v>1300</v>
       </c>
       <c r="G92" s="1">
-        <v>9.13</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="H92" s="1">
         <v>11869</v>
@@ -5171,9 +4591,9 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M93,4),"-",MID(M93,5,2),"-",RIGHT(M93,2))</f>
         <v>2016-06-02</v>
       </c>
       <c r="B93" s="1">
@@ -5213,9 +4633,9 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M94,4),"-",MID(M94,5,2),"-",RIGHT(M94,2))</f>
         <v>2016-06-03</v>
       </c>
       <c r="B94" s="1">
@@ -5255,9 +4675,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M95,4),"-",MID(M95,5,2),"-",RIGHT(M95,2))</f>
         <v>2016-06-03</v>
       </c>
       <c r="B95" s="1">
@@ -5297,9 +4717,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M96,4),"-",MID(M96,5,2),"-",RIGHT(M96,2))</f>
         <v>2016-06-03</v>
       </c>
       <c r="B96" s="1">
@@ -5339,9 +4759,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M97,4),"-",MID(M97,5,2),"-",RIGHT(M97,2))</f>
         <v>2016-06-03</v>
       </c>
       <c r="B97" s="1">
@@ -5381,9 +4801,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M98,4),"-",MID(M98,5,2),"-",RIGHT(M98,2))</f>
         <v>2016-06-07</v>
       </c>
       <c r="B98" s="1">
@@ -5423,9 +4843,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M99,4),"-",MID(M99,5,2),"-",RIGHT(M99,2))</f>
         <v>2016-06-07</v>
       </c>
       <c r="B99" s="1">
@@ -5465,9 +4885,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M100,4),"-",MID(M100,5,2),"-",RIGHT(M100,2))</f>
         <v>2016-06-07</v>
       </c>
       <c r="B100" s="1">
@@ -5507,9 +4927,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M101,4),"-",MID(M101,5,2),"-",RIGHT(M101,2))</f>
         <v>2016-06-13</v>
       </c>
       <c r="B101" s="1">
@@ -5549,9 +4969,9 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M102,4),"-",MID(M102,5,2),"-",RIGHT(M102,2))</f>
         <v>2016-06-13</v>
       </c>
       <c r="B102" s="1">
@@ -5570,7 +4990,7 @@
         <v>-2200</v>
       </c>
       <c r="G102" s="1">
-        <v>20.106</v>
+        <v>20.106000000000002</v>
       </c>
       <c r="H102" s="1">
         <v>44233</v>
@@ -5591,9 +5011,9 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M103,4),"-",MID(M103,5,2),"-",RIGHT(M103,2))</f>
         <v>2016-06-21</v>
       </c>
       <c r="B103" s="1">
@@ -5633,9 +5053,9 @@
         <v>20160621</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M104,4),"-",MID(M104,5,2),"-",RIGHT(M104,2))</f>
         <v>2016-07-13</v>
       </c>
       <c r="B104" s="1">
@@ -5675,9 +5095,9 @@
         <v>20160713</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M105,4),"-",MID(M105,5,2),"-",RIGHT(M105,2))</f>
         <v>2016-07-14</v>
       </c>
       <c r="B105" s="1">
@@ -5717,9 +5137,9 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M106,4),"-",MID(M106,5,2),"-",RIGHT(M106,2))</f>
         <v>2016-07-14</v>
       </c>
       <c r="B106" s="1">
@@ -5759,9 +5179,9 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M107,4),"-",MID(M107,5,2),"-",RIGHT(M107,2))</f>
         <v>2016-07-18</v>
       </c>
       <c r="B107" s="1">
@@ -5801,9 +5221,9 @@
         <v>20160718</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M108,4),"-",MID(M108,5,2),"-",RIGHT(M108,2))</f>
         <v>2016-07-19</v>
       </c>
       <c r="B108" s="1">
@@ -5843,9 +5263,9 @@
         <v>20160719</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M109,4),"-",MID(M109,5,2),"-",RIGHT(M109,2))</f>
         <v>2016-07-21</v>
       </c>
       <c r="B109" s="1">
@@ -5885,9 +5305,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M110,4),"-",MID(M110,5,2),"-",RIGHT(M110,2))</f>
         <v>2016-07-21</v>
       </c>
       <c r="B110" s="1">
@@ -5927,9 +5347,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M111,4),"-",MID(M111,5,2),"-",RIGHT(M111,2))</f>
         <v>2016-07-21</v>
       </c>
       <c r="B111" s="1">
@@ -5969,9 +5389,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M112,4),"-",MID(M112,5,2),"-",RIGHT(M112,2))</f>
         <v>2016-07-22</v>
       </c>
       <c r="B112" s="1">
@@ -6011,9 +5431,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M113,4),"-",MID(M113,5,2),"-",RIGHT(M113,2))</f>
         <v>2016-07-22</v>
       </c>
       <c r="B113" s="1">
@@ -6053,9 +5473,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M114,4),"-",MID(M114,5,2),"-",RIGHT(M114,2))</f>
         <v>2016-07-22</v>
       </c>
       <c r="B114" s="1">
@@ -6095,9 +5515,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M115,4),"-",MID(M115,5,2),"-",RIGHT(M115,2))</f>
         <v>2016-07-22</v>
       </c>
       <c r="B115" s="1">
@@ -6137,9 +5557,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M116,4),"-",MID(M116,5,2),"-",RIGHT(M116,2))</f>
         <v>2016-07-25</v>
       </c>
       <c r="B116" s="1">
@@ -6179,9 +5599,9 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M117,4),"-",MID(M117,5,2),"-",RIGHT(M117,2))</f>
         <v>2016-07-25</v>
       </c>
       <c r="B117" s="1">
@@ -6221,9 +5641,9 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M118,4),"-",MID(M118,5,2),"-",RIGHT(M118,2))</f>
         <v>2016-07-26</v>
       </c>
       <c r="B118" s="1">
@@ -6263,9 +5683,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M119,4),"-",MID(M119,5,2),"-",RIGHT(M119,2))</f>
         <v>2016-07-26</v>
       </c>
       <c r="B119" s="1">
@@ -6305,9 +5725,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M120,4),"-",MID(M120,5,2),"-",RIGHT(M120,2))</f>
         <v>2016-07-26</v>
       </c>
       <c r="B120" s="1">
@@ -6347,9 +5767,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M121,4),"-",MID(M121,5,2),"-",RIGHT(M121,2))</f>
         <v>2016-07-26</v>
       </c>
       <c r="B121" s="1">
@@ -6389,9 +5809,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M122,4),"-",MID(M122,5,2),"-",RIGHT(M122,2))</f>
         <v>2016-07-27</v>
       </c>
       <c r="B122" s="1">
@@ -6431,9 +5851,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M123,4),"-",MID(M123,5,2),"-",RIGHT(M123,2))</f>
         <v>2016-07-27</v>
       </c>
       <c r="B123" s="1">
@@ -6473,9 +5893,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M124,4),"-",MID(M124,5,2),"-",RIGHT(M124,2))</f>
         <v>2016-07-27</v>
       </c>
       <c r="B124" s="1">
@@ -6515,9 +5935,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M125,4),"-",MID(M125,5,2),"-",RIGHT(M125,2))</f>
         <v>2016-07-28</v>
       </c>
       <c r="B125" s="1">
@@ -6557,9 +5977,9 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M126,4),"-",MID(M126,5,2),"-",RIGHT(M126,2))</f>
         <v>2016-07-28</v>
       </c>
       <c r="B126" s="1">
@@ -6599,9 +6019,9 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M127,4),"-",MID(M127,5,2),"-",RIGHT(M127,2))</f>
         <v>2016-08-01</v>
       </c>
       <c r="B127" s="1">
@@ -6620,7 +6040,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="1">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H127" s="1">
         <v>9210</v>
@@ -6641,9 +6061,9 @@
         <v>20160801</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M128,4),"-",MID(M128,5,2),"-",RIGHT(M128,2))</f>
         <v>2016-08-03</v>
       </c>
       <c r="B128" s="1">
@@ -6662,7 +6082,7 @@
         <v>-1000</v>
       </c>
       <c r="G128" s="1">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H128" s="1">
         <v>9280</v>
@@ -6683,9 +6103,9 @@
         <v>20160803</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LEFT(M129,4),"-",MID(M129,5,2),"-",RIGHT(M129,2))</f>
         <v>2016-08-05</v>
       </c>
       <c r="B129" s="1">
@@ -6725,9 +6145,9 @@
         <v>20160805</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
+        <f>CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
         <v>2016-08-10</v>
       </c>
       <c r="B130" s="1">
@@ -6767,9 +6187,9 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M131,4),"-",MID(M131,5,2),"-",RIGHT(M131,2))</f>
         <v>2016-08-10</v>
       </c>
       <c r="B131" s="1">
@@ -6809,9 +6229,9 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M132,4),"-",MID(M132,5,2),"-",RIGHT(M132,2))</f>
         <v>2016-08-12</v>
       </c>
       <c r="B132" s="1">
@@ -6851,9 +6271,9 @@
         <v>20160812</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M133,4),"-",MID(M133,5,2),"-",RIGHT(M133,2))</f>
         <v>2016-08-16</v>
       </c>
       <c r="B133" s="1">
@@ -6893,9 +6313,9 @@
         <v>20160816</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M134,4),"-",MID(M134,5,2),"-",RIGHT(M134,2))</f>
         <v>2016-08-18</v>
       </c>
       <c r="B134" s="1">
@@ -6935,9 +6355,9 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M135,4),"-",MID(M135,5,2),"-",RIGHT(M135,2))</f>
         <v>2016-08-18</v>
       </c>
       <c r="B135" s="1">
@@ -6956,7 +6376,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H135" s="1">
         <v>8370</v>
@@ -6977,9 +6397,9 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M136,4),"-",MID(M136,5,2),"-",RIGHT(M136,2))</f>
         <v>2016-08-19</v>
       </c>
       <c r="B136" s="1">
@@ -7019,9 +6439,9 @@
         <v>20160819</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M137,4),"-",MID(M137,5,2),"-",RIGHT(M137,2))</f>
         <v>2016-08-24</v>
       </c>
       <c r="B137" s="1">
@@ -7061,9 +6481,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M138,4),"-",MID(M138,5,2),"-",RIGHT(M138,2))</f>
         <v>2016-08-24</v>
       </c>
       <c r="B138" s="1">
@@ -7103,9 +6523,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M139,4),"-",MID(M139,5,2),"-",RIGHT(M139,2))</f>
         <v>2016-08-24</v>
       </c>
       <c r="B139" s="1">
@@ -7145,9 +6565,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M140,4),"-",MID(M140,5,2),"-",RIGHT(M140,2))</f>
         <v>2016-08-25</v>
       </c>
       <c r="B140" s="1">
@@ -7187,9 +6607,9 @@
         <v>20160825</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M141,4),"-",MID(M141,5,2),"-",RIGHT(M141,2))</f>
         <v>2016-08-26</v>
       </c>
       <c r="B141" s="1">
@@ -7229,9 +6649,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M142,4),"-",MID(M142,5,2),"-",RIGHT(M142,2))</f>
         <v>2016-08-26</v>
       </c>
       <c r="B142" s="1">
@@ -7271,9 +6691,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M143,4),"-",MID(M143,5,2),"-",RIGHT(M143,2))</f>
         <v>2016-08-26</v>
       </c>
       <c r="B143" s="1">
@@ -7313,9 +6733,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M144,4),"-",MID(M144,5,2),"-",RIGHT(M144,2))</f>
         <v>2016-08-30</v>
       </c>
       <c r="B144" s="1">
@@ -7355,9 +6775,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M145,4),"-",MID(M145,5,2),"-",RIGHT(M145,2))</f>
         <v>2016-08-30</v>
       </c>
       <c r="B145" s="1">
@@ -7397,9 +6817,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M146,4),"-",MID(M146,5,2),"-",RIGHT(M146,2))</f>
         <v>2016-08-30</v>
       </c>
       <c r="B146" s="1">
@@ -7439,9 +6859,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M147,4),"-",MID(M147,5,2),"-",RIGHT(M147,2))</f>
         <v>2016-08-31</v>
       </c>
       <c r="B147" s="1">
@@ -7481,9 +6901,9 @@
         <v>20160831</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M148,4),"-",MID(M148,5,2),"-",RIGHT(M148,2))</f>
         <v>2016-09-01</v>
       </c>
       <c r="B148" s="1">
@@ -7523,9 +6943,9 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M149,4),"-",MID(M149,5,2),"-",RIGHT(M149,2))</f>
         <v>2016-09-01</v>
       </c>
       <c r="B149" s="1">
@@ -7544,7 +6964,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H149" s="1">
         <v>4185</v>
@@ -7565,9 +6985,9 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M150,4),"-",MID(M150,5,2),"-",RIGHT(M150,2))</f>
         <v>2016-09-02</v>
       </c>
       <c r="B150" s="1">
@@ -7607,9 +7027,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M151,4),"-",MID(M151,5,2),"-",RIGHT(M151,2))</f>
         <v>2016-09-02</v>
       </c>
       <c r="B151" s="1">
@@ -7649,9 +7069,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M152,4),"-",MID(M152,5,2),"-",RIGHT(M152,2))</f>
         <v>2016-09-02</v>
       </c>
       <c r="B152" s="1">
@@ -7670,7 +7090,7 @@
         <v>-300</v>
       </c>
       <c r="G152" s="1">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H152" s="1">
         <v>2487</v>
@@ -7691,9 +7111,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M153,4),"-",MID(M153,5,2),"-",RIGHT(M153,2))</f>
         <v>2016-09-09</v>
       </c>
       <c r="B153" s="1">
@@ -7712,7 +7132,7 @@
         <v>-400</v>
       </c>
       <c r="G153" s="1">
-        <v>11.688</v>
+        <v>11.688000000000001</v>
       </c>
       <c r="H153" s="1">
         <v>4675</v>
@@ -7733,9 +7153,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M154,4),"-",MID(M154,5,2),"-",RIGHT(M154,2))</f>
         <v>2016-09-09</v>
       </c>
       <c r="B154" s="1">
@@ -7775,9 +7195,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M155,4),"-",MID(M155,5,2),"-",RIGHT(M155,2))</f>
         <v>2016-09-09</v>
       </c>
       <c r="B155" s="1">
@@ -7817,9 +7237,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M156,4),"-",MID(M156,5,2),"-",RIGHT(M156,2))</f>
         <v>2016-09-09</v>
       </c>
       <c r="B156" s="1">
@@ -7838,7 +7258,7 @@
         <v>400</v>
       </c>
       <c r="G156" s="1">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H156" s="1">
         <v>3420</v>
@@ -7859,9 +7279,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M157,4),"-",MID(M157,5,2),"-",RIGHT(M157,2))</f>
         <v>2016-09-12</v>
       </c>
       <c r="B157" s="1">
@@ -7901,9 +7321,9 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M158,4),"-",MID(M158,5,2),"-",RIGHT(M158,2))</f>
         <v>2016-09-12</v>
       </c>
       <c r="B158" s="1">
@@ -7943,9 +7363,9 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M159,4),"-",MID(M159,5,2),"-",RIGHT(M159,2))</f>
         <v>2016-09-14</v>
       </c>
       <c r="B159" s="1">
@@ -7964,7 +7384,7 @@
         <v>-400</v>
       </c>
       <c r="G159" s="1">
-        <v>8.72</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H159" s="1">
         <v>3488</v>
@@ -7985,9 +7405,9 @@
         <v>20160914</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M160,4),"-",MID(M160,5,2),"-",RIGHT(M160,2))</f>
         <v>2016-09-26</v>
       </c>
       <c r="B160" s="1">
@@ -8027,9 +7447,9 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M161,4),"-",MID(M161,5,2),"-",RIGHT(M161,2))</f>
         <v>2016-09-26</v>
       </c>
       <c r="B161" s="1">
@@ -8069,9 +7489,9 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M162,4),"-",MID(M162,5,2),"-",RIGHT(M162,2))</f>
         <v>2016-09-28</v>
       </c>
       <c r="B162" s="1">
@@ -8111,9 +7531,9 @@
         <v>20160928</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M163,4),"-",MID(M163,5,2),"-",RIGHT(M163,2))</f>
         <v>2016-10-13</v>
       </c>
       <c r="B163" s="1">
@@ -8153,9 +7573,9 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M164,4),"-",MID(M164,5,2),"-",RIGHT(M164,2))</f>
         <v>2016-10-13</v>
       </c>
       <c r="B164" s="1">
@@ -8174,7 +7594,7 @@
         <v>-400</v>
       </c>
       <c r="G164" s="1">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H164" s="1">
         <v>3416</v>
@@ -8195,9 +7615,9 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M165,4),"-",MID(M165,5,2),"-",RIGHT(M165,2))</f>
         <v>2016-10-21</v>
       </c>
       <c r="B165" s="1">
@@ -8237,9 +7657,9 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M166,4),"-",MID(M166,5,2),"-",RIGHT(M166,2))</f>
         <v>2016-10-21</v>
       </c>
       <c r="B166" s="1">
@@ -8258,7 +7678,7 @@
         <v>400</v>
       </c>
       <c r="G166" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H166" s="1">
         <v>3348</v>
@@ -8279,9 +7699,9 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M167,4),"-",MID(M167,5,2),"-",RIGHT(M167,2))</f>
         <v>2016-10-25</v>
       </c>
       <c r="B167" s="1">
@@ -8321,9 +7741,9 @@
         <v>20161025</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M168,4),"-",MID(M168,5,2),"-",RIGHT(M168,2))</f>
         <v>2016-10-28</v>
       </c>
       <c r="B168" s="1">
@@ -8363,9 +7783,9 @@
         <v>20161028</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M169,4),"-",MID(M169,5,2),"-",RIGHT(M169,2))</f>
         <v>2016-11-08</v>
       </c>
       <c r="B169" s="1">
@@ -8405,9 +7825,9 @@
         <v>20161108</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M170,4),"-",MID(M170,5,2),"-",RIGHT(M170,2))</f>
         <v>2016-11-09</v>
       </c>
       <c r="B170" s="1">
@@ -8447,9 +7867,9 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M171,4),"-",MID(M171,5,2),"-",RIGHT(M171,2))</f>
         <v>2016-11-09</v>
       </c>
       <c r="B171" s="1">
@@ -8489,9 +7909,9 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M172,4),"-",MID(M172,5,2),"-",RIGHT(M172,2))</f>
         <v>2016-11-10</v>
       </c>
       <c r="B172" s="1">
@@ -8531,9 +7951,9 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M173,4),"-",MID(M173,5,2),"-",RIGHT(M173,2))</f>
         <v>2016-11-10</v>
       </c>
       <c r="B173" s="1">
@@ -8573,9 +7993,9 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M174,4),"-",MID(M174,5,2),"-",RIGHT(M174,2))</f>
         <v>2016-11-14</v>
       </c>
       <c r="B174" s="1">
@@ -8594,7 +8014,7 @@
         <v>-200</v>
       </c>
       <c r="G174" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H174" s="1">
         <v>1660</v>
@@ -8615,9 +8035,9 @@
         <v>20161114</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M175,4),"-",MID(M175,5,2),"-",RIGHT(M175,2))</f>
         <v>2016-11-17</v>
       </c>
       <c r="B175" s="1">
@@ -8657,9 +8077,9 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M176,4),"-",MID(M176,5,2),"-",RIGHT(M176,2))</f>
         <v>2016-11-17</v>
       </c>
       <c r="B176" s="1">
@@ -8678,7 +8098,7 @@
         <v>-200</v>
       </c>
       <c r="G176" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="H176" s="1">
         <v>1644</v>
@@ -8699,9 +8119,9 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M177,4),"-",MID(M177,5,2),"-",RIGHT(M177,2))</f>
         <v>2016-11-21</v>
       </c>
       <c r="B177" s="1">
@@ -8741,9 +8161,9 @@
         <v>20161121</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M178,4),"-",MID(M178,5,2),"-",RIGHT(M178,2))</f>
         <v>2017-04-13</v>
       </c>
       <c r="B178">
@@ -8783,9 +8203,9 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M179,4),"-",MID(M179,5,2),"-",RIGHT(M179,2))</f>
         <v>2017-04-13</v>
       </c>
       <c r="B179">
@@ -8825,9 +8245,9 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M180,4),"-",MID(M180,5,2),"-",RIGHT(M180,2))</f>
         <v>2017-04-18</v>
       </c>
       <c r="B180">
@@ -8867,9 +8287,9 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M181,4),"-",MID(M181,5,2),"-",RIGHT(M181,2))</f>
         <v>2017-04-18</v>
       </c>
       <c r="B181">
@@ -8909,9 +8329,9 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M182,4),"-",MID(M182,5,2),"-",RIGHT(M182,2))</f>
         <v>2017-04-24</v>
       </c>
       <c r="B182">
@@ -8951,9 +8371,9 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M183,4),"-",MID(M183,5,2),"-",RIGHT(M183,2))</f>
         <v>2017-04-24</v>
       </c>
       <c r="B183">
@@ -8993,9 +8413,9 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M184,4),"-",MID(M184,5,2),"-",RIGHT(M184,2))</f>
         <v>2017-04-26</v>
       </c>
       <c r="B184">
@@ -9035,9 +8455,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M185,4),"-",MID(M185,5,2),"-",RIGHT(M185,2))</f>
         <v>2017-04-26</v>
       </c>
       <c r="B185">
@@ -9077,9 +8497,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M186,4),"-",MID(M186,5,2),"-",RIGHT(M186,2))</f>
         <v>2017-04-26</v>
       </c>
       <c r="B186">
@@ -9098,7 +8518,7 @@
         <v>-100</v>
       </c>
       <c r="G186">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H186">
         <v>3620</v>
@@ -9119,9 +8539,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M187,4),"-",MID(M187,5,2),"-",RIGHT(M187,2))</f>
         <v>2017-04-26</v>
       </c>
       <c r="B187">
@@ -9161,9 +8581,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M188,4),"-",MID(M188,5,2),"-",RIGHT(M188,2))</f>
         <v>2017-04-27</v>
       </c>
       <c r="B188">
@@ -9203,9 +8623,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M189,4),"-",MID(M189,5,2),"-",RIGHT(M189,2))</f>
         <v>2017-04-27</v>
       </c>
       <c r="B189">
@@ -9245,9 +8665,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M190,4),"-",MID(M190,5,2),"-",RIGHT(M190,2))</f>
         <v>2017-04-27</v>
       </c>
       <c r="B190">
@@ -9287,9 +8707,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M191,4),"-",MID(M191,5,2),"-",RIGHT(M191,2))</f>
         <v>2017-04-27</v>
       </c>
       <c r="B191">
@@ -9308,7 +8728,7 @@
         <v>-100</v>
       </c>
       <c r="G191">
-        <v>36.38</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="H191">
         <v>3638</v>
@@ -9329,9 +8749,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M192,4),"-",MID(M192,5,2),"-",RIGHT(M192,2))</f>
         <v>2017-04-28</v>
       </c>
       <c r="B192">
@@ -9371,9 +8791,9 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(LEFT(M193,4),"-",MID(M193,5,2),"-",RIGHT(M193,2))</f>
         <v>2017-04-28</v>
       </c>
       <c r="B193">
@@ -9413,9 +8833,9 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
-        <f t="shared" ref="A194:A257" si="3">CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
+        <f>CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
         <v>2017-05-02</v>
       </c>
       <c r="B194">
@@ -9455,9 +8875,9 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M195,4),"-",MID(M195,5,2),"-",RIGHT(M195,2))</f>
         <v>2017-05-02</v>
       </c>
       <c r="B195">
@@ -9497,9 +8917,9 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M196,4),"-",MID(M196,5,2),"-",RIGHT(M196,2))</f>
         <v>2017-05-05</v>
       </c>
       <c r="B196">
@@ -9539,9 +8959,9 @@
         <v>20170505</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M197,4),"-",MID(M197,5,2),"-",RIGHT(M197,2))</f>
         <v>2017-05-08</v>
       </c>
       <c r="B197">
@@ -9581,9 +9001,9 @@
         <v>20170508</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M198,4),"-",MID(M198,5,2),"-",RIGHT(M198,2))</f>
         <v>2017-05-12</v>
       </c>
       <c r="B198">
@@ -9623,9 +9043,9 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M199,4),"-",MID(M199,5,2),"-",RIGHT(M199,2))</f>
         <v>2017-05-12</v>
       </c>
       <c r="B199">
@@ -9665,9 +9085,9 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M200,4),"-",MID(M200,5,2),"-",RIGHT(M200,2))</f>
         <v>2017-05-19</v>
       </c>
       <c r="B200">
@@ -9707,9 +9127,9 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M201,4),"-",MID(M201,5,2),"-",RIGHT(M201,2))</f>
         <v>2017-05-19</v>
       </c>
       <c r="B201">
@@ -9749,9 +9169,9 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M202,4),"-",MID(M202,5,2),"-",RIGHT(M202,2))</f>
         <v>2017-05-23</v>
       </c>
       <c r="B202">
@@ -9791,9 +9211,9 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M203,4),"-",MID(M203,5,2),"-",RIGHT(M203,2))</f>
         <v>2017-05-23</v>
       </c>
       <c r="B203">
@@ -9833,9 +9253,9 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M204,4),"-",MID(M204,5,2),"-",RIGHT(M204,2))</f>
         <v>2017-06-09</v>
       </c>
       <c r="B204">
@@ -9875,9 +9295,9 @@
         <v>20170609</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M205,4),"-",MID(M205,5,2),"-",RIGHT(M205,2))</f>
         <v>2017-06-26</v>
       </c>
       <c r="B205">
@@ -9917,9 +9337,9 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M206,4),"-",MID(M206,5,2),"-",RIGHT(M206,2))</f>
         <v>2017-06-26</v>
       </c>
       <c r="B206">
@@ -9959,9 +9379,9 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M207,4),"-",MID(M207,5,2),"-",RIGHT(M207,2))</f>
         <v>2017-06-28</v>
       </c>
       <c r="B207">
@@ -10001,9 +9421,9 @@
         <v>20170628</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M208,4),"-",MID(M208,5,2),"-",RIGHT(M208,2))</f>
         <v>2017-06-30</v>
       </c>
       <c r="B208">
@@ -10043,9 +9463,9 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M209,4),"-",MID(M209,5,2),"-",RIGHT(M209,2))</f>
         <v>2017-06-30</v>
       </c>
       <c r="B209">
@@ -10085,9 +9505,9 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M210,4),"-",MID(M210,5,2),"-",RIGHT(M210,2))</f>
         <v>2017-07-05</v>
       </c>
       <c r="B210">
@@ -10127,9 +9547,9 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M211,4),"-",MID(M211,5,2),"-",RIGHT(M211,2))</f>
         <v>2017-07-05</v>
       </c>
       <c r="B211">
@@ -10169,9 +9589,9 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M212,4),"-",MID(M212,5,2),"-",RIGHT(M212,2))</f>
         <v>2017-07-07</v>
       </c>
       <c r="B212">
@@ -10211,9 +9631,9 @@
         <v>20170707</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M213,4),"-",MID(M213,5,2),"-",RIGHT(M213,2))</f>
         <v>2017-07-11</v>
       </c>
       <c r="B213">
@@ -10253,9 +9673,9 @@
         <v>20170711</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M214,4),"-",MID(M214,5,2),"-",RIGHT(M214,2))</f>
         <v>2017-07-25</v>
       </c>
       <c r="B214">
@@ -10295,9 +9715,9 @@
         <v>20170725</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M215,4),"-",MID(M215,5,2),"-",RIGHT(M215,2))</f>
         <v>2017-07-26</v>
       </c>
       <c r="B215">
@@ -10337,9 +9757,9 @@
         <v>20170726</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M216,4),"-",MID(M216,5,2),"-",RIGHT(M216,2))</f>
         <v>2017-07-27</v>
       </c>
       <c r="B216">
@@ -10379,9 +9799,9 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M217,4),"-",MID(M217,5,2),"-",RIGHT(M217,2))</f>
         <v>2017-07-27</v>
       </c>
       <c r="B217">
@@ -10421,9 +9841,9 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M218,4),"-",MID(M218,5,2),"-",RIGHT(M218,2))</f>
         <v>2017-08-09</v>
       </c>
       <c r="B218">
@@ -10463,9 +9883,9 @@
         <v>20170809</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M219,4),"-",MID(M219,5,2),"-",RIGHT(M219,2))</f>
         <v>2017-08-11</v>
       </c>
       <c r="B219">
@@ -10505,9 +9925,9 @@
         <v>20170811</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M220,4),"-",MID(M220,5,2),"-",RIGHT(M220,2))</f>
         <v>2017-08-18</v>
       </c>
       <c r="B220">
@@ -10547,9 +9967,9 @@
         <v>20170818</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M221,4),"-",MID(M221,5,2),"-",RIGHT(M221,2))</f>
         <v>2017-08-23</v>
       </c>
       <c r="B221">
@@ -10589,9 +10009,9 @@
         <v>20170823</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M222,4),"-",MID(M222,5,2),"-",RIGHT(M222,2))</f>
         <v>2017-08-25</v>
       </c>
       <c r="B222">
@@ -10631,9 +10051,9 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M223,4),"-",MID(M223,5,2),"-",RIGHT(M223,2))</f>
         <v>2017-08-25</v>
       </c>
       <c r="B223">
@@ -10673,9 +10093,9 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M224,4),"-",MID(M224,5,2),"-",RIGHT(M224,2))</f>
         <v>2017-09-01</v>
       </c>
       <c r="B224">
@@ -10715,9 +10135,9 @@
         <v>20170901</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M225,4),"-",MID(M225,5,2),"-",RIGHT(M225,2))</f>
         <v>2017-09-05</v>
       </c>
       <c r="B225">
@@ -10736,7 +10156,7 @@
         <v>100</v>
       </c>
       <c r="G225">
-        <v>19.31</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="H225">
         <v>1931</v>
@@ -10757,9 +10177,9 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M226,4),"-",MID(M226,5,2),"-",RIGHT(M226,2))</f>
         <v>2017-09-05</v>
       </c>
       <c r="B226">
@@ -10799,9 +10219,9 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M227,4),"-",MID(M227,5,2),"-",RIGHT(M227,2))</f>
         <v>2017-09-11</v>
       </c>
       <c r="B227">
@@ -10820,7 +10240,7 @@
         <v>100</v>
       </c>
       <c r="G227">
-        <v>18.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="H227">
         <v>1876</v>
@@ -10841,9 +10261,9 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M228,4),"-",MID(M228,5,2),"-",RIGHT(M228,2))</f>
         <v>2017-09-11</v>
       </c>
       <c r="B228">
@@ -10883,9 +10303,9 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M229,4),"-",MID(M229,5,2),"-",RIGHT(M229,2))</f>
         <v>2017-09-13</v>
       </c>
       <c r="B229">
@@ -10925,9 +10345,9 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M230,4),"-",MID(M230,5,2),"-",RIGHT(M230,2))</f>
         <v>2017-09-13</v>
       </c>
       <c r="B230">
@@ -10946,7 +10366,7 @@
         <v>300</v>
       </c>
       <c r="G230">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H230">
         <v>2634</v>
@@ -10967,9 +10387,9 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M231,4),"-",MID(M231,5,2),"-",RIGHT(M231,2))</f>
         <v>2017-09-15</v>
       </c>
       <c r="B231">
@@ -11009,9 +10429,9 @@
         <v>20170915</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M232,4),"-",MID(M232,5,2),"-",RIGHT(M232,2))</f>
         <v>2017-09-18</v>
       </c>
       <c r="B232">
@@ -11051,9 +10471,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M233,4),"-",MID(M233,5,2),"-",RIGHT(M233,2))</f>
         <v>2017-09-18</v>
       </c>
       <c r="B233">
@@ -11093,9 +10513,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M234,4),"-",MID(M234,5,2),"-",RIGHT(M234,2))</f>
         <v>2017-09-18</v>
       </c>
       <c r="B234">
@@ -11135,9 +10555,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M235,4),"-",MID(M235,5,2),"-",RIGHT(M235,2))</f>
         <v>2017-09-18</v>
       </c>
       <c r="B235">
@@ -11177,9 +10597,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M236,4),"-",MID(M236,5,2),"-",RIGHT(M236,2))</f>
         <v>2017-09-19</v>
       </c>
       <c r="B236">
@@ -11219,9 +10639,9 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M237,4),"-",MID(M237,5,2),"-",RIGHT(M237,2))</f>
         <v>2017-09-19</v>
       </c>
       <c r="B237">
@@ -11240,7 +10660,7 @@
         <v>-300</v>
       </c>
       <c r="G237">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H237">
         <v>2559</v>
@@ -11261,9 +10681,9 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M238,4),"-",MID(M238,5,2),"-",RIGHT(M238,2))</f>
         <v>2017-09-22</v>
       </c>
       <c r="B238">
@@ -11303,9 +10723,9 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M239,4),"-",MID(M239,5,2),"-",RIGHT(M239,2))</f>
         <v>2017-09-22</v>
       </c>
       <c r="B239">
@@ -11345,9 +10765,9 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M240,4),"-",MID(M240,5,2),"-",RIGHT(M240,2))</f>
         <v>2017-09-29</v>
       </c>
       <c r="B240">
@@ -11387,9 +10807,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M241,4),"-",MID(M241,5,2),"-",RIGHT(M241,2))</f>
         <v>2017-09-29</v>
       </c>
       <c r="B241">
@@ -11429,9 +10849,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M242,4),"-",MID(M242,5,2),"-",RIGHT(M242,2))</f>
         <v>2017-09-29</v>
       </c>
       <c r="B242">
@@ -11471,9 +10891,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M243,4),"-",MID(M243,5,2),"-",RIGHT(M243,2))</f>
         <v>2017-09-29</v>
       </c>
       <c r="B243">
@@ -11513,9 +10933,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M244,4),"-",MID(M244,5,2),"-",RIGHT(M244,2))</f>
         <v>2017-10-13</v>
       </c>
       <c r="B244">
@@ -11555,9 +10975,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M245,4),"-",MID(M245,5,2),"-",RIGHT(M245,2))</f>
         <v>2017-10-13</v>
       </c>
       <c r="B245">
@@ -11597,9 +11017,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M246,4),"-",MID(M246,5,2),"-",RIGHT(M246,2))</f>
         <v>2017-10-13</v>
       </c>
       <c r="B246">
@@ -11639,9 +11059,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M247,4),"-",MID(M247,5,2),"-",RIGHT(M247,2))</f>
         <v>2017-10-19</v>
       </c>
       <c r="B247">
@@ -11681,9 +11101,9 @@
         <v>20171019</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M248,4),"-",MID(M248,5,2),"-",RIGHT(M248,2))</f>
         <v>2017-10-25</v>
       </c>
       <c r="B248">
@@ -11723,9 +11143,9 @@
         <v>20171025</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M249,4),"-",MID(M249,5,2),"-",RIGHT(M249,2))</f>
         <v>2017-11-07</v>
       </c>
       <c r="B249">
@@ -11765,9 +11185,9 @@
         <v>20171107</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M250,4),"-",MID(M250,5,2),"-",RIGHT(M250,2))</f>
         <v>2017-11-14</v>
       </c>
       <c r="B250">
@@ -11807,9 +11227,9 @@
         <v>20171114</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M251,4),"-",MID(M251,5,2),"-",RIGHT(M251,2))</f>
         <v>2017-11-16</v>
       </c>
       <c r="B251">
@@ -11849,9 +11269,9 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M252,4),"-",MID(M252,5,2),"-",RIGHT(M252,2))</f>
         <v>2017-11-17</v>
       </c>
       <c r="B252">
@@ -11891,9 +11311,9 @@
         <v>20171117</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M253,4),"-",MID(M253,5,2),"-",RIGHT(M253,2))</f>
         <v>2017-11-20</v>
       </c>
       <c r="B253">
@@ -11933,9 +11353,9 @@
         <v>20171120</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M254,4),"-",MID(M254,5,2),"-",RIGHT(M254,2))</f>
         <v>2017-11-23</v>
       </c>
       <c r="B254">
@@ -11975,9 +11395,9 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M255,4),"-",MID(M255,5,2),"-",RIGHT(M255,2))</f>
         <v>2017-11-23</v>
       </c>
       <c r="B255">
@@ -12017,9 +11437,9 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M256,4),"-",MID(M256,5,2),"-",RIGHT(M256,2))</f>
         <v>2017-11-28</v>
       </c>
       <c r="B256">
@@ -12059,9 +11479,9 @@
         <v>20171128</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(LEFT(M257,4),"-",MID(M257,5,2),"-",RIGHT(M257,2))</f>
         <v>2017-12-04</v>
       </c>
       <c r="B257">
@@ -12080,7 +11500,7 @@
         <v>-100</v>
       </c>
       <c r="G257">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H257">
         <v>1856</v>
@@ -12101,9 +11521,9 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
-        <f t="shared" ref="A258:A321" si="4">CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
+        <f>CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
         <v>2017-12-04</v>
       </c>
       <c r="B258">
@@ -12143,9 +11563,9 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M259,4),"-",MID(M259,5,2),"-",RIGHT(M259,2))</f>
         <v>2017-12-05</v>
       </c>
       <c r="B259">
@@ -12185,9 +11605,9 @@
         <v>20171205</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M260,4),"-",MID(M260,5,2),"-",RIGHT(M260,2))</f>
         <v>2017-12-11</v>
       </c>
       <c r="B260">
@@ -12227,9 +11647,9 @@
         <v>20171211</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M261,4),"-",MID(M261,5,2),"-",RIGHT(M261,2))</f>
         <v>2017-12-13</v>
       </c>
       <c r="B261">
@@ -12248,7 +11668,7 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>18.06</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H261">
         <v>1806</v>
@@ -12269,9 +11689,9 @@
         <v>20171213</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M262,4),"-",MID(M262,5,2),"-",RIGHT(M262,2))</f>
         <v>2017-12-15</v>
       </c>
       <c r="B262">
@@ -12311,9 +11731,9 @@
         <v>20171215</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M263,4),"-",MID(M263,5,2),"-",RIGHT(M263,2))</f>
         <v>2017-12-22</v>
       </c>
       <c r="B263">
@@ -12332,7 +11752,7 @@
         <v>200</v>
       </c>
       <c r="G263">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="H263">
         <v>3488</v>
@@ -12353,9 +11773,9 @@
         <v>20171222</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M264,4),"-",MID(M264,5,2),"-",RIGHT(M264,2))</f>
         <v>2017-12-27</v>
       </c>
       <c r="B264">
@@ -12395,9 +11815,9 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M265,4),"-",MID(M265,5,2),"-",RIGHT(M265,2))</f>
         <v>2017-12-27</v>
       </c>
       <c r="B265">
@@ -12437,9 +11857,9 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M266,4),"-",MID(M266,5,2),"-",RIGHT(M266,2))</f>
         <v>2018-01-02</v>
       </c>
       <c r="B266">
@@ -12479,9 +11899,9 @@
         <v>20180102</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M267,4),"-",MID(M267,5,2),"-",RIGHT(M267,2))</f>
         <v>2018-01-11</v>
       </c>
       <c r="B267">
@@ -12500,7 +11920,7 @@
         <v>200</v>
       </c>
       <c r="G267">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H267">
         <v>3620</v>
@@ -12521,9 +11941,9 @@
         <v>20180111</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M268,4),"-",MID(M268,5,2),"-",RIGHT(M268,2))</f>
         <v>2018-01-22</v>
       </c>
       <c r="B268">
@@ -12542,7 +11962,7 @@
         <v>-200</v>
       </c>
       <c r="G268">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H268">
         <v>3848</v>
@@ -12563,9 +11983,9 @@
         <v>20180122</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M269,4),"-",MID(M269,5,2),"-",RIGHT(M269,2))</f>
         <v>2018-01-24</v>
       </c>
       <c r="B269">
@@ -12584,7 +12004,7 @@
         <v>-500</v>
       </c>
       <c r="G269">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H269">
         <v>10175</v>
@@ -12605,9 +12025,9 @@
         <v>20180124</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M270,4),"-",MID(M270,5,2),"-",RIGHT(M270,2))</f>
         <v>2018-03-06</v>
       </c>
       <c r="B270">
@@ -12647,9 +12067,9 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M271,4),"-",MID(M271,5,2),"-",RIGHT(M271,2))</f>
         <v>2018-03-06</v>
       </c>
       <c r="B271">
@@ -12689,9 +12109,9 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M272,4),"-",MID(M272,5,2),"-",RIGHT(M272,2))</f>
         <v>2018-03-20</v>
       </c>
       <c r="B272">
@@ -12731,9 +12151,9 @@
         <v>20180320</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M273,4),"-",MID(M273,5,2),"-",RIGHT(M273,2))</f>
         <v>2018-03-21</v>
       </c>
       <c r="B273">
@@ -12773,9 +12193,9 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M274,4),"-",MID(M274,5,2),"-",RIGHT(M274,2))</f>
         <v>2018-03-21</v>
       </c>
       <c r="B274">
@@ -12815,9 +12235,9 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M275,4),"-",MID(M275,5,2),"-",RIGHT(M275,2))</f>
         <v>2018-03-23</v>
       </c>
       <c r="B275">
@@ -12857,9 +12277,9 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M276,4),"-",MID(M276,5,2),"-",RIGHT(M276,2))</f>
         <v>2018-03-23</v>
       </c>
       <c r="B276">
@@ -12899,9 +12319,9 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M277,4),"-",MID(M277,5,2),"-",RIGHT(M277,2))</f>
         <v>2018-03-26</v>
       </c>
       <c r="B277">
@@ -12941,9 +12361,9 @@
         <v>20180326</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M278,4),"-",MID(M278,5,2),"-",RIGHT(M278,2))</f>
         <v>2018-03-29</v>
       </c>
       <c r="B278">
@@ -12962,7 +12382,7 @@
         <v>1600</v>
       </c>
       <c r="G278">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="H278">
         <v>14336</v>
@@ -12983,9 +12403,9 @@
         <v>20180329</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M279,4),"-",MID(M279,5,2),"-",RIGHT(M279,2))</f>
         <v>2018-03-30</v>
       </c>
       <c r="B279">
@@ -13025,9 +12445,9 @@
         <v>20180330</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M280,4),"-",MID(M280,5,2),"-",RIGHT(M280,2))</f>
         <v>2018-04-17</v>
       </c>
       <c r="B280">
@@ -13067,9 +12487,9 @@
         <v>20180417</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M281,4),"-",MID(M281,5,2),"-",RIGHT(M281,2))</f>
         <v>2018-04-20</v>
       </c>
       <c r="B281">
@@ -13109,9 +12529,9 @@
         <v>20180420</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M282,4),"-",MID(M282,5,2),"-",RIGHT(M282,2))</f>
         <v>2018-05-03</v>
       </c>
       <c r="B282">
@@ -13151,9 +12571,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M283,4),"-",MID(M283,5,2),"-",RIGHT(M283,2))</f>
         <v>2018-05-03</v>
       </c>
       <c r="B283">
@@ -13193,9 +12613,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M284,4),"-",MID(M284,5,2),"-",RIGHT(M284,2))</f>
         <v>2018-05-03</v>
       </c>
       <c r="B284">
@@ -13235,9 +12655,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M285,4),"-",MID(M285,5,2),"-",RIGHT(M285,2))</f>
         <v>2018-05-07</v>
       </c>
       <c r="B285">
@@ -13277,9 +12697,9 @@
         <v>20180507</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M286,4),"-",MID(M286,5,2),"-",RIGHT(M286,2))</f>
         <v>2018-05-08</v>
       </c>
       <c r="B286">
@@ -13319,9 +12739,9 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M287,4),"-",MID(M287,5,2),"-",RIGHT(M287,2))</f>
         <v>2018-05-08</v>
       </c>
       <c r="B287">
@@ -13361,9 +12781,9 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M288,4),"-",MID(M288,5,2),"-",RIGHT(M288,2))</f>
         <v>2018-05-18</v>
       </c>
       <c r="B288">
@@ -13403,9 +12823,9 @@
         <v>20180518</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M289,4),"-",MID(M289,5,2),"-",RIGHT(M289,2))</f>
         <v>2018-05-21</v>
       </c>
       <c r="B289">
@@ -13445,9 +12865,9 @@
         <v>20180521</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M290,4),"-",MID(M290,5,2),"-",RIGHT(M290,2))</f>
         <v>2018-05-29</v>
       </c>
       <c r="B290">
@@ -13487,9 +12907,9 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M291,4),"-",MID(M291,5,2),"-",RIGHT(M291,2))</f>
         <v>2018-05-29</v>
       </c>
       <c r="B291">
@@ -13508,7 +12928,7 @@
         <v>300</v>
       </c>
       <c r="G291">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H291">
         <v>2559</v>
@@ -13529,9 +12949,9 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M292,4),"-",MID(M292,5,2),"-",RIGHT(M292,2))</f>
         <v>2018-06-01</v>
       </c>
       <c r="B292">
@@ -13550,7 +12970,7 @@
         <v>200</v>
       </c>
       <c r="G292">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H292">
         <v>3320</v>
@@ -13571,9 +12991,9 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M293,4),"-",MID(M293,5,2),"-",RIGHT(M293,2))</f>
         <v>2018-06-01</v>
       </c>
       <c r="B293">
@@ -13613,9 +13033,9 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M294,4),"-",MID(M294,5,2),"-",RIGHT(M294,2))</f>
         <v>2018-06-04</v>
       </c>
       <c r="B294">
@@ -13655,9 +13075,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M295,4),"-",MID(M295,5,2),"-",RIGHT(M295,2))</f>
         <v>2018-06-04</v>
       </c>
       <c r="B295">
@@ -13697,9 +13117,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M296,4),"-",MID(M296,5,2),"-",RIGHT(M296,2))</f>
         <v>2018-06-04</v>
       </c>
       <c r="B296">
@@ -13739,9 +13159,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M297,4),"-",MID(M297,5,2),"-",RIGHT(M297,2))</f>
         <v>2018-06-11</v>
       </c>
       <c r="B297">
@@ -13781,9 +13201,9 @@
         <v>20180611</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M298,4),"-",MID(M298,5,2),"-",RIGHT(M298,2))</f>
         <v>2018-06-15</v>
       </c>
       <c r="B298">
@@ -13823,9 +13243,9 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M299,4),"-",MID(M299,5,2),"-",RIGHT(M299,2))</f>
         <v>2018-06-15</v>
       </c>
       <c r="B299">
@@ -13865,9 +13285,9 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M300,4),"-",MID(M300,5,2),"-",RIGHT(M300,2))</f>
         <v>2018-06-20</v>
       </c>
       <c r="B300">
@@ -13907,9 +13327,9 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M301,4),"-",MID(M301,5,2),"-",RIGHT(M301,2))</f>
         <v>2018-06-20</v>
       </c>
       <c r="B301">
@@ -13949,9 +13369,9 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M302,4),"-",MID(M302,5,2),"-",RIGHT(M302,2))</f>
         <v>2018-06-22</v>
       </c>
       <c r="B302">
@@ -13991,9 +13411,9 @@
         <v>20180622</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M303,4),"-",MID(M303,5,2),"-",RIGHT(M303,2))</f>
         <v>2018-06-25</v>
       </c>
       <c r="B303">
@@ -14033,9 +13453,9 @@
         <v>20180625</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M304,4),"-",MID(M304,5,2),"-",RIGHT(M304,2))</f>
         <v>2018-06-27</v>
       </c>
       <c r="B304">
@@ -14075,9 +13495,9 @@
         <v>20180627</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M305,4),"-",MID(M305,5,2),"-",RIGHT(M305,2))</f>
         <v>2018-06-28</v>
       </c>
       <c r="B305">
@@ -14117,9 +13537,9 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M306,4),"-",MID(M306,5,2),"-",RIGHT(M306,2))</f>
         <v>2018-06-28</v>
       </c>
       <c r="B306">
@@ -14159,9 +13579,9 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M307,4),"-",MID(M307,5,2),"-",RIGHT(M307,2))</f>
         <v>2018-06-29</v>
       </c>
       <c r="B307">
@@ -14201,9 +13621,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M308,4),"-",MID(M308,5,2),"-",RIGHT(M308,2))</f>
         <v>2018-06-29</v>
       </c>
       <c r="B308">
@@ -14243,9 +13663,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M309,4),"-",MID(M309,5,2),"-",RIGHT(M309,2))</f>
         <v>2018-06-29</v>
       </c>
       <c r="B309">
@@ -14264,7 +13684,7 @@
         <v>700</v>
       </c>
       <c r="G309">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="H309">
         <v>6279</v>
@@ -14285,9 +13705,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M310,4),"-",MID(M310,5,2),"-",RIGHT(M310,2))</f>
         <v>2018-07-03</v>
       </c>
       <c r="B310">
@@ -14327,9 +13747,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M311,4),"-",MID(M311,5,2),"-",RIGHT(M311,2))</f>
         <v>2018-07-03</v>
       </c>
       <c r="B311">
@@ -14369,9 +13789,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M312,4),"-",MID(M312,5,2),"-",RIGHT(M312,2))</f>
         <v>2018-07-03</v>
       </c>
       <c r="B312">
@@ -14411,9 +13831,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M313,4),"-",MID(M313,5,2),"-",RIGHT(M313,2))</f>
         <v>2018-07-04</v>
       </c>
       <c r="B313">
@@ -14453,9 +13873,9 @@
         <v>20180704</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M314,4),"-",MID(M314,5,2),"-",RIGHT(M314,2))</f>
         <v>2018-07-06</v>
       </c>
       <c r="B314">
@@ -14495,9 +13915,9 @@
         <v>20180706</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M315,4),"-",MID(M315,5,2),"-",RIGHT(M315,2))</f>
         <v>2018-07-09</v>
       </c>
       <c r="B315">
@@ -14516,7 +13936,7 @@
         <v>-300</v>
       </c>
       <c r="G315">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H315">
         <v>5082</v>
@@ -14537,9 +13957,9 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M316,4),"-",MID(M316,5,2),"-",RIGHT(M316,2))</f>
         <v>2018-07-09</v>
       </c>
       <c r="B316">
@@ -14579,9 +13999,9 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M317,4),"-",MID(M317,5,2),"-",RIGHT(M317,2))</f>
         <v>2018-07-11</v>
       </c>
       <c r="B317">
@@ -14621,9 +14041,9 @@
         <v>20180711</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M318,4),"-",MID(M318,5,2),"-",RIGHT(M318,2))</f>
         <v>2018-07-12</v>
       </c>
       <c r="B318">
@@ -14663,9 +14083,9 @@
         <v>20180712</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M319,4),"-",MID(M319,5,2),"-",RIGHT(M319,2))</f>
         <v>2018-07-17</v>
       </c>
       <c r="B319">
@@ -14705,9 +14125,9 @@
         <v>20180717</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M320,4),"-",MID(M320,5,2),"-",RIGHT(M320,2))</f>
         <v>2018-07-20</v>
       </c>
       <c r="B320">
@@ -14747,9 +14167,9 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(LEFT(M321,4),"-",MID(M321,5,2),"-",RIGHT(M321,2))</f>
         <v>2018-07-20</v>
       </c>
       <c r="B321">
@@ -14789,9 +14209,9 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f t="shared" ref="A322:A341" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
+        <f>CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
       </c>
       <c r="B322">
@@ -14831,9 +14251,9 @@
         <v>20180723</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M323,4),"-",MID(M323,5,2),"-",RIGHT(M323,2))</f>
         <v>2018-07-25</v>
       </c>
       <c r="B323">
@@ -14852,7 +14272,7 @@
         <v>200</v>
       </c>
       <c r="G323">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="H323">
         <v>3652</v>
@@ -14873,9 +14293,9 @@
         <v>20180725</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M324,4),"-",MID(M324,5,2),"-",RIGHT(M324,2))</f>
         <v>2018-08-09</v>
       </c>
       <c r="B324">
@@ -14915,9 +14335,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M325,4),"-",MID(M325,5,2),"-",RIGHT(M325,2))</f>
         <v>2018-08-09</v>
       </c>
       <c r="B325">
@@ -14957,9 +14377,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M326,4),"-",MID(M326,5,2),"-",RIGHT(M326,2))</f>
         <v>2018-08-09</v>
       </c>
       <c r="B326">
@@ -14999,9 +14419,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M327,4),"-",MID(M327,5,2),"-",RIGHT(M327,2))</f>
         <v>2018-08-13</v>
       </c>
       <c r="B327">
@@ -15020,7 +14440,7 @@
         <v>200</v>
       </c>
       <c r="G327">
-        <v>16.81</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="H327">
         <v>3362</v>
@@ -15041,9 +14461,9 @@
         <v>20180813</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M328,4),"-",MID(M328,5,2),"-",RIGHT(M328,2))</f>
         <v>2018-08-15</v>
       </c>
       <c r="B328">
@@ -15083,9 +14503,9 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M329,4),"-",MID(M329,5,2),"-",RIGHT(M329,2))</f>
         <v>2018-08-15</v>
       </c>
       <c r="B329">
@@ -15125,9 +14545,9 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M330,4),"-",MID(M330,5,2),"-",RIGHT(M330,2))</f>
         <v>2018-08-17</v>
       </c>
       <c r="B330">
@@ -15167,9 +14587,9 @@
         <v>20180817</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M331,4),"-",MID(M331,5,2),"-",RIGHT(M331,2))</f>
         <v>2018-09-03</v>
       </c>
       <c r="B331" s="1">
@@ -15209,9 +14629,9 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M332,4),"-",MID(M332,5,2),"-",RIGHT(M332,2))</f>
         <v>2018-09-03</v>
       </c>
       <c r="B332" s="1">
@@ -15251,9 +14671,9 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M333,4),"-",MID(M333,5,2),"-",RIGHT(M333,2))</f>
         <v>2018-09-18</v>
       </c>
       <c r="B333" s="1">
@@ -15293,9 +14713,9 @@
         <v>20180918</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M334,4),"-",MID(M334,5,2),"-",RIGHT(M334,2))</f>
         <v>2018-09-20</v>
       </c>
       <c r="B334" s="1">
@@ -15335,9 +14755,9 @@
         <v>20180920</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M335,4),"-",MID(M335,5,2),"-",RIGHT(M335,2))</f>
         <v>2018-09-28</v>
       </c>
       <c r="B335" s="1">
@@ -15377,9 +14797,9 @@
         <v>20180928</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M336,4),"-",MID(M336,5,2),"-",RIGHT(M336,2))</f>
         <v>2018-10-09</v>
       </c>
       <c r="B336" s="1">
@@ -15419,9 +14839,9 @@
         <v>20181009</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <f t="shared" si="5"/>
+        <f>CONCATENATE(LEFT(M337,4),"-",MID(M337,5,2),"-",RIGHT(M337,2))</f>
         <v>2018-10-31</v>
       </c>
       <c r="B337">
@@ -15440,7 +14860,7 @@
         <v>500</v>
       </c>
       <c r="G337">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="H337">
         <v>4315</v>
@@ -15461,7 +14881,7 @@
         <v>20181031</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f>CONCATENATE(LEFT(M338,4),"-",MID(M338,5,2),"-",RIGHT(M338,2))</f>
         <v>2018-11-09</v>
@@ -15503,7 +14923,7 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f>CONCATENATE(LEFT(M339,4),"-",MID(M339,5,2),"-",RIGHT(M339,2))</f>
         <v>2018-11-16</v>
@@ -15545,7 +14965,7 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f>CONCATENATE(LEFT(M340,4),"-",MID(M340,5,2),"-",RIGHT(M340,2))</f>
         <v>2018-11-16</v>
@@ -15587,43 +15007,583 @@
         <v>20181116</v>
       </c>
     </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" ref="A341:A353" si="0">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
+        <v>2018-11-20</v>
+      </c>
+      <c r="B341">
+        <v>14929</v>
+      </c>
+      <c r="C341">
+        <v>615</v>
+      </c>
+      <c r="D341" t="s">
+        <v>104</v>
+      </c>
+      <c r="E341" t="s">
+        <v>20</v>
+      </c>
+      <c r="F341">
+        <v>500</v>
+      </c>
+      <c r="G341">
+        <v>6.32</v>
+      </c>
+      <c r="H341">
+        <v>3160</v>
+      </c>
+      <c r="I341" t="s">
+        <v>19</v>
+      </c>
+      <c r="J341">
+        <v>182173908</v>
+      </c>
+      <c r="K341">
+        <v>8298</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>20181120</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-11-23</v>
+      </c>
+      <c r="B342">
+        <v>9145</v>
+      </c>
+      <c r="C342">
+        <v>615</v>
+      </c>
+      <c r="D342" t="s">
+        <v>104</v>
+      </c>
+      <c r="E342" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342">
+        <v>-500</v>
+      </c>
+      <c r="G342">
+        <v>5.62</v>
+      </c>
+      <c r="H342">
+        <v>2810</v>
+      </c>
+      <c r="I342" t="s">
+        <v>19</v>
+      </c>
+      <c r="J342">
+        <v>182173908</v>
+      </c>
+      <c r="K342">
+        <v>11881</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>20181123</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-11-30</v>
+      </c>
+      <c r="B343">
+        <v>8251</v>
+      </c>
+      <c r="C343">
+        <v>300395</v>
+      </c>
+      <c r="D343" t="s">
+        <v>103</v>
+      </c>
+      <c r="E343" t="s">
+        <v>20</v>
+      </c>
+      <c r="F343">
+        <v>200</v>
+      </c>
+      <c r="G343">
+        <v>15.53</v>
+      </c>
+      <c r="H343">
+        <v>3106</v>
+      </c>
+      <c r="I343" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343">
+        <v>182173908</v>
+      </c>
+      <c r="K343">
+        <v>9738</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>20181130</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-03</v>
+      </c>
+      <c r="B344">
+        <v>11118</v>
+      </c>
+      <c r="C344">
+        <v>2409</v>
+      </c>
+      <c r="D344" t="s">
+        <v>107</v>
+      </c>
+      <c r="E344" t="s">
+        <v>20</v>
+      </c>
+      <c r="F344">
+        <v>400</v>
+      </c>
+      <c r="G344">
+        <v>16.14</v>
+      </c>
+      <c r="H344">
+        <v>6456</v>
+      </c>
+      <c r="I344" t="s">
+        <v>19</v>
+      </c>
+      <c r="J344">
+        <v>182173908</v>
+      </c>
+      <c r="K344">
+        <v>9272</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>20181203</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-03</v>
+      </c>
+      <c r="B345">
+        <v>7557</v>
+      </c>
+      <c r="C345">
+        <v>300136</v>
+      </c>
+      <c r="D345" t="s">
+        <v>106</v>
+      </c>
+      <c r="E345" t="s">
+        <v>20</v>
+      </c>
+      <c r="F345">
+        <v>300</v>
+      </c>
+      <c r="G345">
+        <v>27.3</v>
+      </c>
+      <c r="H345">
+        <v>8190</v>
+      </c>
+      <c r="I345" t="s">
+        <v>19</v>
+      </c>
+      <c r="J345">
+        <v>182173908</v>
+      </c>
+      <c r="K345">
+        <v>9270</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>20181203</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-03</v>
+      </c>
+      <c r="B346">
+        <v>7428</v>
+      </c>
+      <c r="C346">
+        <v>300395</v>
+      </c>
+      <c r="D346" t="s">
+        <v>103</v>
+      </c>
+      <c r="E346" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346">
+        <v>-200</v>
+      </c>
+      <c r="G346">
+        <v>15.81</v>
+      </c>
+      <c r="H346">
+        <v>3162</v>
+      </c>
+      <c r="I346" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346">
+        <v>182173908</v>
+      </c>
+      <c r="K346">
+        <v>9269</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>20181203</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-03</v>
+      </c>
+      <c r="B347">
+        <v>7398</v>
+      </c>
+      <c r="C347">
+        <v>300075</v>
+      </c>
+      <c r="D347" t="s">
+        <v>105</v>
+      </c>
+      <c r="E347" t="s">
+        <v>20</v>
+      </c>
+      <c r="F347">
+        <v>700</v>
+      </c>
+      <c r="G347">
+        <v>11.87</v>
+      </c>
+      <c r="H347">
+        <v>8309</v>
+      </c>
+      <c r="I347" t="s">
+        <v>19</v>
+      </c>
+      <c r="J347">
+        <v>182173908</v>
+      </c>
+      <c r="K347">
+        <v>9268</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>20181203</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-06</v>
+      </c>
+      <c r="B348">
+        <v>6558</v>
+      </c>
+      <c r="C348">
+        <v>300136</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E348" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348">
+        <v>-300</v>
+      </c>
+      <c r="G348">
+        <v>24.66</v>
+      </c>
+      <c r="H348">
+        <v>7398</v>
+      </c>
+      <c r="I348" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348">
+        <v>182173908</v>
+      </c>
+      <c r="K348">
+        <v>9747</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+      <c r="M348">
+        <v>20181206</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-17</v>
+      </c>
+      <c r="B349">
+        <v>1126</v>
+      </c>
+      <c r="C349">
+        <v>2409</v>
+      </c>
+      <c r="D349" t="s">
+        <v>107</v>
+      </c>
+      <c r="E349" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349">
+        <v>-400</v>
+      </c>
+      <c r="G349">
+        <v>15.53</v>
+      </c>
+      <c r="H349">
+        <v>6212</v>
+      </c>
+      <c r="I349" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349">
+        <v>182173908</v>
+      </c>
+      <c r="K349">
+        <v>8584</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>20181217</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-18</v>
+      </c>
+      <c r="B350">
+        <v>8888</v>
+      </c>
+      <c r="C350">
+        <v>300075</v>
+      </c>
+      <c r="D350" t="s">
+        <v>105</v>
+      </c>
+      <c r="E350" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350">
+        <v>-600</v>
+      </c>
+      <c r="G350">
+        <v>11.84</v>
+      </c>
+      <c r="H350">
+        <v>7104</v>
+      </c>
+      <c r="I350" t="s">
+        <v>19</v>
+      </c>
+      <c r="J350">
+        <v>182173908</v>
+      </c>
+      <c r="K350">
+        <v>8590</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>20181218</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-21</v>
+      </c>
+      <c r="B351">
+        <v>3176</v>
+      </c>
+      <c r="C351">
+        <v>300075</v>
+      </c>
+      <c r="D351" t="s">
+        <v>105</v>
+      </c>
+      <c r="E351" t="s">
+        <v>14</v>
+      </c>
+      <c r="F351">
+        <v>-100</v>
+      </c>
+      <c r="G351">
+        <v>11.37</v>
+      </c>
+      <c r="H351">
+        <v>1137</v>
+      </c>
+      <c r="I351" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351">
+        <v>182173908</v>
+      </c>
+      <c r="K351">
+        <v>25377</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>20181221</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-12-24</v>
+      </c>
+      <c r="B352">
+        <v>6460</v>
+      </c>
+      <c r="C352">
+        <v>600677</v>
+      </c>
+      <c r="D352" t="s">
+        <v>101</v>
+      </c>
+      <c r="E352" t="s">
+        <v>20</v>
+      </c>
+      <c r="F352">
+        <v>900</v>
+      </c>
+      <c r="G352">
+        <v>9.17</v>
+      </c>
+      <c r="H352">
+        <v>8253</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+      <c r="J352" t="s">
+        <v>16</v>
+      </c>
+      <c r="K352">
+        <v>3678</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>20181224</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-08</v>
+      </c>
+      <c r="B353">
+        <v>1550</v>
+      </c>
+      <c r="C353">
+        <v>600677</v>
+      </c>
+      <c r="D353" t="s">
+        <v>101</v>
+      </c>
+      <c r="E353" t="s">
+        <v>14</v>
+      </c>
+      <c r="F353">
+        <v>-900</v>
+      </c>
+      <c r="G353">
+        <v>14.96</v>
+      </c>
+      <c r="H353">
+        <v>13464</v>
+      </c>
+      <c r="I353" t="s">
+        <v>15</v>
+      </c>
+      <c r="J353" t="s">
+        <v>16</v>
+      </c>
+      <c r="K353">
+        <v>5289</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>20190108</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\DjangoTest\HelloWorld\tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>date</t>
   </si>
@@ -332,30 +327,32 @@
     <t>汉得信息</t>
   </si>
   <si>
-    <t>菲利华</t>
-  </si>
-  <si>
     <t>京汉股份</t>
   </si>
   <si>
-    <t>数字政通</t>
-  </si>
-  <si>
-    <t>信维通信</t>
+    <t>菲利华</t>
   </si>
   <si>
     <t>雅克科技</t>
   </si>
   <si>
     <t>信维通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字政通</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,9 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,20 +379,334 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,34 +714,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -709,26 +1317,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M353"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="G357" sqref="G357"/>
+      <selection activeCell="E356" sqref="E356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875"/>
-    <col min="13" max="13" width="9.54296875"/>
+    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
+    <col min="10" max="10" width="10.5454545454545"/>
+    <col min="13" max="13" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,9 +1377,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="str">
-        <f>CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
+        <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
         <v>2016-01-04</v>
       </c>
       <c r="B2" s="1">
@@ -790,7 +1398,7 @@
         <v>-800</v>
       </c>
       <c r="G2" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H2" s="1">
         <v>7040</v>
@@ -811,9 +1419,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="str">
-        <f>CONCATENATE(LEFT(M3,4),"-",MID(M3,5,2),"-",RIGHT(M3,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-04</v>
       </c>
       <c r="B3" s="1">
@@ -853,9 +1461,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="str">
-        <f>CONCATENATE(LEFT(M4,4),"-",MID(M4,5,2),"-",RIGHT(M4,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-04</v>
       </c>
       <c r="B4" s="1">
@@ -874,7 +1482,7 @@
         <v>-500</v>
       </c>
       <c r="G4" s="1">
-        <v>17.420000000000002</v>
+        <v>17.42</v>
       </c>
       <c r="H4" s="1">
         <v>8710</v>
@@ -895,9 +1503,9 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="str">
-        <f>CONCATENATE(LEFT(M5,4),"-",MID(M5,5,2),"-",RIGHT(M5,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-05</v>
       </c>
       <c r="B5" s="1">
@@ -937,9 +1545,9 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="str">
-        <f>CONCATENATE(LEFT(M6,4),"-",MID(M6,5,2),"-",RIGHT(M6,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-05</v>
       </c>
       <c r="B6" s="1">
@@ -979,9 +1587,9 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="str">
-        <f>CONCATENATE(LEFT(M7,4),"-",MID(M7,5,2),"-",RIGHT(M7,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-06</v>
       </c>
       <c r="B7" s="1">
@@ -1021,9 +1629,9 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="str">
-        <f>CONCATENATE(LEFT(M8,4),"-",MID(M8,5,2),"-",RIGHT(M8,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-06</v>
       </c>
       <c r="B8" s="1">
@@ -1063,9 +1671,9 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="str">
-        <f>CONCATENATE(LEFT(M9,4),"-",MID(M9,5,2),"-",RIGHT(M9,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-12</v>
       </c>
       <c r="B9" s="1">
@@ -1105,9 +1713,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="str">
-        <f>CONCATENATE(LEFT(M10,4),"-",MID(M10,5,2),"-",RIGHT(M10,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-12</v>
       </c>
       <c r="B10" s="1">
@@ -1147,9 +1755,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="str">
-        <f>CONCATENATE(LEFT(M11,4),"-",MID(M11,5,2),"-",RIGHT(M11,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-12</v>
       </c>
       <c r="B11" s="1">
@@ -1189,9 +1797,9 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="str">
-        <f>CONCATENATE(LEFT(M12,4),"-",MID(M12,5,2),"-",RIGHT(M12,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-13</v>
       </c>
       <c r="B12" s="1">
@@ -1231,9 +1839,9 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="str">
-        <f>CONCATENATE(LEFT(M13,4),"-",MID(M13,5,2),"-",RIGHT(M13,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-13</v>
       </c>
       <c r="B13" s="1">
@@ -1273,9 +1881,9 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="str">
-        <f>CONCATENATE(LEFT(M14,4),"-",MID(M14,5,2),"-",RIGHT(M14,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-15</v>
       </c>
       <c r="B14" s="1">
@@ -1315,9 +1923,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="str">
-        <f>CONCATENATE(LEFT(M15,4),"-",MID(M15,5,2),"-",RIGHT(M15,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-15</v>
       </c>
       <c r="B15" s="1">
@@ -1357,9 +1965,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="str">
-        <f>CONCATENATE(LEFT(M16,4),"-",MID(M16,5,2),"-",RIGHT(M16,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-15</v>
       </c>
       <c r="B16" s="1">
@@ -1399,9 +2007,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="str">
-        <f>CONCATENATE(LEFT(M17,4),"-",MID(M17,5,2),"-",RIGHT(M17,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-15</v>
       </c>
       <c r="B17" s="1">
@@ -1441,9 +2049,9 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="str">
-        <f>CONCATENATE(LEFT(M18,4),"-",MID(M18,5,2),"-",RIGHT(M18,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-19</v>
       </c>
       <c r="B18" s="1">
@@ -1483,9 +2091,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="str">
-        <f>CONCATENATE(LEFT(M19,4),"-",MID(M19,5,2),"-",RIGHT(M19,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-19</v>
       </c>
       <c r="B19" s="1">
@@ -1525,9 +2133,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="str">
-        <f>CONCATENATE(LEFT(M20,4),"-",MID(M20,5,2),"-",RIGHT(M20,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-19</v>
       </c>
       <c r="B20" s="1">
@@ -1567,9 +2175,9 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="str">
-        <f>CONCATENATE(LEFT(M21,4),"-",MID(M21,5,2),"-",RIGHT(M21,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-21</v>
       </c>
       <c r="B21" s="1">
@@ -1609,9 +2217,9 @@
         <v>20160121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="str">
-        <f>CONCATENATE(LEFT(M22,4),"-",MID(M22,5,2),"-",RIGHT(M22,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-22</v>
       </c>
       <c r="B22" s="1">
@@ -1651,9 +2259,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="str">
-        <f>CONCATENATE(LEFT(M23,4),"-",MID(M23,5,2),"-",RIGHT(M23,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-22</v>
       </c>
       <c r="B23" s="1">
@@ -1693,9 +2301,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="str">
-        <f>CONCATENATE(LEFT(M24,4),"-",MID(M24,5,2),"-",RIGHT(M24,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-22</v>
       </c>
       <c r="B24" s="1">
@@ -1735,9 +2343,9 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="str">
-        <f>CONCATENATE(LEFT(M25,4),"-",MID(M25,5,2),"-",RIGHT(M25,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-25</v>
       </c>
       <c r="B25" s="1">
@@ -1777,9 +2385,9 @@
         <v>20160125</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="str">
-        <f>CONCATENATE(LEFT(M26,4),"-",MID(M26,5,2),"-",RIGHT(M26,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-01-26</v>
       </c>
       <c r="B26" s="1">
@@ -1819,9 +2427,9 @@
         <v>20160126</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="str">
-        <f>CONCATENATE(LEFT(M27,4),"-",MID(M27,5,2),"-",RIGHT(M27,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-03</v>
       </c>
       <c r="B27" s="1">
@@ -1861,9 +2469,9 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="str">
-        <f>CONCATENATE(LEFT(M28,4),"-",MID(M28,5,2),"-",RIGHT(M28,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-03</v>
       </c>
       <c r="B28" s="1">
@@ -1903,9 +2511,9 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="str">
-        <f>CONCATENATE(LEFT(M29,4),"-",MID(M29,5,2),"-",RIGHT(M29,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-04</v>
       </c>
       <c r="B29" s="1">
@@ -1945,9 +2553,9 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="str">
-        <f>CONCATENATE(LEFT(M30,4),"-",MID(M30,5,2),"-",RIGHT(M30,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-04</v>
       </c>
       <c r="B30" s="1">
@@ -1987,9 +2595,9 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="str">
-        <f>CONCATENATE(LEFT(M31,4),"-",MID(M31,5,2),"-",RIGHT(M31,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-16</v>
       </c>
       <c r="B31" s="1">
@@ -2029,9 +2637,9 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="str">
-        <f>CONCATENATE(LEFT(M32,4),"-",MID(M32,5,2),"-",RIGHT(M32,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-16</v>
       </c>
       <c r="B32" s="1">
@@ -2071,9 +2679,9 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="str">
-        <f>CONCATENATE(LEFT(M33,4),"-",MID(M33,5,2),"-",RIGHT(M33,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-17</v>
       </c>
       <c r="B33" s="1">
@@ -2113,9 +2721,9 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="str">
-        <f>CONCATENATE(LEFT(M34,4),"-",MID(M34,5,2),"-",RIGHT(M34,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-17</v>
       </c>
       <c r="B34" s="1">
@@ -2134,7 +2742,7 @@
         <v>-300</v>
       </c>
       <c r="G34" s="1">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="H34" s="1">
         <v>4953</v>
@@ -2155,9 +2763,9 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" t="str">
-        <f>CONCATENATE(LEFT(M35,4),"-",MID(M35,5,2),"-",RIGHT(M35,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-19</v>
       </c>
       <c r="B35" s="1">
@@ -2197,9 +2805,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="str">
-        <f>CONCATENATE(LEFT(M36,4),"-",MID(M36,5,2),"-",RIGHT(M36,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-19</v>
       </c>
       <c r="B36" s="1">
@@ -2218,7 +2826,7 @@
         <v>300</v>
       </c>
       <c r="G36" s="1">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="H36" s="1">
         <v>5643</v>
@@ -2239,9 +2847,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="str">
-        <f>CONCATENATE(LEFT(M37,4),"-",MID(M37,5,2),"-",RIGHT(M37,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-19</v>
       </c>
       <c r="B37" s="1">
@@ -2281,9 +2889,9 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="str">
-        <f>CONCATENATE(LEFT(M38,4),"-",MID(M38,5,2),"-",RIGHT(M38,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-22</v>
       </c>
       <c r="B38" s="1">
@@ -2323,9 +2931,9 @@
         <v>20160222</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" t="str">
-        <f>CONCATENATE(LEFT(M39,4),"-",MID(M39,5,2),"-",RIGHT(M39,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-23</v>
       </c>
       <c r="B39" s="1">
@@ -2365,9 +2973,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="str">
-        <f>CONCATENATE(LEFT(M40,4),"-",MID(M40,5,2),"-",RIGHT(M40,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-23</v>
       </c>
       <c r="B40" s="1">
@@ -2407,9 +3015,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="str">
-        <f>CONCATENATE(LEFT(M41,4),"-",MID(M41,5,2),"-",RIGHT(M41,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-23</v>
       </c>
       <c r="B41" s="1">
@@ -2449,9 +3057,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="str">
-        <f>CONCATENATE(LEFT(M42,4),"-",MID(M42,5,2),"-",RIGHT(M42,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-23</v>
       </c>
       <c r="B42" s="1">
@@ -2491,9 +3099,9 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="str">
-        <f>CONCATENATE(LEFT(M43,4),"-",MID(M43,5,2),"-",RIGHT(M43,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-24</v>
       </c>
       <c r="B43" s="1">
@@ -2533,9 +3141,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" t="str">
-        <f>CONCATENATE(LEFT(M44,4),"-",MID(M44,5,2),"-",RIGHT(M44,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-24</v>
       </c>
       <c r="B44" s="1">
@@ -2575,9 +3183,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="str">
-        <f>CONCATENATE(LEFT(M45,4),"-",MID(M45,5,2),"-",RIGHT(M45,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-24</v>
       </c>
       <c r="B45" s="1">
@@ -2617,9 +3225,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="str">
-        <f>CONCATENATE(LEFT(M46,4),"-",MID(M46,5,2),"-",RIGHT(M46,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-24</v>
       </c>
       <c r="B46" s="1">
@@ -2659,9 +3267,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="str">
-        <f>CONCATENATE(LEFT(M47,4),"-",MID(M47,5,2),"-",RIGHT(M47,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-24</v>
       </c>
       <c r="B47" s="1">
@@ -2701,9 +3309,9 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" t="str">
-        <f>CONCATENATE(LEFT(M48,4),"-",MID(M48,5,2),"-",RIGHT(M48,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-26</v>
       </c>
       <c r="B48" s="1">
@@ -2743,9 +3351,9 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="str">
-        <f>CONCATENATE(LEFT(M49,4),"-",MID(M49,5,2),"-",RIGHT(M49,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-26</v>
       </c>
       <c r="B49" s="1">
@@ -2785,9 +3393,9 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="str">
-        <f>CONCATENATE(LEFT(M50,4),"-",MID(M50,5,2),"-",RIGHT(M50,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-29</v>
       </c>
       <c r="B50" s="1">
@@ -2827,9 +3435,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" t="str">
-        <f>CONCATENATE(LEFT(M51,4),"-",MID(M51,5,2),"-",RIGHT(M51,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-29</v>
       </c>
       <c r="B51" s="1">
@@ -2869,9 +3477,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" t="str">
-        <f>CONCATENATE(LEFT(M52,4),"-",MID(M52,5,2),"-",RIGHT(M52,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-29</v>
       </c>
       <c r="B52" s="1">
@@ -2911,9 +3519,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" t="str">
-        <f>CONCATENATE(LEFT(M53,4),"-",MID(M53,5,2),"-",RIGHT(M53,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-02-29</v>
       </c>
       <c r="B53" s="1">
@@ -2953,9 +3561,9 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="str">
-        <f>CONCATENATE(LEFT(M54,4),"-",MID(M54,5,2),"-",RIGHT(M54,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-01</v>
       </c>
       <c r="B54" s="1">
@@ -2995,9 +3603,9 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="str">
-        <f>CONCATENATE(LEFT(M55,4),"-",MID(M55,5,2),"-",RIGHT(M55,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-01</v>
       </c>
       <c r="B55" s="1">
@@ -3037,9 +3645,9 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="str">
-        <f>CONCATENATE(LEFT(M56,4),"-",MID(M56,5,2),"-",RIGHT(M56,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-28</v>
       </c>
       <c r="B56" s="1">
@@ -3079,9 +3687,9 @@
         <v>20160328</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="str">
-        <f>CONCATENATE(LEFT(M57,4),"-",MID(M57,5,2),"-",RIGHT(M57,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-29</v>
       </c>
       <c r="B57" s="1">
@@ -3121,9 +3729,9 @@
         <v>20160329</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" t="str">
-        <f>CONCATENATE(LEFT(M58,4),"-",MID(M58,5,2),"-",RIGHT(M58,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-30</v>
       </c>
       <c r="B58" s="1">
@@ -3142,7 +3750,7 @@
         <v>1200</v>
       </c>
       <c r="G58" s="1">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H58" s="1">
         <v>23088</v>
@@ -3163,9 +3771,9 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="str">
-        <f>CONCATENATE(LEFT(M59,4),"-",MID(M59,5,2),"-",RIGHT(M59,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-30</v>
       </c>
       <c r="B59" s="1">
@@ -3205,9 +3813,9 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="str">
-        <f>CONCATENATE(LEFT(M60,4),"-",MID(M60,5,2),"-",RIGHT(M60,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-31</v>
       </c>
       <c r="B60" s="1">
@@ -3226,7 +3834,7 @@
         <v>-1200</v>
       </c>
       <c r="G60" s="1">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H60" s="1">
         <v>23088</v>
@@ -3247,9 +3855,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" t="str">
-        <f>CONCATENATE(LEFT(M61,4),"-",MID(M61,5,2),"-",RIGHT(M61,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-31</v>
       </c>
       <c r="B61" s="1">
@@ -3289,9 +3897,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" t="str">
-        <f>CONCATENATE(LEFT(M62,4),"-",MID(M62,5,2),"-",RIGHT(M62,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-03-31</v>
       </c>
       <c r="B62" s="1">
@@ -3331,9 +3939,9 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" t="str">
-        <f>CONCATENATE(LEFT(M63,4),"-",MID(M63,5,2),"-",RIGHT(M63,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-04-01</v>
       </c>
       <c r="B63" s="1">
@@ -3373,9 +3981,9 @@
         <v>20160401</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="str">
-        <f>CONCATENATE(LEFT(M64,4),"-",MID(M64,5,2),"-",RIGHT(M64,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-04-05</v>
       </c>
       <c r="B64" s="1">
@@ -3415,9 +4023,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="str">
-        <f>CONCATENATE(LEFT(M65,4),"-",MID(M65,5,2),"-",RIGHT(M65,2))</f>
+        <f t="shared" si="0"/>
         <v>2016-04-05</v>
       </c>
       <c r="B65" s="1">
@@ -3436,7 +4044,7 @@
         <v>2300</v>
       </c>
       <c r="G65" s="1">
-        <v>7.0510000000000002</v>
+        <v>7.051</v>
       </c>
       <c r="H65" s="1">
         <v>16218</v>
@@ -3457,9 +4065,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" t="str">
-        <f>CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
+        <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
         <v>2016-04-05</v>
       </c>
       <c r="B66" s="1">
@@ -3499,9 +4107,9 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" t="str">
-        <f>CONCATENATE(LEFT(M67,4),"-",MID(M67,5,2),"-",RIGHT(M67,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-06</v>
       </c>
       <c r="B67" s="1">
@@ -3541,9 +4149,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" t="str">
-        <f>CONCATENATE(LEFT(M68,4),"-",MID(M68,5,2),"-",RIGHT(M68,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-06</v>
       </c>
       <c r="B68" s="1">
@@ -3562,7 +4170,7 @@
         <v>-2800</v>
       </c>
       <c r="G68" s="1">
-        <v>5.3710000000000004</v>
+        <v>5.371</v>
       </c>
       <c r="H68" s="1">
         <v>15040</v>
@@ -3583,9 +4191,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" t="str">
-        <f>CONCATENATE(LEFT(M69,4),"-",MID(M69,5,2),"-",RIGHT(M69,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-06</v>
       </c>
       <c r="B69" s="1">
@@ -3625,9 +4233,9 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="str">
-        <f>CONCATENATE(LEFT(M70,4),"-",MID(M70,5,2),"-",RIGHT(M70,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-11</v>
       </c>
       <c r="B70" s="1">
@@ -3667,9 +4275,9 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="str">
-        <f>CONCATENATE(LEFT(M71,4),"-",MID(M71,5,2),"-",RIGHT(M71,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-11</v>
       </c>
       <c r="B71" s="1">
@@ -3709,9 +4317,9 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" t="str">
-        <f>CONCATENATE(LEFT(M72,4),"-",MID(M72,5,2),"-",RIGHT(M72,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-12</v>
       </c>
       <c r="B72" s="1">
@@ -3751,9 +4359,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="str">
-        <f>CONCATENATE(LEFT(M73,4),"-",MID(M73,5,2),"-",RIGHT(M73,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-12</v>
       </c>
       <c r="B73" s="1">
@@ -3793,9 +4401,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" t="str">
-        <f>CONCATENATE(LEFT(M74,4),"-",MID(M74,5,2),"-",RIGHT(M74,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-12</v>
       </c>
       <c r="B74" s="1">
@@ -3835,9 +4443,9 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="str">
-        <f>CONCATENATE(LEFT(M75,4),"-",MID(M75,5,2),"-",RIGHT(M75,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-13</v>
       </c>
       <c r="B75" s="1">
@@ -3877,9 +4485,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" t="str">
-        <f>CONCATENATE(LEFT(M76,4),"-",MID(M76,5,2),"-",RIGHT(M76,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-13</v>
       </c>
       <c r="B76" s="1">
@@ -3919,9 +4527,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" t="str">
-        <f>CONCATENATE(LEFT(M77,4),"-",MID(M77,5,2),"-",RIGHT(M77,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-13</v>
       </c>
       <c r="B77" s="1">
@@ -3961,9 +4569,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" t="str">
-        <f>CONCATENATE(LEFT(M78,4),"-",MID(M78,5,2),"-",RIGHT(M78,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-13</v>
       </c>
       <c r="B78" s="1">
@@ -4003,9 +4611,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" t="str">
-        <f>CONCATENATE(LEFT(M79,4),"-",MID(M79,5,2),"-",RIGHT(M79,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-13</v>
       </c>
       <c r="B79" s="1">
@@ -4045,9 +4653,9 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="str">
-        <f>CONCATENATE(LEFT(M80,4),"-",MID(M80,5,2),"-",RIGHT(M80,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B80" s="1">
@@ -4087,9 +4695,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" t="str">
-        <f>CONCATENATE(LEFT(M81,4),"-",MID(M81,5,2),"-",RIGHT(M81,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B81" s="1">
@@ -4129,9 +4737,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" t="str">
-        <f>CONCATENATE(LEFT(M82,4),"-",MID(M82,5,2),"-",RIGHT(M82,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B82" s="1">
@@ -4171,9 +4779,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" t="str">
-        <f>CONCATENATE(LEFT(M83,4),"-",MID(M83,5,2),"-",RIGHT(M83,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B83" s="1">
@@ -4213,9 +4821,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" t="str">
-        <f>CONCATENATE(LEFT(M84,4),"-",MID(M84,5,2),"-",RIGHT(M84,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B84" s="1">
@@ -4255,9 +4863,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" t="str">
-        <f>CONCATENATE(LEFT(M85,4),"-",MID(M85,5,2),"-",RIGHT(M85,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B85" s="1">
@@ -4297,9 +4905,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" t="str">
-        <f>CONCATENATE(LEFT(M86,4),"-",MID(M86,5,2),"-",RIGHT(M86,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-14</v>
       </c>
       <c r="B86" s="1">
@@ -4339,9 +4947,9 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" t="str">
-        <f>CONCATENATE(LEFT(M87,4),"-",MID(M87,5,2),"-",RIGHT(M87,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-18</v>
       </c>
       <c r="B87" s="1">
@@ -4381,9 +4989,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" t="str">
-        <f>CONCATENATE(LEFT(M88,4),"-",MID(M88,5,2),"-",RIGHT(M88,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-18</v>
       </c>
       <c r="B88" s="1">
@@ -4423,9 +5031,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" t="str">
-        <f>CONCATENATE(LEFT(M89,4),"-",MID(M89,5,2),"-",RIGHT(M89,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-18</v>
       </c>
       <c r="B89" s="1">
@@ -4465,9 +5073,9 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" t="str">
-        <f>CONCATENATE(LEFT(M90,4),"-",MID(M90,5,2),"-",RIGHT(M90,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-20</v>
       </c>
       <c r="B90" s="1">
@@ -4507,9 +5115,9 @@
         <v>20160420</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" t="str">
-        <f>CONCATENATE(LEFT(M91,4),"-",MID(M91,5,2),"-",RIGHT(M91,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-04-29</v>
       </c>
       <c r="B91" s="1">
@@ -4549,9 +5157,9 @@
         <v>20160429</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" t="str">
-        <f>CONCATENATE(LEFT(M92,4),"-",MID(M92,5,2),"-",RIGHT(M92,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-02</v>
       </c>
       <c r="B92" s="1">
@@ -4570,7 +5178,7 @@
         <v>1300</v>
       </c>
       <c r="G92" s="1">
-        <v>9.1300000000000008</v>
+        <v>9.13</v>
       </c>
       <c r="H92" s="1">
         <v>11869</v>
@@ -4591,9 +5199,9 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" t="str">
-        <f>CONCATENATE(LEFT(M93,4),"-",MID(M93,5,2),"-",RIGHT(M93,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-02</v>
       </c>
       <c r="B93" s="1">
@@ -4633,9 +5241,9 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" t="str">
-        <f>CONCATENATE(LEFT(M94,4),"-",MID(M94,5,2),"-",RIGHT(M94,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-03</v>
       </c>
       <c r="B94" s="1">
@@ -4675,9 +5283,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" t="str">
-        <f>CONCATENATE(LEFT(M95,4),"-",MID(M95,5,2),"-",RIGHT(M95,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-03</v>
       </c>
       <c r="B95" s="1">
@@ -4717,9 +5325,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" t="str">
-        <f>CONCATENATE(LEFT(M96,4),"-",MID(M96,5,2),"-",RIGHT(M96,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-03</v>
       </c>
       <c r="B96" s="1">
@@ -4759,9 +5367,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" t="str">
-        <f>CONCATENATE(LEFT(M97,4),"-",MID(M97,5,2),"-",RIGHT(M97,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-03</v>
       </c>
       <c r="B97" s="1">
@@ -4801,9 +5409,9 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" t="str">
-        <f>CONCATENATE(LEFT(M98,4),"-",MID(M98,5,2),"-",RIGHT(M98,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-07</v>
       </c>
       <c r="B98" s="1">
@@ -4843,9 +5451,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" t="str">
-        <f>CONCATENATE(LEFT(M99,4),"-",MID(M99,5,2),"-",RIGHT(M99,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-07</v>
       </c>
       <c r="B99" s="1">
@@ -4885,9 +5493,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" t="str">
-        <f>CONCATENATE(LEFT(M100,4),"-",MID(M100,5,2),"-",RIGHT(M100,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-07</v>
       </c>
       <c r="B100" s="1">
@@ -4927,9 +5535,9 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" t="str">
-        <f>CONCATENATE(LEFT(M101,4),"-",MID(M101,5,2),"-",RIGHT(M101,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-13</v>
       </c>
       <c r="B101" s="1">
@@ -4969,9 +5577,9 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" t="str">
-        <f>CONCATENATE(LEFT(M102,4),"-",MID(M102,5,2),"-",RIGHT(M102,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-13</v>
       </c>
       <c r="B102" s="1">
@@ -4990,7 +5598,7 @@
         <v>-2200</v>
       </c>
       <c r="G102" s="1">
-        <v>20.106000000000002</v>
+        <v>20.106</v>
       </c>
       <c r="H102" s="1">
         <v>44233</v>
@@ -5011,9 +5619,9 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" t="str">
-        <f>CONCATENATE(LEFT(M103,4),"-",MID(M103,5,2),"-",RIGHT(M103,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-06-21</v>
       </c>
       <c r="B103" s="1">
@@ -5053,9 +5661,9 @@
         <v>20160621</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" t="str">
-        <f>CONCATENATE(LEFT(M104,4),"-",MID(M104,5,2),"-",RIGHT(M104,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-13</v>
       </c>
       <c r="B104" s="1">
@@ -5095,9 +5703,9 @@
         <v>20160713</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" t="str">
-        <f>CONCATENATE(LEFT(M105,4),"-",MID(M105,5,2),"-",RIGHT(M105,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-14</v>
       </c>
       <c r="B105" s="1">
@@ -5137,9 +5745,9 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" t="str">
-        <f>CONCATENATE(LEFT(M106,4),"-",MID(M106,5,2),"-",RIGHT(M106,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-14</v>
       </c>
       <c r="B106" s="1">
@@ -5179,9 +5787,9 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" t="str">
-        <f>CONCATENATE(LEFT(M107,4),"-",MID(M107,5,2),"-",RIGHT(M107,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-18</v>
       </c>
       <c r="B107" s="1">
@@ -5221,9 +5829,9 @@
         <v>20160718</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" t="str">
-        <f>CONCATENATE(LEFT(M108,4),"-",MID(M108,5,2),"-",RIGHT(M108,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-19</v>
       </c>
       <c r="B108" s="1">
@@ -5263,9 +5871,9 @@
         <v>20160719</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" t="str">
-        <f>CONCATENATE(LEFT(M109,4),"-",MID(M109,5,2),"-",RIGHT(M109,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-21</v>
       </c>
       <c r="B109" s="1">
@@ -5305,9 +5913,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" t="str">
-        <f>CONCATENATE(LEFT(M110,4),"-",MID(M110,5,2),"-",RIGHT(M110,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-21</v>
       </c>
       <c r="B110" s="1">
@@ -5347,9 +5955,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" t="str">
-        <f>CONCATENATE(LEFT(M111,4),"-",MID(M111,5,2),"-",RIGHT(M111,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-21</v>
       </c>
       <c r="B111" s="1">
@@ -5389,9 +5997,9 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" t="str">
-        <f>CONCATENATE(LEFT(M112,4),"-",MID(M112,5,2),"-",RIGHT(M112,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-22</v>
       </c>
       <c r="B112" s="1">
@@ -5431,9 +6039,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" t="str">
-        <f>CONCATENATE(LEFT(M113,4),"-",MID(M113,5,2),"-",RIGHT(M113,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-22</v>
       </c>
       <c r="B113" s="1">
@@ -5473,9 +6081,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" t="str">
-        <f>CONCATENATE(LEFT(M114,4),"-",MID(M114,5,2),"-",RIGHT(M114,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-22</v>
       </c>
       <c r="B114" s="1">
@@ -5515,9 +6123,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" t="str">
-        <f>CONCATENATE(LEFT(M115,4),"-",MID(M115,5,2),"-",RIGHT(M115,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-22</v>
       </c>
       <c r="B115" s="1">
@@ -5557,9 +6165,9 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" t="str">
-        <f>CONCATENATE(LEFT(M116,4),"-",MID(M116,5,2),"-",RIGHT(M116,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-25</v>
       </c>
       <c r="B116" s="1">
@@ -5599,9 +6207,9 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" t="str">
-        <f>CONCATENATE(LEFT(M117,4),"-",MID(M117,5,2),"-",RIGHT(M117,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-25</v>
       </c>
       <c r="B117" s="1">
@@ -5641,9 +6249,9 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" t="str">
-        <f>CONCATENATE(LEFT(M118,4),"-",MID(M118,5,2),"-",RIGHT(M118,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-26</v>
       </c>
       <c r="B118" s="1">
@@ -5683,9 +6291,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" t="str">
-        <f>CONCATENATE(LEFT(M119,4),"-",MID(M119,5,2),"-",RIGHT(M119,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-26</v>
       </c>
       <c r="B119" s="1">
@@ -5725,9 +6333,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" t="str">
-        <f>CONCATENATE(LEFT(M120,4),"-",MID(M120,5,2),"-",RIGHT(M120,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-26</v>
       </c>
       <c r="B120" s="1">
@@ -5767,9 +6375,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" t="str">
-        <f>CONCATENATE(LEFT(M121,4),"-",MID(M121,5,2),"-",RIGHT(M121,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-26</v>
       </c>
       <c r="B121" s="1">
@@ -5809,9 +6417,9 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" t="str">
-        <f>CONCATENATE(LEFT(M122,4),"-",MID(M122,5,2),"-",RIGHT(M122,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-27</v>
       </c>
       <c r="B122" s="1">
@@ -5851,9 +6459,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" t="str">
-        <f>CONCATENATE(LEFT(M123,4),"-",MID(M123,5,2),"-",RIGHT(M123,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-27</v>
       </c>
       <c r="B123" s="1">
@@ -5893,9 +6501,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" t="str">
-        <f>CONCATENATE(LEFT(M124,4),"-",MID(M124,5,2),"-",RIGHT(M124,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-27</v>
       </c>
       <c r="B124" s="1">
@@ -5935,9 +6543,9 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" t="str">
-        <f>CONCATENATE(LEFT(M125,4),"-",MID(M125,5,2),"-",RIGHT(M125,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-28</v>
       </c>
       <c r="B125" s="1">
@@ -5977,9 +6585,9 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" t="str">
-        <f>CONCATENATE(LEFT(M126,4),"-",MID(M126,5,2),"-",RIGHT(M126,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-07-28</v>
       </c>
       <c r="B126" s="1">
@@ -6019,9 +6627,9 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" t="str">
-        <f>CONCATENATE(LEFT(M127,4),"-",MID(M127,5,2),"-",RIGHT(M127,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-08-01</v>
       </c>
       <c r="B127" s="1">
@@ -6040,7 +6648,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="1">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="H127" s="1">
         <v>9210</v>
@@ -6061,9 +6669,9 @@
         <v>20160801</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" t="str">
-        <f>CONCATENATE(LEFT(M128,4),"-",MID(M128,5,2),"-",RIGHT(M128,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-08-03</v>
       </c>
       <c r="B128" s="1">
@@ -6082,7 +6690,7 @@
         <v>-1000</v>
       </c>
       <c r="G128" s="1">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="H128" s="1">
         <v>9280</v>
@@ -6103,9 +6711,9 @@
         <v>20160803</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" t="str">
-        <f>CONCATENATE(LEFT(M129,4),"-",MID(M129,5,2),"-",RIGHT(M129,2))</f>
+        <f t="shared" si="1"/>
         <v>2016-08-05</v>
       </c>
       <c r="B129" s="1">
@@ -6145,9 +6753,9 @@
         <v>20160805</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" t="str">
-        <f>CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
+        <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
         <v>2016-08-10</v>
       </c>
       <c r="B130" s="1">
@@ -6187,9 +6795,9 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" t="str">
-        <f>CONCATENATE(LEFT(M131,4),"-",MID(M131,5,2),"-",RIGHT(M131,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-10</v>
       </c>
       <c r="B131" s="1">
@@ -6229,9 +6837,9 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" t="str">
-        <f>CONCATENATE(LEFT(M132,4),"-",MID(M132,5,2),"-",RIGHT(M132,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-12</v>
       </c>
       <c r="B132" s="1">
@@ -6271,9 +6879,9 @@
         <v>20160812</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" t="str">
-        <f>CONCATENATE(LEFT(M133,4),"-",MID(M133,5,2),"-",RIGHT(M133,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-16</v>
       </c>
       <c r="B133" s="1">
@@ -6313,9 +6921,9 @@
         <v>20160816</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" t="str">
-        <f>CONCATENATE(LEFT(M134,4),"-",MID(M134,5,2),"-",RIGHT(M134,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-18</v>
       </c>
       <c r="B134" s="1">
@@ -6355,9 +6963,9 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" t="str">
-        <f>CONCATENATE(LEFT(M135,4),"-",MID(M135,5,2),"-",RIGHT(M135,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-18</v>
       </c>
       <c r="B135" s="1">
@@ -6376,7 +6984,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H135" s="1">
         <v>8370</v>
@@ -6397,9 +7005,9 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" t="str">
-        <f>CONCATENATE(LEFT(M136,4),"-",MID(M136,5,2),"-",RIGHT(M136,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-19</v>
       </c>
       <c r="B136" s="1">
@@ -6439,9 +7047,9 @@
         <v>20160819</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" t="str">
-        <f>CONCATENATE(LEFT(M137,4),"-",MID(M137,5,2),"-",RIGHT(M137,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-24</v>
       </c>
       <c r="B137" s="1">
@@ -6481,9 +7089,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" t="str">
-        <f>CONCATENATE(LEFT(M138,4),"-",MID(M138,5,2),"-",RIGHT(M138,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-24</v>
       </c>
       <c r="B138" s="1">
@@ -6523,9 +7131,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" t="str">
-        <f>CONCATENATE(LEFT(M139,4),"-",MID(M139,5,2),"-",RIGHT(M139,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-24</v>
       </c>
       <c r="B139" s="1">
@@ -6565,9 +7173,9 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" t="str">
-        <f>CONCATENATE(LEFT(M140,4),"-",MID(M140,5,2),"-",RIGHT(M140,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-25</v>
       </c>
       <c r="B140" s="1">
@@ -6607,9 +7215,9 @@
         <v>20160825</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" t="str">
-        <f>CONCATENATE(LEFT(M141,4),"-",MID(M141,5,2),"-",RIGHT(M141,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-26</v>
       </c>
       <c r="B141" s="1">
@@ -6649,9 +7257,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" t="str">
-        <f>CONCATENATE(LEFT(M142,4),"-",MID(M142,5,2),"-",RIGHT(M142,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-26</v>
       </c>
       <c r="B142" s="1">
@@ -6691,9 +7299,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" t="str">
-        <f>CONCATENATE(LEFT(M143,4),"-",MID(M143,5,2),"-",RIGHT(M143,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-26</v>
       </c>
       <c r="B143" s="1">
@@ -6733,9 +7341,9 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" t="str">
-        <f>CONCATENATE(LEFT(M144,4),"-",MID(M144,5,2),"-",RIGHT(M144,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-30</v>
       </c>
       <c r="B144" s="1">
@@ -6775,9 +7383,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" t="str">
-        <f>CONCATENATE(LEFT(M145,4),"-",MID(M145,5,2),"-",RIGHT(M145,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-30</v>
       </c>
       <c r="B145" s="1">
@@ -6817,9 +7425,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" t="str">
-        <f>CONCATENATE(LEFT(M146,4),"-",MID(M146,5,2),"-",RIGHT(M146,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-30</v>
       </c>
       <c r="B146" s="1">
@@ -6859,9 +7467,9 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" t="str">
-        <f>CONCATENATE(LEFT(M147,4),"-",MID(M147,5,2),"-",RIGHT(M147,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-08-31</v>
       </c>
       <c r="B147" s="1">
@@ -6901,9 +7509,9 @@
         <v>20160831</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" t="str">
-        <f>CONCATENATE(LEFT(M148,4),"-",MID(M148,5,2),"-",RIGHT(M148,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-01</v>
       </c>
       <c r="B148" s="1">
@@ -6943,9 +7551,9 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" t="str">
-        <f>CONCATENATE(LEFT(M149,4),"-",MID(M149,5,2),"-",RIGHT(M149,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-01</v>
       </c>
       <c r="B149" s="1">
@@ -6964,7 +7572,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H149" s="1">
         <v>4185</v>
@@ -6985,9 +7593,9 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" t="str">
-        <f>CONCATENATE(LEFT(M150,4),"-",MID(M150,5,2),"-",RIGHT(M150,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-02</v>
       </c>
       <c r="B150" s="1">
@@ -7027,9 +7635,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" t="str">
-        <f>CONCATENATE(LEFT(M151,4),"-",MID(M151,5,2),"-",RIGHT(M151,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-02</v>
       </c>
       <c r="B151" s="1">
@@ -7069,9 +7677,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" t="str">
-        <f>CONCATENATE(LEFT(M152,4),"-",MID(M152,5,2),"-",RIGHT(M152,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-02</v>
       </c>
       <c r="B152" s="1">
@@ -7090,7 +7698,7 @@
         <v>-300</v>
       </c>
       <c r="G152" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="H152" s="1">
         <v>2487</v>
@@ -7111,9 +7719,9 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" t="str">
-        <f>CONCATENATE(LEFT(M153,4),"-",MID(M153,5,2),"-",RIGHT(M153,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-09</v>
       </c>
       <c r="B153" s="1">
@@ -7132,7 +7740,7 @@
         <v>-400</v>
       </c>
       <c r="G153" s="1">
-        <v>11.688000000000001</v>
+        <v>11.688</v>
       </c>
       <c r="H153" s="1">
         <v>4675</v>
@@ -7153,9 +7761,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" t="str">
-        <f>CONCATENATE(LEFT(M154,4),"-",MID(M154,5,2),"-",RIGHT(M154,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-09</v>
       </c>
       <c r="B154" s="1">
@@ -7195,9 +7803,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" t="str">
-        <f>CONCATENATE(LEFT(M155,4),"-",MID(M155,5,2),"-",RIGHT(M155,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-09</v>
       </c>
       <c r="B155" s="1">
@@ -7237,9 +7845,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" t="str">
-        <f>CONCATENATE(LEFT(M156,4),"-",MID(M156,5,2),"-",RIGHT(M156,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-09</v>
       </c>
       <c r="B156" s="1">
@@ -7258,7 +7866,7 @@
         <v>400</v>
       </c>
       <c r="G156" s="1">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="H156" s="1">
         <v>3420</v>
@@ -7279,9 +7887,9 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" t="str">
-        <f>CONCATENATE(LEFT(M157,4),"-",MID(M157,5,2),"-",RIGHT(M157,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-12</v>
       </c>
       <c r="B157" s="1">
@@ -7321,9 +7929,9 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" t="str">
-        <f>CONCATENATE(LEFT(M158,4),"-",MID(M158,5,2),"-",RIGHT(M158,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-12</v>
       </c>
       <c r="B158" s="1">
@@ -7363,9 +7971,9 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" t="str">
-        <f>CONCATENATE(LEFT(M159,4),"-",MID(M159,5,2),"-",RIGHT(M159,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-14</v>
       </c>
       <c r="B159" s="1">
@@ -7384,7 +7992,7 @@
         <v>-400</v>
       </c>
       <c r="G159" s="1">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="H159" s="1">
         <v>3488</v>
@@ -7405,9 +8013,9 @@
         <v>20160914</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" t="str">
-        <f>CONCATENATE(LEFT(M160,4),"-",MID(M160,5,2),"-",RIGHT(M160,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-26</v>
       </c>
       <c r="B160" s="1">
@@ -7447,9 +8055,9 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" t="str">
-        <f>CONCATENATE(LEFT(M161,4),"-",MID(M161,5,2),"-",RIGHT(M161,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-26</v>
       </c>
       <c r="B161" s="1">
@@ -7489,9 +8097,9 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" t="str">
-        <f>CONCATENATE(LEFT(M162,4),"-",MID(M162,5,2),"-",RIGHT(M162,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-09-28</v>
       </c>
       <c r="B162" s="1">
@@ -7531,9 +8139,9 @@
         <v>20160928</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" t="str">
-        <f>CONCATENATE(LEFT(M163,4),"-",MID(M163,5,2),"-",RIGHT(M163,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-13</v>
       </c>
       <c r="B163" s="1">
@@ -7573,9 +8181,9 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" t="str">
-        <f>CONCATENATE(LEFT(M164,4),"-",MID(M164,5,2),"-",RIGHT(M164,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-13</v>
       </c>
       <c r="B164" s="1">
@@ -7594,7 +8202,7 @@
         <v>-400</v>
       </c>
       <c r="G164" s="1">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="H164" s="1">
         <v>3416</v>
@@ -7615,9 +8223,9 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" t="str">
-        <f>CONCATENATE(LEFT(M165,4),"-",MID(M165,5,2),"-",RIGHT(M165,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-21</v>
       </c>
       <c r="B165" s="1">
@@ -7657,9 +8265,9 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" t="str">
-        <f>CONCATENATE(LEFT(M166,4),"-",MID(M166,5,2),"-",RIGHT(M166,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-21</v>
       </c>
       <c r="B166" s="1">
@@ -7678,7 +8286,7 @@
         <v>400</v>
       </c>
       <c r="G166" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H166" s="1">
         <v>3348</v>
@@ -7699,9 +8307,9 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" t="str">
-        <f>CONCATENATE(LEFT(M167,4),"-",MID(M167,5,2),"-",RIGHT(M167,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-25</v>
       </c>
       <c r="B167" s="1">
@@ -7741,9 +8349,9 @@
         <v>20161025</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" t="str">
-        <f>CONCATENATE(LEFT(M168,4),"-",MID(M168,5,2),"-",RIGHT(M168,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-10-28</v>
       </c>
       <c r="B168" s="1">
@@ -7783,9 +8391,9 @@
         <v>20161028</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" t="str">
-        <f>CONCATENATE(LEFT(M169,4),"-",MID(M169,5,2),"-",RIGHT(M169,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-08</v>
       </c>
       <c r="B169" s="1">
@@ -7825,9 +8433,9 @@
         <v>20161108</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" t="str">
-        <f>CONCATENATE(LEFT(M170,4),"-",MID(M170,5,2),"-",RIGHT(M170,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-09</v>
       </c>
       <c r="B170" s="1">
@@ -7867,9 +8475,9 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" t="str">
-        <f>CONCATENATE(LEFT(M171,4),"-",MID(M171,5,2),"-",RIGHT(M171,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-09</v>
       </c>
       <c r="B171" s="1">
@@ -7909,9 +8517,9 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" t="str">
-        <f>CONCATENATE(LEFT(M172,4),"-",MID(M172,5,2),"-",RIGHT(M172,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-10</v>
       </c>
       <c r="B172" s="1">
@@ -7951,9 +8559,9 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" t="str">
-        <f>CONCATENATE(LEFT(M173,4),"-",MID(M173,5,2),"-",RIGHT(M173,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-10</v>
       </c>
       <c r="B173" s="1">
@@ -7993,9 +8601,9 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" t="str">
-        <f>CONCATENATE(LEFT(M174,4),"-",MID(M174,5,2),"-",RIGHT(M174,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-14</v>
       </c>
       <c r="B174" s="1">
@@ -8014,7 +8622,7 @@
         <v>-200</v>
       </c>
       <c r="G174" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="H174" s="1">
         <v>1660</v>
@@ -8035,9 +8643,9 @@
         <v>20161114</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" t="str">
-        <f>CONCATENATE(LEFT(M175,4),"-",MID(M175,5,2),"-",RIGHT(M175,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-17</v>
       </c>
       <c r="B175" s="1">
@@ -8077,9 +8685,9 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" t="str">
-        <f>CONCATENATE(LEFT(M176,4),"-",MID(M176,5,2),"-",RIGHT(M176,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-17</v>
       </c>
       <c r="B176" s="1">
@@ -8098,7 +8706,7 @@
         <v>-200</v>
       </c>
       <c r="G176" s="1">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="H176" s="1">
         <v>1644</v>
@@ -8119,9 +8727,9 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" t="str">
-        <f>CONCATENATE(LEFT(M177,4),"-",MID(M177,5,2),"-",RIGHT(M177,2))</f>
+        <f t="shared" si="2"/>
         <v>2016-11-21</v>
       </c>
       <c r="B177" s="1">
@@ -8161,9 +8769,9 @@
         <v>20161121</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" t="str">
-        <f>CONCATENATE(LEFT(M178,4),"-",MID(M178,5,2),"-",RIGHT(M178,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-13</v>
       </c>
       <c r="B178">
@@ -8203,9 +8811,9 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" t="str">
-        <f>CONCATENATE(LEFT(M179,4),"-",MID(M179,5,2),"-",RIGHT(M179,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-13</v>
       </c>
       <c r="B179">
@@ -8245,9 +8853,9 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" t="str">
-        <f>CONCATENATE(LEFT(M180,4),"-",MID(M180,5,2),"-",RIGHT(M180,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-18</v>
       </c>
       <c r="B180">
@@ -8287,9 +8895,9 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" t="str">
-        <f>CONCATENATE(LEFT(M181,4),"-",MID(M181,5,2),"-",RIGHT(M181,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-18</v>
       </c>
       <c r="B181">
@@ -8329,9 +8937,9 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" t="str">
-        <f>CONCATENATE(LEFT(M182,4),"-",MID(M182,5,2),"-",RIGHT(M182,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-24</v>
       </c>
       <c r="B182">
@@ -8371,9 +8979,9 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" t="str">
-        <f>CONCATENATE(LEFT(M183,4),"-",MID(M183,5,2),"-",RIGHT(M183,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-24</v>
       </c>
       <c r="B183">
@@ -8413,9 +9021,9 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" t="str">
-        <f>CONCATENATE(LEFT(M184,4),"-",MID(M184,5,2),"-",RIGHT(M184,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-26</v>
       </c>
       <c r="B184">
@@ -8455,9 +9063,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" t="str">
-        <f>CONCATENATE(LEFT(M185,4),"-",MID(M185,5,2),"-",RIGHT(M185,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-26</v>
       </c>
       <c r="B185">
@@ -8497,9 +9105,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" t="str">
-        <f>CONCATENATE(LEFT(M186,4),"-",MID(M186,5,2),"-",RIGHT(M186,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-26</v>
       </c>
       <c r="B186">
@@ -8518,7 +9126,7 @@
         <v>-100</v>
       </c>
       <c r="G186">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="H186">
         <v>3620</v>
@@ -8539,9 +9147,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" t="str">
-        <f>CONCATENATE(LEFT(M187,4),"-",MID(M187,5,2),"-",RIGHT(M187,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-26</v>
       </c>
       <c r="B187">
@@ -8581,9 +9189,9 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" t="str">
-        <f>CONCATENATE(LEFT(M188,4),"-",MID(M188,5,2),"-",RIGHT(M188,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-27</v>
       </c>
       <c r="B188">
@@ -8623,9 +9231,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" t="str">
-        <f>CONCATENATE(LEFT(M189,4),"-",MID(M189,5,2),"-",RIGHT(M189,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-27</v>
       </c>
       <c r="B189">
@@ -8665,9 +9273,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" t="str">
-        <f>CONCATENATE(LEFT(M190,4),"-",MID(M190,5,2),"-",RIGHT(M190,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-27</v>
       </c>
       <c r="B190">
@@ -8707,9 +9315,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" t="str">
-        <f>CONCATENATE(LEFT(M191,4),"-",MID(M191,5,2),"-",RIGHT(M191,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-27</v>
       </c>
       <c r="B191">
@@ -8728,7 +9336,7 @@
         <v>-100</v>
       </c>
       <c r="G191">
-        <v>36.380000000000003</v>
+        <v>36.38</v>
       </c>
       <c r="H191">
         <v>3638</v>
@@ -8749,9 +9357,9 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" t="str">
-        <f>CONCATENATE(LEFT(M192,4),"-",MID(M192,5,2),"-",RIGHT(M192,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-28</v>
       </c>
       <c r="B192">
@@ -8791,9 +9399,9 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" t="str">
-        <f>CONCATENATE(LEFT(M193,4),"-",MID(M193,5,2),"-",RIGHT(M193,2))</f>
+        <f t="shared" si="2"/>
         <v>2017-04-28</v>
       </c>
       <c r="B193">
@@ -8833,9 +9441,9 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" t="str">
-        <f>CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
+        <f t="shared" ref="A194:A257" si="3">CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
         <v>2017-05-02</v>
       </c>
       <c r="B194">
@@ -8875,9 +9483,9 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" t="str">
-        <f>CONCATENATE(LEFT(M195,4),"-",MID(M195,5,2),"-",RIGHT(M195,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-02</v>
       </c>
       <c r="B195">
@@ -8917,9 +9525,9 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" t="str">
-        <f>CONCATENATE(LEFT(M196,4),"-",MID(M196,5,2),"-",RIGHT(M196,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-05</v>
       </c>
       <c r="B196">
@@ -8959,9 +9567,9 @@
         <v>20170505</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" t="str">
-        <f>CONCATENATE(LEFT(M197,4),"-",MID(M197,5,2),"-",RIGHT(M197,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-08</v>
       </c>
       <c r="B197">
@@ -9001,9 +9609,9 @@
         <v>20170508</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" t="str">
-        <f>CONCATENATE(LEFT(M198,4),"-",MID(M198,5,2),"-",RIGHT(M198,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-12</v>
       </c>
       <c r="B198">
@@ -9043,9 +9651,9 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" t="str">
-        <f>CONCATENATE(LEFT(M199,4),"-",MID(M199,5,2),"-",RIGHT(M199,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-12</v>
       </c>
       <c r="B199">
@@ -9085,9 +9693,9 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" t="str">
-        <f>CONCATENATE(LEFT(M200,4),"-",MID(M200,5,2),"-",RIGHT(M200,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-19</v>
       </c>
       <c r="B200">
@@ -9127,9 +9735,9 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" t="str">
-        <f>CONCATENATE(LEFT(M201,4),"-",MID(M201,5,2),"-",RIGHT(M201,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-19</v>
       </c>
       <c r="B201">
@@ -9169,9 +9777,9 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" t="str">
-        <f>CONCATENATE(LEFT(M202,4),"-",MID(M202,5,2),"-",RIGHT(M202,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-23</v>
       </c>
       <c r="B202">
@@ -9211,9 +9819,9 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" t="str">
-        <f>CONCATENATE(LEFT(M203,4),"-",MID(M203,5,2),"-",RIGHT(M203,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-05-23</v>
       </c>
       <c r="B203">
@@ -9253,9 +9861,9 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" t="str">
-        <f>CONCATENATE(LEFT(M204,4),"-",MID(M204,5,2),"-",RIGHT(M204,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-09</v>
       </c>
       <c r="B204">
@@ -9295,9 +9903,9 @@
         <v>20170609</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" t="str">
-        <f>CONCATENATE(LEFT(M205,4),"-",MID(M205,5,2),"-",RIGHT(M205,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-26</v>
       </c>
       <c r="B205">
@@ -9337,9 +9945,9 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" t="str">
-        <f>CONCATENATE(LEFT(M206,4),"-",MID(M206,5,2),"-",RIGHT(M206,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-26</v>
       </c>
       <c r="B206">
@@ -9379,9 +9987,9 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" t="str">
-        <f>CONCATENATE(LEFT(M207,4),"-",MID(M207,5,2),"-",RIGHT(M207,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-28</v>
       </c>
       <c r="B207">
@@ -9421,9 +10029,9 @@
         <v>20170628</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" t="str">
-        <f>CONCATENATE(LEFT(M208,4),"-",MID(M208,5,2),"-",RIGHT(M208,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-30</v>
       </c>
       <c r="B208">
@@ -9463,9 +10071,9 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" t="str">
-        <f>CONCATENATE(LEFT(M209,4),"-",MID(M209,5,2),"-",RIGHT(M209,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-06-30</v>
       </c>
       <c r="B209">
@@ -9505,9 +10113,9 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" t="str">
-        <f>CONCATENATE(LEFT(M210,4),"-",MID(M210,5,2),"-",RIGHT(M210,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-05</v>
       </c>
       <c r="B210">
@@ -9547,9 +10155,9 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" t="str">
-        <f>CONCATENATE(LEFT(M211,4),"-",MID(M211,5,2),"-",RIGHT(M211,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-05</v>
       </c>
       <c r="B211">
@@ -9589,9 +10197,9 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" t="str">
-        <f>CONCATENATE(LEFT(M212,4),"-",MID(M212,5,2),"-",RIGHT(M212,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-07</v>
       </c>
       <c r="B212">
@@ -9631,9 +10239,9 @@
         <v>20170707</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" t="str">
-        <f>CONCATENATE(LEFT(M213,4),"-",MID(M213,5,2),"-",RIGHT(M213,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-11</v>
       </c>
       <c r="B213">
@@ -9673,9 +10281,9 @@
         <v>20170711</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" t="str">
-        <f>CONCATENATE(LEFT(M214,4),"-",MID(M214,5,2),"-",RIGHT(M214,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-25</v>
       </c>
       <c r="B214">
@@ -9715,9 +10323,9 @@
         <v>20170725</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" t="str">
-        <f>CONCATENATE(LEFT(M215,4),"-",MID(M215,5,2),"-",RIGHT(M215,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-26</v>
       </c>
       <c r="B215">
@@ -9757,9 +10365,9 @@
         <v>20170726</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" t="str">
-        <f>CONCATENATE(LEFT(M216,4),"-",MID(M216,5,2),"-",RIGHT(M216,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-27</v>
       </c>
       <c r="B216">
@@ -9799,9 +10407,9 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" t="str">
-        <f>CONCATENATE(LEFT(M217,4),"-",MID(M217,5,2),"-",RIGHT(M217,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-07-27</v>
       </c>
       <c r="B217">
@@ -9841,9 +10449,9 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" t="str">
-        <f>CONCATENATE(LEFT(M218,4),"-",MID(M218,5,2),"-",RIGHT(M218,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-09</v>
       </c>
       <c r="B218">
@@ -9883,9 +10491,9 @@
         <v>20170809</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" t="str">
-        <f>CONCATENATE(LEFT(M219,4),"-",MID(M219,5,2),"-",RIGHT(M219,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-11</v>
       </c>
       <c r="B219">
@@ -9925,9 +10533,9 @@
         <v>20170811</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" t="str">
-        <f>CONCATENATE(LEFT(M220,4),"-",MID(M220,5,2),"-",RIGHT(M220,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-18</v>
       </c>
       <c r="B220">
@@ -9967,9 +10575,9 @@
         <v>20170818</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" t="str">
-        <f>CONCATENATE(LEFT(M221,4),"-",MID(M221,5,2),"-",RIGHT(M221,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-23</v>
       </c>
       <c r="B221">
@@ -10009,9 +10617,9 @@
         <v>20170823</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" t="str">
-        <f>CONCATENATE(LEFT(M222,4),"-",MID(M222,5,2),"-",RIGHT(M222,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-25</v>
       </c>
       <c r="B222">
@@ -10051,9 +10659,9 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" t="str">
-        <f>CONCATENATE(LEFT(M223,4),"-",MID(M223,5,2),"-",RIGHT(M223,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-08-25</v>
       </c>
       <c r="B223">
@@ -10093,9 +10701,9 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" t="str">
-        <f>CONCATENATE(LEFT(M224,4),"-",MID(M224,5,2),"-",RIGHT(M224,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-01</v>
       </c>
       <c r="B224">
@@ -10135,9 +10743,9 @@
         <v>20170901</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" t="str">
-        <f>CONCATENATE(LEFT(M225,4),"-",MID(M225,5,2),"-",RIGHT(M225,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-05</v>
       </c>
       <c r="B225">
@@ -10156,7 +10764,7 @@
         <v>100</v>
       </c>
       <c r="G225">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="H225">
         <v>1931</v>
@@ -10177,9 +10785,9 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" t="str">
-        <f>CONCATENATE(LEFT(M226,4),"-",MID(M226,5,2),"-",RIGHT(M226,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-05</v>
       </c>
       <c r="B226">
@@ -10219,9 +10827,9 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" t="str">
-        <f>CONCATENATE(LEFT(M227,4),"-",MID(M227,5,2),"-",RIGHT(M227,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-11</v>
       </c>
       <c r="B227">
@@ -10240,7 +10848,7 @@
         <v>100</v>
       </c>
       <c r="G227">
-        <v>18.760000000000002</v>
+        <v>18.76</v>
       </c>
       <c r="H227">
         <v>1876</v>
@@ -10261,9 +10869,9 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" t="str">
-        <f>CONCATENATE(LEFT(M228,4),"-",MID(M228,5,2),"-",RIGHT(M228,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-11</v>
       </c>
       <c r="B228">
@@ -10303,9 +10911,9 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" t="str">
-        <f>CONCATENATE(LEFT(M229,4),"-",MID(M229,5,2),"-",RIGHT(M229,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-13</v>
       </c>
       <c r="B229">
@@ -10345,9 +10953,9 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13">
       <c r="A230" t="str">
-        <f>CONCATENATE(LEFT(M230,4),"-",MID(M230,5,2),"-",RIGHT(M230,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-13</v>
       </c>
       <c r="B230">
@@ -10366,7 +10974,7 @@
         <v>300</v>
       </c>
       <c r="G230">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="H230">
         <v>2634</v>
@@ -10387,9 +10995,9 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" t="str">
-        <f>CONCATENATE(LEFT(M231,4),"-",MID(M231,5,2),"-",RIGHT(M231,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-15</v>
       </c>
       <c r="B231">
@@ -10429,9 +11037,9 @@
         <v>20170915</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" t="str">
-        <f>CONCATENATE(LEFT(M232,4),"-",MID(M232,5,2),"-",RIGHT(M232,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-18</v>
       </c>
       <c r="B232">
@@ -10471,9 +11079,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" t="str">
-        <f>CONCATENATE(LEFT(M233,4),"-",MID(M233,5,2),"-",RIGHT(M233,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-18</v>
       </c>
       <c r="B233">
@@ -10513,9 +11121,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" t="str">
-        <f>CONCATENATE(LEFT(M234,4),"-",MID(M234,5,2),"-",RIGHT(M234,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-18</v>
       </c>
       <c r="B234">
@@ -10555,9 +11163,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" t="str">
-        <f>CONCATENATE(LEFT(M235,4),"-",MID(M235,5,2),"-",RIGHT(M235,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-18</v>
       </c>
       <c r="B235">
@@ -10597,9 +11205,9 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" t="str">
-        <f>CONCATENATE(LEFT(M236,4),"-",MID(M236,5,2),"-",RIGHT(M236,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-19</v>
       </c>
       <c r="B236">
@@ -10639,9 +11247,9 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" t="str">
-        <f>CONCATENATE(LEFT(M237,4),"-",MID(M237,5,2),"-",RIGHT(M237,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-19</v>
       </c>
       <c r="B237">
@@ -10660,7 +11268,7 @@
         <v>-300</v>
       </c>
       <c r="G237">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="H237">
         <v>2559</v>
@@ -10681,9 +11289,9 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" t="str">
-        <f>CONCATENATE(LEFT(M238,4),"-",MID(M238,5,2),"-",RIGHT(M238,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-22</v>
       </c>
       <c r="B238">
@@ -10723,9 +11331,9 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" t="str">
-        <f>CONCATENATE(LEFT(M239,4),"-",MID(M239,5,2),"-",RIGHT(M239,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-22</v>
       </c>
       <c r="B239">
@@ -10765,9 +11373,9 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" t="str">
-        <f>CONCATENATE(LEFT(M240,4),"-",MID(M240,5,2),"-",RIGHT(M240,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-29</v>
       </c>
       <c r="B240">
@@ -10807,9 +11415,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" t="str">
-        <f>CONCATENATE(LEFT(M241,4),"-",MID(M241,5,2),"-",RIGHT(M241,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-29</v>
       </c>
       <c r="B241">
@@ -10849,9 +11457,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" t="str">
-        <f>CONCATENATE(LEFT(M242,4),"-",MID(M242,5,2),"-",RIGHT(M242,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-29</v>
       </c>
       <c r="B242">
@@ -10891,9 +11499,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" t="str">
-        <f>CONCATENATE(LEFT(M243,4),"-",MID(M243,5,2),"-",RIGHT(M243,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-09-29</v>
       </c>
       <c r="B243">
@@ -10933,9 +11541,9 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" t="str">
-        <f>CONCATENATE(LEFT(M244,4),"-",MID(M244,5,2),"-",RIGHT(M244,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-10-13</v>
       </c>
       <c r="B244">
@@ -10975,9 +11583,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" t="str">
-        <f>CONCATENATE(LEFT(M245,4),"-",MID(M245,5,2),"-",RIGHT(M245,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-10-13</v>
       </c>
       <c r="B245">
@@ -11017,9 +11625,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" t="str">
-        <f>CONCATENATE(LEFT(M246,4),"-",MID(M246,5,2),"-",RIGHT(M246,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-10-13</v>
       </c>
       <c r="B246">
@@ -11059,9 +11667,9 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" t="str">
-        <f>CONCATENATE(LEFT(M247,4),"-",MID(M247,5,2),"-",RIGHT(M247,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-10-19</v>
       </c>
       <c r="B247">
@@ -11101,9 +11709,9 @@
         <v>20171019</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" t="str">
-        <f>CONCATENATE(LEFT(M248,4),"-",MID(M248,5,2),"-",RIGHT(M248,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-10-25</v>
       </c>
       <c r="B248">
@@ -11143,9 +11751,9 @@
         <v>20171025</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" t="str">
-        <f>CONCATENATE(LEFT(M249,4),"-",MID(M249,5,2),"-",RIGHT(M249,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-07</v>
       </c>
       <c r="B249">
@@ -11185,9 +11793,9 @@
         <v>20171107</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" t="str">
-        <f>CONCATENATE(LEFT(M250,4),"-",MID(M250,5,2),"-",RIGHT(M250,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-14</v>
       </c>
       <c r="B250">
@@ -11227,9 +11835,9 @@
         <v>20171114</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" t="str">
-        <f>CONCATENATE(LEFT(M251,4),"-",MID(M251,5,2),"-",RIGHT(M251,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-16</v>
       </c>
       <c r="B251">
@@ -11269,9 +11877,9 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" t="str">
-        <f>CONCATENATE(LEFT(M252,4),"-",MID(M252,5,2),"-",RIGHT(M252,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-17</v>
       </c>
       <c r="B252">
@@ -11311,9 +11919,9 @@
         <v>20171117</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" t="str">
-        <f>CONCATENATE(LEFT(M253,4),"-",MID(M253,5,2),"-",RIGHT(M253,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-20</v>
       </c>
       <c r="B253">
@@ -11353,9 +11961,9 @@
         <v>20171120</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" t="str">
-        <f>CONCATENATE(LEFT(M254,4),"-",MID(M254,5,2),"-",RIGHT(M254,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-23</v>
       </c>
       <c r="B254">
@@ -11395,9 +12003,9 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" t="str">
-        <f>CONCATENATE(LEFT(M255,4),"-",MID(M255,5,2),"-",RIGHT(M255,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-23</v>
       </c>
       <c r="B255">
@@ -11437,9 +12045,9 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" t="str">
-        <f>CONCATENATE(LEFT(M256,4),"-",MID(M256,5,2),"-",RIGHT(M256,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-11-28</v>
       </c>
       <c r="B256">
@@ -11479,9 +12087,9 @@
         <v>20171128</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" t="str">
-        <f>CONCATENATE(LEFT(M257,4),"-",MID(M257,5,2),"-",RIGHT(M257,2))</f>
+        <f t="shared" si="3"/>
         <v>2017-12-04</v>
       </c>
       <c r="B257">
@@ -11500,7 +12108,7 @@
         <v>-100</v>
       </c>
       <c r="G257">
-        <v>18.559999999999999</v>
+        <v>18.56</v>
       </c>
       <c r="H257">
         <v>1856</v>
@@ -11521,9 +12129,9 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" t="str">
-        <f>CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
+        <f t="shared" ref="A258:A321" si="4">CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
         <v>2017-12-04</v>
       </c>
       <c r="B258">
@@ -11563,9 +12171,9 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" t="str">
-        <f>CONCATENATE(LEFT(M259,4),"-",MID(M259,5,2),"-",RIGHT(M259,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-05</v>
       </c>
       <c r="B259">
@@ -11605,9 +12213,9 @@
         <v>20171205</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" t="str">
-        <f>CONCATENATE(LEFT(M260,4),"-",MID(M260,5,2),"-",RIGHT(M260,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-11</v>
       </c>
       <c r="B260">
@@ -11647,9 +12255,9 @@
         <v>20171211</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" t="str">
-        <f>CONCATENATE(LEFT(M261,4),"-",MID(M261,5,2),"-",RIGHT(M261,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-13</v>
       </c>
       <c r="B261">
@@ -11668,7 +12276,7 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>18.059999999999999</v>
+        <v>18.06</v>
       </c>
       <c r="H261">
         <v>1806</v>
@@ -11689,9 +12297,9 @@
         <v>20171213</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" t="str">
-        <f>CONCATENATE(LEFT(M262,4),"-",MID(M262,5,2),"-",RIGHT(M262,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-15</v>
       </c>
       <c r="B262">
@@ -11731,9 +12339,9 @@
         <v>20171215</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" t="str">
-        <f>CONCATENATE(LEFT(M263,4),"-",MID(M263,5,2),"-",RIGHT(M263,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-22</v>
       </c>
       <c r="B263">
@@ -11752,7 +12360,7 @@
         <v>200</v>
       </c>
       <c r="G263">
-        <v>17.440000000000001</v>
+        <v>17.44</v>
       </c>
       <c r="H263">
         <v>3488</v>
@@ -11773,9 +12381,9 @@
         <v>20171222</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" t="str">
-        <f>CONCATENATE(LEFT(M264,4),"-",MID(M264,5,2),"-",RIGHT(M264,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-27</v>
       </c>
       <c r="B264">
@@ -11815,9 +12423,9 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" t="str">
-        <f>CONCATENATE(LEFT(M265,4),"-",MID(M265,5,2),"-",RIGHT(M265,2))</f>
+        <f t="shared" si="4"/>
         <v>2017-12-27</v>
       </c>
       <c r="B265">
@@ -11857,9 +12465,9 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" t="str">
-        <f>CONCATENATE(LEFT(M266,4),"-",MID(M266,5,2),"-",RIGHT(M266,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-01-02</v>
       </c>
       <c r="B266">
@@ -11899,9 +12507,9 @@
         <v>20180102</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" t="str">
-        <f>CONCATENATE(LEFT(M267,4),"-",MID(M267,5,2),"-",RIGHT(M267,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-01-11</v>
       </c>
       <c r="B267">
@@ -11920,7 +12528,7 @@
         <v>200</v>
       </c>
       <c r="G267">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="H267">
         <v>3620</v>
@@ -11941,9 +12549,9 @@
         <v>20180111</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" t="str">
-        <f>CONCATENATE(LEFT(M268,4),"-",MID(M268,5,2),"-",RIGHT(M268,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-01-22</v>
       </c>
       <c r="B268">
@@ -11962,7 +12570,7 @@
         <v>-200</v>
       </c>
       <c r="G268">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H268">
         <v>3848</v>
@@ -11983,9 +12591,9 @@
         <v>20180122</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" t="str">
-        <f>CONCATENATE(LEFT(M269,4),"-",MID(M269,5,2),"-",RIGHT(M269,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-01-24</v>
       </c>
       <c r="B269">
@@ -12004,7 +12612,7 @@
         <v>-500</v>
       </c>
       <c r="G269">
-        <v>20.350000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="H269">
         <v>10175</v>
@@ -12025,9 +12633,9 @@
         <v>20180124</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" t="str">
-        <f>CONCATENATE(LEFT(M270,4),"-",MID(M270,5,2),"-",RIGHT(M270,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-06</v>
       </c>
       <c r="B270">
@@ -12067,9 +12675,9 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" t="str">
-        <f>CONCATENATE(LEFT(M271,4),"-",MID(M271,5,2),"-",RIGHT(M271,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-06</v>
       </c>
       <c r="B271">
@@ -12109,9 +12717,9 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" t="str">
-        <f>CONCATENATE(LEFT(M272,4),"-",MID(M272,5,2),"-",RIGHT(M272,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-20</v>
       </c>
       <c r="B272">
@@ -12151,9 +12759,9 @@
         <v>20180320</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" t="str">
-        <f>CONCATENATE(LEFT(M273,4),"-",MID(M273,5,2),"-",RIGHT(M273,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-21</v>
       </c>
       <c r="B273">
@@ -12193,9 +12801,9 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" t="str">
-        <f>CONCATENATE(LEFT(M274,4),"-",MID(M274,5,2),"-",RIGHT(M274,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-21</v>
       </c>
       <c r="B274">
@@ -12235,9 +12843,9 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" t="str">
-        <f>CONCATENATE(LEFT(M275,4),"-",MID(M275,5,2),"-",RIGHT(M275,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-23</v>
       </c>
       <c r="B275">
@@ -12277,9 +12885,9 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" t="str">
-        <f>CONCATENATE(LEFT(M276,4),"-",MID(M276,5,2),"-",RIGHT(M276,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-23</v>
       </c>
       <c r="B276">
@@ -12319,9 +12927,9 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13">
       <c r="A277" t="str">
-        <f>CONCATENATE(LEFT(M277,4),"-",MID(M277,5,2),"-",RIGHT(M277,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-26</v>
       </c>
       <c r="B277">
@@ -12361,9 +12969,9 @@
         <v>20180326</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" t="str">
-        <f>CONCATENATE(LEFT(M278,4),"-",MID(M278,5,2),"-",RIGHT(M278,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-29</v>
       </c>
       <c r="B278">
@@ -12382,7 +12990,7 @@
         <v>1600</v>
       </c>
       <c r="G278">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="H278">
         <v>14336</v>
@@ -12403,9 +13011,9 @@
         <v>20180329</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13">
       <c r="A279" t="str">
-        <f>CONCATENATE(LEFT(M279,4),"-",MID(M279,5,2),"-",RIGHT(M279,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-03-30</v>
       </c>
       <c r="B279">
@@ -12445,9 +13053,9 @@
         <v>20180330</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13">
       <c r="A280" t="str">
-        <f>CONCATENATE(LEFT(M280,4),"-",MID(M280,5,2),"-",RIGHT(M280,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-04-17</v>
       </c>
       <c r="B280">
@@ -12487,9 +13095,9 @@
         <v>20180417</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13">
       <c r="A281" t="str">
-        <f>CONCATENATE(LEFT(M281,4),"-",MID(M281,5,2),"-",RIGHT(M281,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-04-20</v>
       </c>
       <c r="B281">
@@ -12529,9 +13137,9 @@
         <v>20180420</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13">
       <c r="A282" t="str">
-        <f>CONCATENATE(LEFT(M282,4),"-",MID(M282,5,2),"-",RIGHT(M282,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-03</v>
       </c>
       <c r="B282">
@@ -12571,9 +13179,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13">
       <c r="A283" t="str">
-        <f>CONCATENATE(LEFT(M283,4),"-",MID(M283,5,2),"-",RIGHT(M283,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-03</v>
       </c>
       <c r="B283">
@@ -12613,9 +13221,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13">
       <c r="A284" t="str">
-        <f>CONCATENATE(LEFT(M284,4),"-",MID(M284,5,2),"-",RIGHT(M284,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-03</v>
       </c>
       <c r="B284">
@@ -12655,9 +13263,9 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13">
       <c r="A285" t="str">
-        <f>CONCATENATE(LEFT(M285,4),"-",MID(M285,5,2),"-",RIGHT(M285,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-07</v>
       </c>
       <c r="B285">
@@ -12697,9 +13305,9 @@
         <v>20180507</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13">
       <c r="A286" t="str">
-        <f>CONCATENATE(LEFT(M286,4),"-",MID(M286,5,2),"-",RIGHT(M286,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-08</v>
       </c>
       <c r="B286">
@@ -12739,9 +13347,9 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13">
       <c r="A287" t="str">
-        <f>CONCATENATE(LEFT(M287,4),"-",MID(M287,5,2),"-",RIGHT(M287,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-08</v>
       </c>
       <c r="B287">
@@ -12781,9 +13389,9 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13">
       <c r="A288" t="str">
-        <f>CONCATENATE(LEFT(M288,4),"-",MID(M288,5,2),"-",RIGHT(M288,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-18</v>
       </c>
       <c r="B288">
@@ -12823,9 +13431,9 @@
         <v>20180518</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13">
       <c r="A289" t="str">
-        <f>CONCATENATE(LEFT(M289,4),"-",MID(M289,5,2),"-",RIGHT(M289,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-21</v>
       </c>
       <c r="B289">
@@ -12865,9 +13473,9 @@
         <v>20180521</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13">
       <c r="A290" t="str">
-        <f>CONCATENATE(LEFT(M290,4),"-",MID(M290,5,2),"-",RIGHT(M290,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-29</v>
       </c>
       <c r="B290">
@@ -12907,9 +13515,9 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13">
       <c r="A291" t="str">
-        <f>CONCATENATE(LEFT(M291,4),"-",MID(M291,5,2),"-",RIGHT(M291,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-05-29</v>
       </c>
       <c r="B291">
@@ -12928,7 +13536,7 @@
         <v>300</v>
       </c>
       <c r="G291">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="H291">
         <v>2559</v>
@@ -12949,9 +13557,9 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13">
       <c r="A292" t="str">
-        <f>CONCATENATE(LEFT(M292,4),"-",MID(M292,5,2),"-",RIGHT(M292,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-01</v>
       </c>
       <c r="B292">
@@ -12970,7 +13578,7 @@
         <v>200</v>
       </c>
       <c r="G292">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="H292">
         <v>3320</v>
@@ -12991,9 +13599,9 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13">
       <c r="A293" t="str">
-        <f>CONCATENATE(LEFT(M293,4),"-",MID(M293,5,2),"-",RIGHT(M293,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-01</v>
       </c>
       <c r="B293">
@@ -13033,9 +13641,9 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13">
       <c r="A294" t="str">
-        <f>CONCATENATE(LEFT(M294,4),"-",MID(M294,5,2),"-",RIGHT(M294,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-04</v>
       </c>
       <c r="B294">
@@ -13075,9 +13683,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13">
       <c r="A295" t="str">
-        <f>CONCATENATE(LEFT(M295,4),"-",MID(M295,5,2),"-",RIGHT(M295,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-04</v>
       </c>
       <c r="B295">
@@ -13117,9 +13725,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13">
       <c r="A296" t="str">
-        <f>CONCATENATE(LEFT(M296,4),"-",MID(M296,5,2),"-",RIGHT(M296,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-04</v>
       </c>
       <c r="B296">
@@ -13159,9 +13767,9 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13">
       <c r="A297" t="str">
-        <f>CONCATENATE(LEFT(M297,4),"-",MID(M297,5,2),"-",RIGHT(M297,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-11</v>
       </c>
       <c r="B297">
@@ -13201,9 +13809,9 @@
         <v>20180611</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13">
       <c r="A298" t="str">
-        <f>CONCATENATE(LEFT(M298,4),"-",MID(M298,5,2),"-",RIGHT(M298,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-15</v>
       </c>
       <c r="B298">
@@ -13243,9 +13851,9 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13">
       <c r="A299" t="str">
-        <f>CONCATENATE(LEFT(M299,4),"-",MID(M299,5,2),"-",RIGHT(M299,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-15</v>
       </c>
       <c r="B299">
@@ -13285,9 +13893,9 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13">
       <c r="A300" t="str">
-        <f>CONCATENATE(LEFT(M300,4),"-",MID(M300,5,2),"-",RIGHT(M300,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-20</v>
       </c>
       <c r="B300">
@@ -13327,9 +13935,9 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13">
       <c r="A301" t="str">
-        <f>CONCATENATE(LEFT(M301,4),"-",MID(M301,5,2),"-",RIGHT(M301,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-20</v>
       </c>
       <c r="B301">
@@ -13369,9 +13977,9 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13">
       <c r="A302" t="str">
-        <f>CONCATENATE(LEFT(M302,4),"-",MID(M302,5,2),"-",RIGHT(M302,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-22</v>
       </c>
       <c r="B302">
@@ -13411,9 +14019,9 @@
         <v>20180622</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13">
       <c r="A303" t="str">
-        <f>CONCATENATE(LEFT(M303,4),"-",MID(M303,5,2),"-",RIGHT(M303,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-25</v>
       </c>
       <c r="B303">
@@ -13453,9 +14061,9 @@
         <v>20180625</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13">
       <c r="A304" t="str">
-        <f>CONCATENATE(LEFT(M304,4),"-",MID(M304,5,2),"-",RIGHT(M304,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-27</v>
       </c>
       <c r="B304">
@@ -13495,9 +14103,9 @@
         <v>20180627</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13">
       <c r="A305" t="str">
-        <f>CONCATENATE(LEFT(M305,4),"-",MID(M305,5,2),"-",RIGHT(M305,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-28</v>
       </c>
       <c r="B305">
@@ -13537,9 +14145,9 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13">
       <c r="A306" t="str">
-        <f>CONCATENATE(LEFT(M306,4),"-",MID(M306,5,2),"-",RIGHT(M306,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-28</v>
       </c>
       <c r="B306">
@@ -13579,9 +14187,9 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13">
       <c r="A307" t="str">
-        <f>CONCATENATE(LEFT(M307,4),"-",MID(M307,5,2),"-",RIGHT(M307,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-29</v>
       </c>
       <c r="B307">
@@ -13621,9 +14229,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13">
       <c r="A308" t="str">
-        <f>CONCATENATE(LEFT(M308,4),"-",MID(M308,5,2),"-",RIGHT(M308,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-29</v>
       </c>
       <c r="B308">
@@ -13663,9 +14271,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13">
       <c r="A309" t="str">
-        <f>CONCATENATE(LEFT(M309,4),"-",MID(M309,5,2),"-",RIGHT(M309,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-06-29</v>
       </c>
       <c r="B309">
@@ -13684,7 +14292,7 @@
         <v>700</v>
       </c>
       <c r="G309">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="H309">
         <v>6279</v>
@@ -13705,9 +14313,9 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13">
       <c r="A310" t="str">
-        <f>CONCATENATE(LEFT(M310,4),"-",MID(M310,5,2),"-",RIGHT(M310,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-03</v>
       </c>
       <c r="B310">
@@ -13747,9 +14355,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13">
       <c r="A311" t="str">
-        <f>CONCATENATE(LEFT(M311,4),"-",MID(M311,5,2),"-",RIGHT(M311,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-03</v>
       </c>
       <c r="B311">
@@ -13789,9 +14397,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13">
       <c r="A312" t="str">
-        <f>CONCATENATE(LEFT(M312,4),"-",MID(M312,5,2),"-",RIGHT(M312,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-03</v>
       </c>
       <c r="B312">
@@ -13831,9 +14439,9 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13">
       <c r="A313" t="str">
-        <f>CONCATENATE(LEFT(M313,4),"-",MID(M313,5,2),"-",RIGHT(M313,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-04</v>
       </c>
       <c r="B313">
@@ -13873,9 +14481,9 @@
         <v>20180704</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13">
       <c r="A314" t="str">
-        <f>CONCATENATE(LEFT(M314,4),"-",MID(M314,5,2),"-",RIGHT(M314,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-06</v>
       </c>
       <c r="B314">
@@ -13915,9 +14523,9 @@
         <v>20180706</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13">
       <c r="A315" t="str">
-        <f>CONCATENATE(LEFT(M315,4),"-",MID(M315,5,2),"-",RIGHT(M315,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-09</v>
       </c>
       <c r="B315">
@@ -13936,7 +14544,7 @@
         <v>-300</v>
       </c>
       <c r="G315">
-        <v>16.940000000000001</v>
+        <v>16.94</v>
       </c>
       <c r="H315">
         <v>5082</v>
@@ -13957,9 +14565,9 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13">
       <c r="A316" t="str">
-        <f>CONCATENATE(LEFT(M316,4),"-",MID(M316,5,2),"-",RIGHT(M316,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-09</v>
       </c>
       <c r="B316">
@@ -13999,9 +14607,9 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13">
       <c r="A317" t="str">
-        <f>CONCATENATE(LEFT(M317,4),"-",MID(M317,5,2),"-",RIGHT(M317,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-11</v>
       </c>
       <c r="B317">
@@ -14041,9 +14649,9 @@
         <v>20180711</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13">
       <c r="A318" t="str">
-        <f>CONCATENATE(LEFT(M318,4),"-",MID(M318,5,2),"-",RIGHT(M318,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-12</v>
       </c>
       <c r="B318">
@@ -14083,9 +14691,9 @@
         <v>20180712</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13">
       <c r="A319" t="str">
-        <f>CONCATENATE(LEFT(M319,4),"-",MID(M319,5,2),"-",RIGHT(M319,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-17</v>
       </c>
       <c r="B319">
@@ -14125,9 +14733,9 @@
         <v>20180717</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13">
       <c r="A320" t="str">
-        <f>CONCATENATE(LEFT(M320,4),"-",MID(M320,5,2),"-",RIGHT(M320,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-20</v>
       </c>
       <c r="B320">
@@ -14167,9 +14775,9 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13">
       <c r="A321" t="str">
-        <f>CONCATENATE(LEFT(M321,4),"-",MID(M321,5,2),"-",RIGHT(M321,2))</f>
+        <f t="shared" si="4"/>
         <v>2018-07-20</v>
       </c>
       <c r="B321">
@@ -14209,9 +14817,9 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13">
       <c r="A322" t="str">
-        <f>CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
+        <f t="shared" ref="A322:A340" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
       </c>
       <c r="B322">
@@ -14251,9 +14859,9 @@
         <v>20180723</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13">
       <c r="A323" t="str">
-        <f>CONCATENATE(LEFT(M323,4),"-",MID(M323,5,2),"-",RIGHT(M323,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-07-25</v>
       </c>
       <c r="B323">
@@ -14272,7 +14880,7 @@
         <v>200</v>
       </c>
       <c r="G323">
-        <v>18.260000000000002</v>
+        <v>18.26</v>
       </c>
       <c r="H323">
         <v>3652</v>
@@ -14293,9 +14901,9 @@
         <v>20180725</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13">
       <c r="A324" t="str">
-        <f>CONCATENATE(LEFT(M324,4),"-",MID(M324,5,2),"-",RIGHT(M324,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B324">
@@ -14335,9 +14943,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13">
       <c r="A325" t="str">
-        <f>CONCATENATE(LEFT(M325,4),"-",MID(M325,5,2),"-",RIGHT(M325,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B325">
@@ -14377,9 +14985,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13">
       <c r="A326" t="str">
-        <f>CONCATENATE(LEFT(M326,4),"-",MID(M326,5,2),"-",RIGHT(M326,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-09</v>
       </c>
       <c r="B326">
@@ -14419,9 +15027,9 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13">
       <c r="A327" t="str">
-        <f>CONCATENATE(LEFT(M327,4),"-",MID(M327,5,2),"-",RIGHT(M327,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-13</v>
       </c>
       <c r="B327">
@@ -14440,7 +15048,7 @@
         <v>200</v>
       </c>
       <c r="G327">
-        <v>16.809999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="H327">
         <v>3362</v>
@@ -14461,9 +15069,9 @@
         <v>20180813</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13">
       <c r="A328" t="str">
-        <f>CONCATENATE(LEFT(M328,4),"-",MID(M328,5,2),"-",RIGHT(M328,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-15</v>
       </c>
       <c r="B328">
@@ -14503,9 +15111,9 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13">
       <c r="A329" t="str">
-        <f>CONCATENATE(LEFT(M329,4),"-",MID(M329,5,2),"-",RIGHT(M329,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-15</v>
       </c>
       <c r="B329">
@@ -14545,9 +15153,9 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13">
       <c r="A330" t="str">
-        <f>CONCATENATE(LEFT(M330,4),"-",MID(M330,5,2),"-",RIGHT(M330,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-08-17</v>
       </c>
       <c r="B330">
@@ -14587,9 +15195,9 @@
         <v>20180817</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13">
       <c r="A331" t="str">
-        <f>CONCATENATE(LEFT(M331,4),"-",MID(M331,5,2),"-",RIGHT(M331,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-03</v>
       </c>
       <c r="B331" s="1">
@@ -14629,9 +15237,9 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13">
       <c r="A332" t="str">
-        <f>CONCATENATE(LEFT(M332,4),"-",MID(M332,5,2),"-",RIGHT(M332,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-03</v>
       </c>
       <c r="B332" s="1">
@@ -14671,9 +15279,9 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13">
       <c r="A333" t="str">
-        <f>CONCATENATE(LEFT(M333,4),"-",MID(M333,5,2),"-",RIGHT(M333,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-18</v>
       </c>
       <c r="B333" s="1">
@@ -14713,9 +15321,9 @@
         <v>20180918</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13">
       <c r="A334" t="str">
-        <f>CONCATENATE(LEFT(M334,4),"-",MID(M334,5,2),"-",RIGHT(M334,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-20</v>
       </c>
       <c r="B334" s="1">
@@ -14755,9 +15363,9 @@
         <v>20180920</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13">
       <c r="A335" t="str">
-        <f>CONCATENATE(LEFT(M335,4),"-",MID(M335,5,2),"-",RIGHT(M335,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-09-28</v>
       </c>
       <c r="B335" s="1">
@@ -14797,9 +15405,9 @@
         <v>20180928</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13">
       <c r="A336" t="str">
-        <f>CONCATENATE(LEFT(M336,4),"-",MID(M336,5,2),"-",RIGHT(M336,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-10-09</v>
       </c>
       <c r="B336" s="1">
@@ -14839,9 +15447,9 @@
         <v>20181009</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13">
       <c r="A337" t="str">
-        <f>CONCATENATE(LEFT(M337,4),"-",MID(M337,5,2),"-",RIGHT(M337,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-10-31</v>
       </c>
       <c r="B337">
@@ -14860,7 +15468,7 @@
         <v>500</v>
       </c>
       <c r="G337">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="H337">
         <v>4315</v>
@@ -14881,9 +15489,9 @@
         <v>20181031</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13">
       <c r="A338" t="str">
-        <f>CONCATENATE(LEFT(M338,4),"-",MID(M338,5,2),"-",RIGHT(M338,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-11-09</v>
       </c>
       <c r="B338" s="1">
@@ -14923,9 +15531,9 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13">
       <c r="A339" t="str">
-        <f>CONCATENATE(LEFT(M339,4),"-",MID(M339,5,2),"-",RIGHT(M339,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-11-16</v>
       </c>
       <c r="B339" s="1">
@@ -14965,9 +15573,9 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13">
       <c r="A340" t="str">
-        <f>CONCATENATE(LEFT(M340,4),"-",MID(M340,5,2),"-",RIGHT(M340,2))</f>
+        <f t="shared" si="5"/>
         <v>2018-11-16</v>
       </c>
       <c r="B340" s="1">
@@ -15007,9 +15615,9 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13">
       <c r="A341" t="str">
-        <f t="shared" ref="A341:A353" si="0">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
+        <f t="shared" ref="A341:A353" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
       </c>
       <c r="B341">
@@ -15019,7 +15627,7 @@
         <v>615</v>
       </c>
       <c r="D341" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E341" t="s">
         <v>20</v>
@@ -15049,9 +15657,9 @@
         <v>20181120</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13">
       <c r="A342" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-11-23</v>
       </c>
       <c r="B342">
@@ -15061,7 +15669,7 @@
         <v>615</v>
       </c>
       <c r="D342" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E342" t="s">
         <v>14</v>
@@ -15091,9 +15699,9 @@
         <v>20181123</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13">
       <c r="A343" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-11-30</v>
       </c>
       <c r="B343">
@@ -15103,7 +15711,7 @@
         <v>300395</v>
       </c>
       <c r="D343" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E343" t="s">
         <v>20</v>
@@ -15133,9 +15741,9 @@
         <v>20181130</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13">
       <c r="A344" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-03</v>
       </c>
       <c r="B344">
@@ -15145,7 +15753,7 @@
         <v>2409</v>
       </c>
       <c r="D344" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E344" t="s">
         <v>20</v>
@@ -15175,9 +15783,9 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13">
       <c r="A345" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-03</v>
       </c>
       <c r="B345">
@@ -15217,9 +15825,9 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13">
       <c r="A346" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-03</v>
       </c>
       <c r="B346">
@@ -15229,7 +15837,7 @@
         <v>300395</v>
       </c>
       <c r="D346" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E346" t="s">
         <v>14</v>
@@ -15259,9 +15867,9 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13">
       <c r="A347" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-03</v>
       </c>
       <c r="B347">
@@ -15271,7 +15879,7 @@
         <v>300075</v>
       </c>
       <c r="D347" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E347" t="s">
         <v>20</v>
@@ -15301,9 +15909,9 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13">
       <c r="A348" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-06</v>
       </c>
       <c r="B348">
@@ -15313,7 +15921,7 @@
         <v>300136</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E348" t="s">
         <v>14</v>
@@ -15343,9 +15951,9 @@
         <v>20181206</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13">
       <c r="A349" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-17</v>
       </c>
       <c r="B349">
@@ -15355,7 +15963,7 @@
         <v>2409</v>
       </c>
       <c r="D349" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E349" t="s">
         <v>14</v>
@@ -15385,9 +15993,9 @@
         <v>20181217</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13">
       <c r="A350" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-18</v>
       </c>
       <c r="B350">
@@ -15397,7 +16005,7 @@
         <v>300075</v>
       </c>
       <c r="D350" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E350" t="s">
         <v>14</v>
@@ -15427,9 +16035,9 @@
         <v>20181218</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13">
       <c r="A351" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-21</v>
       </c>
       <c r="B351">
@@ -15439,7 +16047,7 @@
         <v>300075</v>
       </c>
       <c r="D351" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E351" t="s">
         <v>14</v>
@@ -15469,9 +16077,9 @@
         <v>20181221</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13">
       <c r="A352" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2018-12-24</v>
       </c>
       <c r="B352">
@@ -15511,9 +16119,9 @@
         <v>20181224</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13">
       <c r="A353" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2019-01-08</v>
       </c>
       <c r="B353">
@@ -15553,37 +16161,127 @@
         <v>20190108</v>
       </c>
     </row>
+    <row r="354" spans="1:13">
+      <c r="A354" t="str">
+        <f>CONCATENATE(LEFT(M354,4),"-",MID(M354,5,2),"-",RIGHT(M354,2))</f>
+        <v>2019-02-01</v>
+      </c>
+      <c r="B354" s="3">
+        <v>5455</v>
+      </c>
+      <c r="C354" s="3">
+        <v>300170</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F354" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G354" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="H354" s="3">
+        <v>14938</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K354" s="3">
+        <v>8803</v>
+      </c>
+      <c r="L354" s="3">
+        <v>0</v>
+      </c>
+      <c r="M354" s="3">
+        <v>20190201</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13">
+      <c r="A355" t="str">
+        <f>CONCATENATE(LEFT(M355,4),"-",MID(M355,5,2),"-",RIGHT(M355,2))</f>
+        <v>2019-02-25</v>
+      </c>
+      <c r="B355" s="3">
+        <v>8907</v>
+      </c>
+      <c r="C355" s="3">
+        <v>300170</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G355" s="3">
+        <v>12.27</v>
+      </c>
+      <c r="H355" s="3">
+        <v>17178</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J355" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K355" s="3">
+        <v>20037</v>
+      </c>
+      <c r="L355" s="3">
+        <v>0</v>
+      </c>
+      <c r="M355" s="3">
+        <v>20190225</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="111">
   <si>
     <t>date</t>
   </si>
@@ -341,36 +341,30 @@
   <si>
     <t>数字政通</t>
   </si>
+  <si>
+    <t>天奇股份</t>
+  </si>
+  <si>
+    <t>设计总院</t>
+  </si>
+  <si>
+    <t>威海广泰</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -385,66 +379,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,10 +401,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,9 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,8 +468,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +501,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,25 +523,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,31 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,25 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,25 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,25 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +714,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,6 +755,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,63 +814,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1323,10 +1325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M355"/>
+  <dimension ref="A1:M361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="E356" sqref="E356"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -15617,7 +15619,7 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" t="str">
-        <f t="shared" ref="A341:A353" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
+        <f t="shared" ref="A341:A355" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
       </c>
       <c r="B341">
@@ -16163,86 +16165,338 @@
     </row>
     <row r="354" spans="1:13">
       <c r="A354" t="str">
-        <f>CONCATENATE(LEFT(M354,4),"-",MID(M354,5,2),"-",RIGHT(M354,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-02-01</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="1">
         <v>5455</v>
       </c>
-      <c r="C354" s="3">
+      <c r="C354" s="1">
         <v>300170</v>
       </c>
-      <c r="D354" s="3" t="s">
+      <c r="D354" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E354" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F354" s="3">
+      <c r="E354" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F354" s="1">
         <v>1400</v>
       </c>
-      <c r="G354" s="3">
+      <c r="G354" s="1">
         <v>10.67</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354" s="1">
         <v>14938</v>
       </c>
-      <c r="I354" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J354" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K354" s="3">
+      <c r="I354" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K354" s="1">
         <v>8803</v>
       </c>
-      <c r="L354" s="3">
-        <v>0</v>
-      </c>
-      <c r="M354" s="3">
+      <c r="L354" s="1">
+        <v>0</v>
+      </c>
+      <c r="M354" s="1">
         <v>20190201</v>
       </c>
     </row>
     <row r="355" spans="1:13">
       <c r="A355" t="str">
-        <f>CONCATENATE(LEFT(M355,4),"-",MID(M355,5,2),"-",RIGHT(M355,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-02-25</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="1">
         <v>8907</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C355" s="1">
         <v>300170</v>
       </c>
-      <c r="D355" s="3" t="s">
+      <c r="D355" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E355" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F355" s="3">
+      <c r="E355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" s="1">
         <v>-1400</v>
       </c>
-      <c r="G355" s="3">
+      <c r="G355" s="1">
         <v>12.27</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355" s="1">
         <v>17178</v>
       </c>
-      <c r="I355" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J355" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K355" s="3">
+      <c r="I355" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J355" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K355" s="1">
         <v>20037</v>
       </c>
-      <c r="L355" s="3">
-        <v>0</v>
-      </c>
-      <c r="M355" s="3">
+      <c r="L355" s="1">
+        <v>0</v>
+      </c>
+      <c r="M355" s="1">
         <v>20190225</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13">
+      <c r="A356" t="str">
+        <f t="shared" ref="A356:A361" si="7">CONCATENATE(LEFT(M356,4),"-",MID(M356,5,2),"-",RIGHT(M356,2))</f>
+        <v>2019-04-01</v>
+      </c>
+      <c r="B356" s="3">
+        <v>20818</v>
+      </c>
+      <c r="C356" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F356" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G356" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="H356" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K356" s="3">
+        <v>15342</v>
+      </c>
+      <c r="L356" s="3">
+        <v>0</v>
+      </c>
+      <c r="M356" s="3">
+        <v>20190401</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13">
+      <c r="A357" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-03-19</v>
+      </c>
+      <c r="B357" s="3">
+        <v>18989</v>
+      </c>
+      <c r="C357" s="3">
+        <v>603357</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F357" s="3">
+        <v>900</v>
+      </c>
+      <c r="G357" s="3">
+        <v>21.15</v>
+      </c>
+      <c r="H357" s="3">
+        <v>19035</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K357" s="3">
+        <v>11013</v>
+      </c>
+      <c r="L357" s="3">
+        <v>0</v>
+      </c>
+      <c r="M357" s="3">
+        <v>20190319</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13">
+      <c r="A358" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04-09</v>
+      </c>
+      <c r="B358" s="3">
+        <v>16801</v>
+      </c>
+      <c r="C358" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F358" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G358" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="H358" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J358" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K358" s="3">
+        <v>17856</v>
+      </c>
+      <c r="L358" s="3">
+        <v>0</v>
+      </c>
+      <c r="M358" s="3">
+        <v>20190409</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13">
+      <c r="A359" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04-16</v>
+      </c>
+      <c r="B359" s="3">
+        <v>22966</v>
+      </c>
+      <c r="C359" s="3">
+        <v>2111</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F359" s="3">
+        <v>800</v>
+      </c>
+      <c r="G359" s="3">
+        <v>14.01</v>
+      </c>
+      <c r="H359" s="3">
+        <v>11208</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J359" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K359" s="3">
+        <v>17246</v>
+      </c>
+      <c r="L359" s="3">
+        <v>0</v>
+      </c>
+      <c r="M359" s="3">
+        <v>20190416</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13">
+      <c r="A360" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04-26</v>
+      </c>
+      <c r="B360" s="3">
+        <v>5322</v>
+      </c>
+      <c r="C360" s="3">
+        <v>2111</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G360" s="3">
+        <v>12.97</v>
+      </c>
+      <c r="H360" s="3">
+        <v>10376</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="3">
+        <v>182173908</v>
+      </c>
+      <c r="K360" s="3">
+        <v>11049</v>
+      </c>
+      <c r="L360" s="3">
+        <v>0</v>
+      </c>
+      <c r="M360" s="3">
+        <v>20190426</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13">
+      <c r="A361" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-04-26</v>
+      </c>
+      <c r="B361" s="3">
+        <v>9580</v>
+      </c>
+      <c r="C361" s="3">
+        <v>603357</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G361" s="3">
+        <v>20.04</v>
+      </c>
+      <c r="H361" s="3">
+        <v>18036</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K361" s="3">
+        <v>5588</v>
+      </c>
+      <c r="L361" s="3">
+        <v>0</v>
+      </c>
+      <c r="M361" s="3">
+        <v>20190426</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -350,18 +350,27 @@
   <si>
     <t>威海广泰</t>
   </si>
+  <si>
+    <t>乐普医疗</t>
+  </si>
+  <si>
+    <t>鱼跃医疗</t>
+  </si>
+  <si>
+    <t>海能达</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,10 +379,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,25 +396,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,6 +424,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -437,78 +523,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,7 +540,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,175 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,63 +731,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -806,11 +766,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,137 +851,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,7 +991,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,17 +1348,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M361"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="10.5454545454545"/>
-    <col min="13" max="13" width="9.54545454545454"/>
+    <col min="10" max="10" width="11.5454545454545"/>
+    <col min="13" max="13" width="10.2727272727273"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16249,254 +16272,464 @@
     </row>
     <row r="356" spans="1:13">
       <c r="A356" t="str">
-        <f t="shared" ref="A356:A361" si="7">CONCATENATE(LEFT(M356,4),"-",MID(M356,5,2),"-",RIGHT(M356,2))</f>
+        <f>CONCATENATE(LEFT(M356,4),"-",MID(M356,5,2),"-",RIGHT(M356,2))</f>
         <v>2019-04-01</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="1">
         <v>20818</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C356" s="1">
         <v>2009</v>
       </c>
-      <c r="D356" s="3" t="s">
+      <c r="D356" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E356" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F356" s="3">
+      <c r="E356" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F356" s="1">
         <v>1000</v>
       </c>
-      <c r="G356" s="3">
+      <c r="G356" s="1">
         <v>11.3</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356" s="1">
         <v>11300</v>
       </c>
-      <c r="I356" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J356" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K356" s="3">
+      <c r="I356" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K356" s="1">
         <v>15342</v>
       </c>
-      <c r="L356" s="3">
-        <v>0</v>
-      </c>
-      <c r="M356" s="3">
+      <c r="L356" s="1">
+        <v>0</v>
+      </c>
+      <c r="M356" s="1">
         <v>20190401</v>
       </c>
     </row>
     <row r="357" spans="1:13">
       <c r="A357" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M357,4),"-",MID(M357,5,2),"-",RIGHT(M357,2))</f>
         <v>2019-03-19</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="1">
         <v>18989</v>
       </c>
-      <c r="C357" s="3">
+      <c r="C357" s="1">
         <v>603357</v>
       </c>
-      <c r="D357" s="3" t="s">
+      <c r="D357" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F357" s="3">
+      <c r="E357" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F357" s="1">
         <v>900</v>
       </c>
-      <c r="G357" s="3">
+      <c r="G357" s="1">
         <v>21.15</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357" s="1">
         <v>19035</v>
       </c>
-      <c r="I357" s="3" t="s">
+      <c r="I357" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J357" s="3" t="s">
+      <c r="J357" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K357" s="3">
+      <c r="K357" s="1">
         <v>11013</v>
       </c>
-      <c r="L357" s="3">
-        <v>0</v>
-      </c>
-      <c r="M357" s="3">
+      <c r="L357" s="1">
+        <v>0</v>
+      </c>
+      <c r="M357" s="1">
         <v>20190319</v>
       </c>
     </row>
     <row r="358" spans="1:13">
       <c r="A358" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M358,4),"-",MID(M358,5,2),"-",RIGHT(M358,2))</f>
         <v>2019-04-09</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="1">
         <v>16801</v>
       </c>
-      <c r="C358" s="3">
+      <c r="C358" s="1">
         <v>2009</v>
       </c>
-      <c r="D358" s="3" t="s">
+      <c r="D358" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E358" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F358" s="3">
+      <c r="E358" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F358" s="1">
         <v>-1000</v>
       </c>
-      <c r="G358" s="3">
+      <c r="G358" s="1">
         <v>10.7</v>
       </c>
-      <c r="H358" s="3">
+      <c r="H358" s="1">
         <v>10700</v>
       </c>
-      <c r="I358" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J358" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K358" s="3">
+      <c r="I358" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J358" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K358" s="1">
         <v>17856</v>
       </c>
-      <c r="L358" s="3">
-        <v>0</v>
-      </c>
-      <c r="M358" s="3">
+      <c r="L358" s="1">
+        <v>0</v>
+      </c>
+      <c r="M358" s="1">
         <v>20190409</v>
       </c>
     </row>
     <row r="359" spans="1:13">
       <c r="A359" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M359,4),"-",MID(M359,5,2),"-",RIGHT(M359,2))</f>
         <v>2019-04-16</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="1">
         <v>22966</v>
       </c>
-      <c r="C359" s="3">
+      <c r="C359" s="1">
         <v>2111</v>
       </c>
-      <c r="D359" s="3" t="s">
+      <c r="D359" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F359" s="3">
+      <c r="E359" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F359" s="1">
         <v>800</v>
       </c>
-      <c r="G359" s="3">
+      <c r="G359" s="1">
         <v>14.01</v>
       </c>
-      <c r="H359" s="3">
+      <c r="H359" s="1">
         <v>11208</v>
       </c>
-      <c r="I359" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J359" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K359" s="3">
+      <c r="I359" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J359" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K359" s="1">
         <v>17246</v>
       </c>
-      <c r="L359" s="3">
-        <v>0</v>
-      </c>
-      <c r="M359" s="3">
+      <c r="L359" s="1">
+        <v>0</v>
+      </c>
+      <c r="M359" s="1">
         <v>20190416</v>
       </c>
     </row>
     <row r="360" spans="1:13">
       <c r="A360" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M360,4),"-",MID(M360,5,2),"-",RIGHT(M360,2))</f>
         <v>2019-04-26</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="1">
         <v>5322</v>
       </c>
-      <c r="C360" s="3">
+      <c r="C360" s="1">
         <v>2111</v>
       </c>
-      <c r="D360" s="3" t="s">
+      <c r="D360" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E360" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F360" s="3">
+      <c r="E360" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" s="1">
         <v>-800</v>
       </c>
-      <c r="G360" s="3">
+      <c r="G360" s="1">
         <v>12.97</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360" s="1">
         <v>10376</v>
       </c>
-      <c r="I360" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J360" s="3">
-        <v>182173908</v>
-      </c>
-      <c r="K360" s="3">
+      <c r="I360" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K360" s="1">
         <v>11049</v>
       </c>
-      <c r="L360" s="3">
-        <v>0</v>
-      </c>
-      <c r="M360" s="3">
+      <c r="L360" s="1">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1">
         <v>20190426</v>
       </c>
     </row>
     <row r="361" spans="1:13">
       <c r="A361" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M361,4),"-",MID(M361,5,2),"-",RIGHT(M361,2))</f>
         <v>2019-04-26</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="1">
         <v>9580</v>
       </c>
-      <c r="C361" s="3">
+      <c r="C361" s="1">
         <v>603357</v>
       </c>
-      <c r="D361" s="3" t="s">
+      <c r="D361" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E361" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F361" s="3">
+      <c r="E361" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361" s="1">
         <v>-900</v>
       </c>
-      <c r="G361" s="3">
+      <c r="G361" s="1">
         <v>20.04</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361" s="1">
         <v>18036</v>
       </c>
-      <c r="I361" s="3" t="s">
+      <c r="I361" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J361" s="3" t="s">
+      <c r="J361" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K361" s="3">
+      <c r="K361" s="1">
         <v>5588</v>
       </c>
-      <c r="L361" s="3">
-        <v>0</v>
-      </c>
-      <c r="M361" s="3">
+      <c r="L361" s="1">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1">
         <v>20190426</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13">
+      <c r="A362" t="str">
+        <f>CONCATENATE(LEFT(M362,4),"-",MID(M362,5,2),"-",RIGHT(M362,2))</f>
+        <v>2019-05-15</v>
+      </c>
+      <c r="B362" s="1">
+        <v>12660</v>
+      </c>
+      <c r="C362" s="1">
+        <v>300003</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F362" s="1">
+        <v>300</v>
+      </c>
+      <c r="G362" s="1">
+        <v>26.05</v>
+      </c>
+      <c r="H362" s="1">
+        <v>7815</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K362" s="1">
+        <v>12562</v>
+      </c>
+      <c r="L362" s="1">
+        <v>0</v>
+      </c>
+      <c r="M362" s="1">
+        <v>20190515</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13">
+      <c r="A363" t="str">
+        <f>CONCATENATE(LEFT(M363,4),"-",MID(M363,5,2),"-",RIGHT(M363,2))</f>
+        <v>2019-05-10</v>
+      </c>
+      <c r="B363" s="1">
+        <v>9673</v>
+      </c>
+      <c r="C363" s="1">
+        <v>2223</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F363" s="1">
+        <v>400</v>
+      </c>
+      <c r="G363" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="H363" s="1">
+        <v>9184</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J363" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K363" s="1">
+        <v>10866</v>
+      </c>
+      <c r="L363" s="1">
+        <v>0</v>
+      </c>
+      <c r="M363" s="1">
+        <v>20190510</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13">
+      <c r="A364" t="str">
+        <f>CONCATENATE(LEFT(M364,4),"-",MID(M364,5,2),"-",RIGHT(M364,2))</f>
+        <v>2019-05-10</v>
+      </c>
+      <c r="B364" s="1">
+        <v>27226</v>
+      </c>
+      <c r="C364" s="1">
+        <v>2583</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G364" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="H364" s="1">
+        <v>9360</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J364" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K364" s="1">
+        <v>10867</v>
+      </c>
+      <c r="L364" s="1">
+        <v>0</v>
+      </c>
+      <c r="M364" s="1">
+        <v>20190510</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13">
+      <c r="A365" s="3" t="str">
+        <f>CONCATENATE(LEFT(M365,4),"-",MID(M365,5,2),"-",RIGHT(M365,2))</f>
+        <v>2019-05-17</v>
+      </c>
+      <c r="B365" s="4">
+        <v>14205</v>
+      </c>
+      <c r="C365" s="4">
+        <v>300003</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F365" s="4">
+        <v>-300</v>
+      </c>
+      <c r="G365" s="4">
+        <v>24.76</v>
+      </c>
+      <c r="H365" s="4">
+        <v>7428</v>
+      </c>
+      <c r="I365" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J365" s="4">
+        <v>182173908</v>
+      </c>
+      <c r="K365" s="4">
+        <v>10595</v>
+      </c>
+      <c r="L365" s="4">
+        <v>0</v>
+      </c>
+      <c r="M365" s="4">
+        <v>20190517</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13">
+      <c r="A366" s="3" t="str">
+        <f>CONCATENATE(LEFT(M366,4),"-",MID(M366,5,2),"-",RIGHT(M366,2))</f>
+        <v>2019-05-23</v>
+      </c>
+      <c r="B366" s="4">
+        <v>9008</v>
+      </c>
+      <c r="C366" s="4">
+        <v>2583</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F366" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="G366" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="H366" s="4">
+        <v>8760</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J366" s="4">
+        <v>182173908</v>
+      </c>
+      <c r="K366" s="4">
+        <v>13143</v>
+      </c>
+      <c r="L366" s="4">
+        <v>0</v>
+      </c>
+      <c r="M366" s="4">
+        <v>20190523</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19420" windowHeight="7360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -365,9 +365,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -394,9 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,50 +403,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,9 +423,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +487,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,19 +540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +594,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,49 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,7 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,73 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,40 +734,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -788,28 +769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,6 +801,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,19 +851,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,112 +872,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +997,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M366"/>
+  <dimension ref="A1:M374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="E363" sqref="E363"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367:M367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" t="str">
-        <f t="shared" ref="A341:A355" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
+        <f t="shared" ref="A341:A371" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
       </c>
       <c r="B341">
@@ -16272,7 +16272,7 @@
     </row>
     <row r="356" spans="1:13">
       <c r="A356" t="str">
-        <f>CONCATENATE(LEFT(M356,4),"-",MID(M356,5,2),"-",RIGHT(M356,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-04-01</v>
       </c>
       <c r="B356" s="1">
@@ -16314,7 +16314,7 @@
     </row>
     <row r="357" spans="1:13">
       <c r="A357" t="str">
-        <f>CONCATENATE(LEFT(M357,4),"-",MID(M357,5,2),"-",RIGHT(M357,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-03-19</v>
       </c>
       <c r="B357" s="1">
@@ -16356,7 +16356,7 @@
     </row>
     <row r="358" spans="1:13">
       <c r="A358" t="str">
-        <f>CONCATENATE(LEFT(M358,4),"-",MID(M358,5,2),"-",RIGHT(M358,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-04-09</v>
       </c>
       <c r="B358" s="1">
@@ -16398,7 +16398,7 @@
     </row>
     <row r="359" spans="1:13">
       <c r="A359" t="str">
-        <f>CONCATENATE(LEFT(M359,4),"-",MID(M359,5,2),"-",RIGHT(M359,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-04-16</v>
       </c>
       <c r="B359" s="1">
@@ -16440,7 +16440,7 @@
     </row>
     <row r="360" spans="1:13">
       <c r="A360" t="str">
-        <f>CONCATENATE(LEFT(M360,4),"-",MID(M360,5,2),"-",RIGHT(M360,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-04-26</v>
       </c>
       <c r="B360" s="1">
@@ -16482,7 +16482,7 @@
     </row>
     <row r="361" spans="1:13">
       <c r="A361" t="str">
-        <f>CONCATENATE(LEFT(M361,4),"-",MID(M361,5,2),"-",RIGHT(M361,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-04-26</v>
       </c>
       <c r="B361" s="1">
@@ -16524,7 +16524,7 @@
     </row>
     <row r="362" spans="1:13">
       <c r="A362" t="str">
-        <f>CONCATENATE(LEFT(M362,4),"-",MID(M362,5,2),"-",RIGHT(M362,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-05-15</v>
       </c>
       <c r="B362" s="1">
@@ -16566,7 +16566,7 @@
     </row>
     <row r="363" spans="1:13">
       <c r="A363" t="str">
-        <f>CONCATENATE(LEFT(M363,4),"-",MID(M363,5,2),"-",RIGHT(M363,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-05-10</v>
       </c>
       <c r="B363" s="1">
@@ -16608,7 +16608,7 @@
     </row>
     <row r="364" spans="1:13">
       <c r="A364" t="str">
-        <f>CONCATENATE(LEFT(M364,4),"-",MID(M364,5,2),"-",RIGHT(M364,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-05-10</v>
       </c>
       <c r="B364" s="1">
@@ -16650,7 +16650,7 @@
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="3" t="str">
-        <f>CONCATENATE(LEFT(M365,4),"-",MID(M365,5,2),"-",RIGHT(M365,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-05-17</v>
       </c>
       <c r="B365" s="4">
@@ -16659,10 +16659,10 @@
       <c r="C365" s="4">
         <v>300003</v>
       </c>
-      <c r="D365" s="5" t="s">
+      <c r="D365" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E365" s="5" t="s">
+      <c r="E365" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F365" s="4">
@@ -16674,7 +16674,7 @@
       <c r="H365" s="4">
         <v>7428</v>
       </c>
-      <c r="I365" s="5" t="s">
+      <c r="I365" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J365" s="4">
@@ -16695,10 +16695,10 @@
         <f>CONCATENATE(LEFT(M366,4),"-",MID(M366,5,2),"-",RIGHT(M366,2))</f>
         <v>2019-05-23</v>
       </c>
-      <c r="B366" s="4">
+      <c r="B366" s="5">
         <v>9008</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="5">
         <v>2583</v>
       </c>
       <c r="D366" s="5" t="s">
@@ -16707,29 +16707,325 @@
       <c r="E366" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F366" s="4">
+      <c r="F366" s="5">
         <v>-1000</v>
       </c>
-      <c r="G366" s="4">
+      <c r="G366" s="5">
         <v>8.76</v>
       </c>
-      <c r="H366" s="4">
+      <c r="H366" s="5">
         <v>8760</v>
       </c>
       <c r="I366" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J366" s="4">
-        <v>182173908</v>
-      </c>
-      <c r="K366" s="4">
+      <c r="J366" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K366" s="5">
         <v>13143</v>
       </c>
-      <c r="L366" s="4">
-        <v>0</v>
-      </c>
-      <c r="M366" s="4">
+      <c r="L366" s="5">
+        <v>0</v>
+      </c>
+      <c r="M366" s="5">
         <v>20190523</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13">
+      <c r="A367" s="3" t="str">
+        <f>CONCATENATE(LEFT(M367,4),"-",MID(M367,5,2),"-",RIGHT(M367,2))</f>
+        <v>2019-06-11</v>
+      </c>
+      <c r="B367" s="5">
+        <v>15785</v>
+      </c>
+      <c r="C367" s="5">
+        <v>2223</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F367" s="5">
+        <v>300</v>
+      </c>
+      <c r="G367" s="5">
+        <v>22.94</v>
+      </c>
+      <c r="H367" s="5">
+        <v>6882</v>
+      </c>
+      <c r="I367" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J367" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K367" s="5">
+        <v>13981</v>
+      </c>
+      <c r="L367" s="5">
+        <v>0</v>
+      </c>
+      <c r="M367" s="5">
+        <v>20190611</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368" s="3" t="str">
+        <f t="shared" ref="A368:A373" si="7">CONCATENATE(LEFT(M369,4),"-",MID(M369,5,2),"-",RIGHT(M369,2))</f>
+        <v>2019-06-20</v>
+      </c>
+      <c r="B368" s="5">
+        <v>12066</v>
+      </c>
+      <c r="C368" s="5">
+        <v>300003</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F368" s="5">
+        <v>600</v>
+      </c>
+      <c r="G368" s="5">
+        <v>22.29</v>
+      </c>
+      <c r="H368" s="5">
+        <v>13374</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K368" s="5">
+        <v>14604</v>
+      </c>
+      <c r="L368" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13">
+      <c r="A369" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07-01</v>
+      </c>
+      <c r="B369" s="5">
+        <v>8520</v>
+      </c>
+      <c r="C369" s="5">
+        <v>2583</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F369" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G369" s="5">
+        <v>8.82</v>
+      </c>
+      <c r="H369" s="5">
+        <v>11466</v>
+      </c>
+      <c r="I369" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K369" s="5">
+        <v>14013</v>
+      </c>
+      <c r="L369" s="5">
+        <v>0</v>
+      </c>
+      <c r="M369" s="5">
+        <v>20190620</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13">
+      <c r="A370" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07-08</v>
+      </c>
+      <c r="B370" s="5">
+        <v>5131</v>
+      </c>
+      <c r="C370" s="5">
+        <v>2583</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" s="5">
+        <v>-1300</v>
+      </c>
+      <c r="G370" s="5">
+        <v>8.28</v>
+      </c>
+      <c r="H370" s="5">
+        <v>10764</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K370" s="5">
+        <v>12261</v>
+      </c>
+      <c r="L370" s="5">
+        <v>0</v>
+      </c>
+      <c r="M370" s="5">
+        <v>20190701</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13">
+      <c r="A371" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07-15</v>
+      </c>
+      <c r="B371" s="5">
+        <v>9666</v>
+      </c>
+      <c r="C371" s="5">
+        <v>300003</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" s="5">
+        <v>-600</v>
+      </c>
+      <c r="G371" s="5">
+        <v>25.53</v>
+      </c>
+      <c r="H371" s="5">
+        <v>15318</v>
+      </c>
+      <c r="I371" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K371" s="5">
+        <v>10960</v>
+      </c>
+      <c r="L371" s="5">
+        <v>0</v>
+      </c>
+      <c r="M371" s="5">
+        <v>20190708</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13">
+      <c r="A372" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07-15</v>
+      </c>
+      <c r="B372" s="5">
+        <v>6626</v>
+      </c>
+      <c r="C372" s="5">
+        <v>2583</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F372" s="5">
+        <v>1200</v>
+      </c>
+      <c r="G372" s="5">
+        <v>8.51</v>
+      </c>
+      <c r="H372" s="5">
+        <v>10212</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K372" s="5">
+        <v>10957</v>
+      </c>
+      <c r="L372" s="5">
+        <v>0</v>
+      </c>
+      <c r="M372" s="5">
+        <v>20190715</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13">
+      <c r="A373" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-07-19</v>
+      </c>
+      <c r="B373" s="5">
+        <v>4925</v>
+      </c>
+      <c r="C373" s="5">
+        <v>2223</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F373" s="5">
+        <v>-700</v>
+      </c>
+      <c r="G373" s="5">
+        <v>22.75</v>
+      </c>
+      <c r="H373" s="5">
+        <v>15925</v>
+      </c>
+      <c r="I373" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K373" s="5">
+        <v>10312</v>
+      </c>
+      <c r="L373" s="5">
+        <v>0</v>
+      </c>
+      <c r="M373" s="5">
+        <v>20190715</v>
+      </c>
+    </row>
+    <row r="374" spans="13:13">
+      <c r="M374" s="5">
+        <v>20190719</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="7360"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="115">
   <si>
     <t>date</t>
   </si>
@@ -359,16 +359,19 @@
   <si>
     <t>海能达</t>
   </si>
+  <si>
+    <t>西部黄金</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -388,9 +391,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,8 +465,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,55 +505,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,39 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +543,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,103 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,31 +687,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,19 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +739,34 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -765,6 +783,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,36 +834,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,133 +854,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M374"/>
+  <dimension ref="A1:M378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367:M367"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="D382" sqref="D382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -16692,340 +16695,548 @@
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="3" t="str">
-        <f>CONCATENATE(LEFT(M366,4),"-",MID(M366,5,2),"-",RIGHT(M366,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-05-23</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366" s="1">
         <v>9008</v>
       </c>
-      <c r="C366" s="5">
+      <c r="C366" s="1">
         <v>2583</v>
       </c>
-      <c r="D366" s="5" t="s">
+      <c r="D366" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E366" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F366" s="5">
+      <c r="E366" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F366" s="1">
         <v>-1000</v>
       </c>
-      <c r="G366" s="5">
+      <c r="G366" s="1">
         <v>8.76</v>
       </c>
-      <c r="H366" s="5">
+      <c r="H366" s="1">
         <v>8760</v>
       </c>
-      <c r="I366" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J366" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K366" s="5">
+      <c r="I366" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J366" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K366" s="1">
         <v>13143</v>
       </c>
-      <c r="L366" s="5">
-        <v>0</v>
-      </c>
-      <c r="M366" s="5">
+      <c r="L366" s="1">
+        <v>0</v>
+      </c>
+      <c r="M366" s="1">
         <v>20190523</v>
       </c>
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="3" t="str">
-        <f>CONCATENATE(LEFT(M367,4),"-",MID(M367,5,2),"-",RIGHT(M367,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-06-11</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367" s="1">
         <v>15785</v>
       </c>
-      <c r="C367" s="5">
+      <c r="C367" s="1">
         <v>2223</v>
       </c>
-      <c r="D367" s="5" t="s">
+      <c r="D367" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E367" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F367" s="5">
+      <c r="E367" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F367" s="1">
         <v>300</v>
       </c>
-      <c r="G367" s="5">
+      <c r="G367" s="1">
         <v>22.94</v>
       </c>
-      <c r="H367" s="5">
+      <c r="H367" s="1">
         <v>6882</v>
       </c>
-      <c r="I367" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J367" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K367" s="5">
+      <c r="I367" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J367" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K367" s="1">
         <v>13981</v>
       </c>
-      <c r="L367" s="5">
-        <v>0</v>
-      </c>
-      <c r="M367" s="5">
+      <c r="L367" s="1">
+        <v>0</v>
+      </c>
+      <c r="M367" s="1">
         <v>20190611</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:13">
       <c r="A368" s="3" t="str">
-        <f t="shared" ref="A368:A373" si="7">CONCATENATE(LEFT(M369,4),"-",MID(M369,5,2),"-",RIGHT(M369,2))</f>
+        <f>CONCATENATE(LEFT(M368,4),"-",MID(M368,5,2),"-",RIGHT(M368,2))</f>
         <v>2019-06-20</v>
       </c>
-      <c r="B368" s="5">
+      <c r="B368" s="1">
         <v>12066</v>
       </c>
-      <c r="C368" s="5">
+      <c r="C368" s="1">
         <v>300003</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="D368" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E368" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F368" s="5">
+      <c r="E368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F368" s="1">
         <v>600</v>
       </c>
-      <c r="G368" s="5">
+      <c r="G368" s="1">
         <v>22.29</v>
       </c>
-      <c r="H368" s="5">
+      <c r="H368" s="1">
         <v>13374</v>
       </c>
-      <c r="I368" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J368" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K368" s="5">
+      <c r="I368" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K368" s="1">
         <v>14604</v>
       </c>
-      <c r="L368" s="5">
-        <v>0</v>
+      <c r="L368" s="1">
+        <v>0</v>
+      </c>
+      <c r="M368" s="1">
+        <v>20190620</v>
       </c>
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M369,4),"-",MID(M369,5,2),"-",RIGHT(M369,2))</f>
         <v>2019-07-01</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369" s="1">
         <v>8520</v>
       </c>
-      <c r="C369" s="5">
+      <c r="C369" s="1">
         <v>2583</v>
       </c>
-      <c r="D369" s="5" t="s">
+      <c r="D369" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E369" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F369" s="5">
+      <c r="E369" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F369" s="1">
         <v>1300</v>
       </c>
-      <c r="G369" s="5">
+      <c r="G369" s="1">
         <v>8.82</v>
       </c>
-      <c r="H369" s="5">
+      <c r="H369" s="1">
         <v>11466</v>
       </c>
-      <c r="I369" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J369" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K369" s="5">
+      <c r="I369" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K369" s="1">
         <v>14013</v>
       </c>
-      <c r="L369" s="5">
-        <v>0</v>
-      </c>
-      <c r="M369" s="5">
-        <v>20190620</v>
+      <c r="L369" s="1">
+        <v>0</v>
+      </c>
+      <c r="M369" s="1">
+        <v>20190701</v>
       </c>
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M370,4),"-",MID(M370,5,2),"-",RIGHT(M370,2))</f>
         <v>2019-07-08</v>
       </c>
-      <c r="B370" s="5">
+      <c r="B370" s="1">
         <v>5131</v>
       </c>
-      <c r="C370" s="5">
+      <c r="C370" s="1">
         <v>2583</v>
       </c>
-      <c r="D370" s="5" t="s">
+      <c r="D370" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E370" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F370" s="5">
+      <c r="E370" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" s="1">
         <v>-1300</v>
       </c>
-      <c r="G370" s="5">
+      <c r="G370" s="1">
         <v>8.28</v>
       </c>
-      <c r="H370" s="5">
+      <c r="H370" s="1">
         <v>10764</v>
       </c>
-      <c r="I370" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J370" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K370" s="5">
+      <c r="I370" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K370" s="1">
         <v>12261</v>
       </c>
-      <c r="L370" s="5">
-        <v>0</v>
-      </c>
-      <c r="M370" s="5">
-        <v>20190701</v>
+      <c r="L370" s="1">
+        <v>0</v>
+      </c>
+      <c r="M370" s="1">
+        <v>20190708</v>
       </c>
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M371,4),"-",MID(M371,5,2),"-",RIGHT(M371,2))</f>
         <v>2019-07-15</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371" s="1">
         <v>9666</v>
       </c>
-      <c r="C371" s="5">
+      <c r="C371" s="1">
         <v>300003</v>
       </c>
-      <c r="D371" s="5" t="s">
+      <c r="D371" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E371" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F371" s="5">
+      <c r="E371" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" s="1">
         <v>-600</v>
       </c>
-      <c r="G371" s="5">
+      <c r="G371" s="1">
         <v>25.53</v>
       </c>
-      <c r="H371" s="5">
+      <c r="H371" s="1">
         <v>15318</v>
       </c>
-      <c r="I371" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J371" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K371" s="5">
+      <c r="I371" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J371" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K371" s="1">
         <v>10960</v>
       </c>
-      <c r="L371" s="5">
-        <v>0</v>
-      </c>
-      <c r="M371" s="5">
-        <v>20190708</v>
+      <c r="L371" s="1">
+        <v>0</v>
+      </c>
+      <c r="M371" s="1">
+        <v>20190715</v>
       </c>
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M372,4),"-",MID(M372,5,2),"-",RIGHT(M372,2))</f>
         <v>2019-07-15</v>
       </c>
-      <c r="B372" s="5">
+      <c r="B372" s="1">
         <v>6626</v>
       </c>
-      <c r="C372" s="5">
+      <c r="C372" s="1">
         <v>2583</v>
       </c>
-      <c r="D372" s="5" t="s">
+      <c r="D372" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E372" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F372" s="5">
+      <c r="E372" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F372" s="1">
         <v>1200</v>
       </c>
-      <c r="G372" s="5">
+      <c r="G372" s="1">
         <v>8.51</v>
       </c>
-      <c r="H372" s="5">
+      <c r="H372" s="1">
         <v>10212</v>
       </c>
-      <c r="I372" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J372" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K372" s="5">
+      <c r="I372" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K372" s="1">
         <v>10957</v>
       </c>
-      <c r="L372" s="5">
-        <v>0</v>
-      </c>
-      <c r="M372" s="5">
+      <c r="L372" s="1">
+        <v>0</v>
+      </c>
+      <c r="M372" s="1">
         <v>20190715</v>
       </c>
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE(LEFT(M373,4),"-",MID(M373,5,2),"-",RIGHT(M373,2))</f>
         <v>2019-07-19</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373" s="1">
         <v>4925</v>
       </c>
-      <c r="C373" s="5">
+      <c r="C373" s="1">
         <v>2223</v>
       </c>
-      <c r="D373" s="5" t="s">
+      <c r="D373" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E373" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F373" s="5">
+      <c r="E373" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F373" s="1">
         <v>-700</v>
       </c>
-      <c r="G373" s="5">
+      <c r="G373" s="1">
         <v>22.75</v>
       </c>
-      <c r="H373" s="5">
+      <c r="H373" s="1">
         <v>15925</v>
       </c>
-      <c r="I373" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J373" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K373" s="5">
+      <c r="I373" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K373" s="1">
         <v>10312</v>
       </c>
-      <c r="L373" s="5">
-        <v>0</v>
-      </c>
-      <c r="M373" s="5">
-        <v>20190715</v>
-      </c>
-    </row>
-    <row r="374" spans="13:13">
+      <c r="L373" s="1">
+        <v>0</v>
+      </c>
+      <c r="M373" s="1">
+        <v>20190719</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13">
+      <c r="A374" s="3" t="str">
+        <f>CONCATENATE(LEFT(M374,4),"-",MID(M374,5,2),"-",RIGHT(M374,2))</f>
+        <v>2019-07-22</v>
+      </c>
+      <c r="B374" s="5">
+        <v>9916</v>
+      </c>
+      <c r="C374" s="5">
+        <v>2583</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F374" s="5">
+        <v>-1200</v>
+      </c>
+      <c r="G374" s="5">
+        <v>8.49</v>
+      </c>
+      <c r="H374" s="5">
+        <v>10188</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J374" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K374" s="5">
+        <v>12089</v>
+      </c>
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
       <c r="M374" s="5">
-        <v>20190719</v>
+        <v>20190722</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13">
+      <c r="A375" s="3" t="str">
+        <f>CONCATENATE(LEFT(M375,4),"-",MID(M375,5,2),"-",RIGHT(M375,2))</f>
+        <v>2019-09-12</v>
+      </c>
+      <c r="B375" s="1">
+        <v>13794</v>
+      </c>
+      <c r="C375" s="1">
+        <v>601069</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G375" s="1">
+        <v>16.16</v>
+      </c>
+      <c r="H375" s="1">
+        <v>19392</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J375" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K375" s="1">
+        <v>8366</v>
+      </c>
+      <c r="L375" s="1">
+        <v>0</v>
+      </c>
+      <c r="M375" s="1">
+        <v>20190912</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13">
+      <c r="A376" s="3" t="str">
+        <f>CONCATENATE(LEFT(M376,4),"-",MID(M376,5,2),"-",RIGHT(M376,2))</f>
+        <v>2019-09-26</v>
+      </c>
+      <c r="B376" s="1">
+        <v>4486</v>
+      </c>
+      <c r="C376" s="1">
+        <v>601069</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F376" s="1">
+        <v>-1200</v>
+      </c>
+      <c r="G376" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="H376" s="1">
+        <v>18096</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K376" s="1">
+        <v>5053</v>
+      </c>
+      <c r="L376" s="1">
+        <v>0</v>
+      </c>
+      <c r="M376" s="1">
+        <v>20190926</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
+      <c r="A377" s="3" t="str">
+        <f>CONCATENATE(LEFT(M377,4),"-",MID(M377,5,2),"-",RIGHT(M377,2))</f>
+        <v>2019-10-22</v>
+      </c>
+      <c r="B377" s="1">
+        <v>10863</v>
+      </c>
+      <c r="C377" s="1">
+        <v>2583</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F377" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G377" s="1">
+        <v>10</v>
+      </c>
+      <c r="H377" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K377" s="1">
+        <v>9414</v>
+      </c>
+      <c r="L377" s="1">
+        <v>0</v>
+      </c>
+      <c r="M377" s="1">
+        <v>20191022</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
+      <c r="A378" s="3" t="str">
+        <f>CONCATENATE(LEFT(M378,4),"-",MID(M378,5,2),"-",RIGHT(M378,2))</f>
+        <v>2019-10-25</v>
+      </c>
+      <c r="B378" s="1">
+        <v>8776</v>
+      </c>
+      <c r="C378" s="1">
+        <v>2583</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F378" s="1">
+        <v>-3000</v>
+      </c>
+      <c r="G378" s="1">
+        <v>9.44</v>
+      </c>
+      <c r="H378" s="1">
+        <v>28320</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J378" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K378" s="1">
+        <v>9966</v>
+      </c>
+      <c r="L378" s="1">
+        <v>0</v>
+      </c>
+      <c r="M378" s="1">
+        <v>20191025</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="117">
   <si>
     <t>date</t>
   </si>
@@ -362,16 +362,22 @@
   <si>
     <t>西部黄金</t>
   </si>
+  <si>
+    <t>丽珠集团</t>
+  </si>
+  <si>
+    <t>中国铁建</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -391,30 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,37 +412,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,9 +441,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,8 +463,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,16 +525,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +549,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,175 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,32 +740,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -783,6 +763,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,9 +808,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M378"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="D382" sqref="D382"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J361" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -15645,7 +15651,7 @@
     </row>
     <row r="341" spans="1:13">
       <c r="A341" t="str">
-        <f t="shared" ref="A341:A371" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
+        <f t="shared" ref="A341:A378" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
       </c>
       <c r="B341">
@@ -16779,7 +16785,7 @@
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="3" t="str">
-        <f>CONCATENATE(LEFT(M368,4),"-",MID(M368,5,2),"-",RIGHT(M368,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-06-20</v>
       </c>
       <c r="B368" s="1">
@@ -16821,7 +16827,7 @@
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="3" t="str">
-        <f>CONCATENATE(LEFT(M369,4),"-",MID(M369,5,2),"-",RIGHT(M369,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-01</v>
       </c>
       <c r="B369" s="1">
@@ -16863,7 +16869,7 @@
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="3" t="str">
-        <f>CONCATENATE(LEFT(M370,4),"-",MID(M370,5,2),"-",RIGHT(M370,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-08</v>
       </c>
       <c r="B370" s="1">
@@ -16905,7 +16911,7 @@
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="3" t="str">
-        <f>CONCATENATE(LEFT(M371,4),"-",MID(M371,5,2),"-",RIGHT(M371,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-15</v>
       </c>
       <c r="B371" s="1">
@@ -16947,7 +16953,7 @@
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="3" t="str">
-        <f>CONCATENATE(LEFT(M372,4),"-",MID(M372,5,2),"-",RIGHT(M372,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-15</v>
       </c>
       <c r="B372" s="1">
@@ -16989,7 +16995,7 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="3" t="str">
-        <f>CONCATENATE(LEFT(M373,4),"-",MID(M373,5,2),"-",RIGHT(M373,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-19</v>
       </c>
       <c r="B373" s="1">
@@ -17031,49 +17037,49 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="3" t="str">
-        <f>CONCATENATE(LEFT(M374,4),"-",MID(M374,5,2),"-",RIGHT(M374,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-07-22</v>
       </c>
-      <c r="B374" s="5">
+      <c r="B374" s="1">
         <v>9916</v>
       </c>
-      <c r="C374" s="5">
+      <c r="C374" s="1">
         <v>2583</v>
       </c>
-      <c r="D374" s="5" t="s">
+      <c r="D374" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E374" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F374" s="5">
+      <c r="E374" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F374" s="1">
         <v>-1200</v>
       </c>
-      <c r="G374" s="5">
+      <c r="G374" s="1">
         <v>8.49</v>
       </c>
-      <c r="H374" s="5">
+      <c r="H374" s="1">
         <v>10188</v>
       </c>
-      <c r="I374" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J374" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K374" s="5">
+      <c r="I374" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J374" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K374" s="1">
         <v>12089</v>
       </c>
-      <c r="L374" s="5">
-        <v>0</v>
-      </c>
-      <c r="M374" s="5">
+      <c r="L374" s="1">
+        <v>0</v>
+      </c>
+      <c r="M374" s="1">
         <v>20190722</v>
       </c>
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="3" t="str">
-        <f>CONCATENATE(LEFT(M375,4),"-",MID(M375,5,2),"-",RIGHT(M375,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-09-12</v>
       </c>
       <c r="B375" s="1">
@@ -17115,7 +17121,7 @@
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="3" t="str">
-        <f>CONCATENATE(LEFT(M376,4),"-",MID(M376,5,2),"-",RIGHT(M376,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-09-26</v>
       </c>
       <c r="B376" s="1">
@@ -17157,7 +17163,7 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="3" t="str">
-        <f>CONCATENATE(LEFT(M377,4),"-",MID(M377,5,2),"-",RIGHT(M377,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-10-22</v>
       </c>
       <c r="B377" s="1">
@@ -17199,7 +17205,7 @@
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="3" t="str">
-        <f>CONCATENATE(LEFT(M378,4),"-",MID(M378,5,2),"-",RIGHT(M378,2))</f>
+        <f t="shared" si="6"/>
         <v>2019-10-25</v>
       </c>
       <c r="B378" s="1">
@@ -17237,6 +17243,300 @@
       </c>
       <c r="M378" s="1">
         <v>20191025</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
+      <c r="A379" s="3" t="str">
+        <f t="shared" ref="A379:A385" si="7">CONCATENATE(LEFT(M379,4),"-",MID(M379,5,2),"-",RIGHT(M379,2))</f>
+        <v>2019-12-12</v>
+      </c>
+      <c r="B379" s="5">
+        <v>10045</v>
+      </c>
+      <c r="C379" s="5">
+        <v>2111</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F379" s="5">
+        <v>1400</v>
+      </c>
+      <c r="G379" s="5">
+        <v>14.68</v>
+      </c>
+      <c r="H379" s="5">
+        <v>20552</v>
+      </c>
+      <c r="I379" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K379" s="5">
+        <v>7490</v>
+      </c>
+      <c r="L379" s="5">
+        <v>0</v>
+      </c>
+      <c r="M379" s="5">
+        <v>20191212</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13">
+      <c r="A380" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2019-12-13</v>
+      </c>
+      <c r="B380" s="5">
+        <v>7811</v>
+      </c>
+      <c r="C380" s="5">
+        <v>513</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F380" s="5">
+        <v>400</v>
+      </c>
+      <c r="G380" s="5">
+        <v>30.36</v>
+      </c>
+      <c r="H380" s="5">
+        <v>12144</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K380" s="5">
+        <v>9026</v>
+      </c>
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>20191213</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
+      <c r="A381" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-02-03</v>
+      </c>
+      <c r="B381" s="5">
+        <v>22739</v>
+      </c>
+      <c r="C381" s="5">
+        <v>513</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F381" s="5">
+        <v>-400</v>
+      </c>
+      <c r="G381" s="5">
+        <v>35.64</v>
+      </c>
+      <c r="H381" s="5">
+        <v>14256</v>
+      </c>
+      <c r="I381" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K381" s="5">
+        <v>18109</v>
+      </c>
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>20200203</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
+      <c r="A382" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-03-02</v>
+      </c>
+      <c r="B382" s="5">
+        <v>16546</v>
+      </c>
+      <c r="C382" s="5">
+        <v>2111</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F382" s="5">
+        <v>300</v>
+      </c>
+      <c r="G382" s="5">
+        <v>17.31</v>
+      </c>
+      <c r="H382" s="5">
+        <v>5193</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K382" s="5">
+        <v>14975</v>
+      </c>
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>20200302</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
+      <c r="A383" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-03-10</v>
+      </c>
+      <c r="B383" s="5">
+        <v>25527</v>
+      </c>
+      <c r="C383" s="5">
+        <v>601186</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F383" s="5">
+        <v>1900</v>
+      </c>
+      <c r="G383" s="5">
+        <v>10.61</v>
+      </c>
+      <c r="H383" s="5">
+        <v>20159</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J383" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K383" s="5">
+        <v>14076</v>
+      </c>
+      <c r="L383" s="5">
+        <v>0</v>
+      </c>
+      <c r="M383" s="5">
+        <v>20200310</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13">
+      <c r="A384" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-03-13</v>
+      </c>
+      <c r="B384" s="5">
+        <v>13243</v>
+      </c>
+      <c r="C384" s="5">
+        <v>2111</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F384" s="5">
+        <v>-1700</v>
+      </c>
+      <c r="G384" s="5">
+        <v>14.71</v>
+      </c>
+      <c r="H384" s="5">
+        <v>25007</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="5">
+        <v>182173908</v>
+      </c>
+      <c r="K384" s="5">
+        <v>20725</v>
+      </c>
+      <c r="L384" s="5">
+        <v>0</v>
+      </c>
+      <c r="M384" s="5">
+        <v>20200313</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13">
+      <c r="A385" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-03-17</v>
+      </c>
+      <c r="B385" s="5">
+        <v>8217</v>
+      </c>
+      <c r="C385" s="5">
+        <v>601186</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F385" s="5">
+        <v>-1900</v>
+      </c>
+      <c r="G385" s="5">
+        <v>10.06</v>
+      </c>
+      <c r="H385" s="5">
+        <v>19114</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J385" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K385" s="5">
+        <v>6921</v>
+      </c>
+      <c r="L385" s="5">
+        <v>0</v>
+      </c>
+      <c r="M385" s="5">
+        <v>20200317</v>
       </c>
     </row>
   </sheetData>

--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\tshare\HelloWorld\tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="118">
   <si>
     <t>date</t>
   </si>
@@ -368,18 +373,15 @@
   <si>
     <t>中国铁建</t>
   </si>
+  <si>
+    <t>同花顺</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,345 +398,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -742,251 +427,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,61 +453,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1351,26 +750,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J361" sqref="J361"/>
+    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
-    <col min="10" max="10" width="11.5454545454545"/>
-    <col min="13" max="13" width="10.2727272727273"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875"/>
+    <col min="13" max="13" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
         <v>2016-01-04</v>
@@ -1432,7 +831,7 @@
         <v>-800</v>
       </c>
       <c r="G2" s="1">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H2" s="1">
         <v>7040</v>
@@ -1453,7 +852,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-04</v>
@@ -1495,7 +894,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-04</v>
@@ -1516,7 +915,7 @@
         <v>-500</v>
       </c>
       <c r="G4" s="1">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="H4" s="1">
         <v>8710</v>
@@ -1537,7 +936,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-05</v>
@@ -1579,7 +978,7 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-05</v>
@@ -1621,7 +1020,7 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-06</v>
@@ -1663,7 +1062,7 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-06</v>
@@ -1705,7 +1104,7 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1747,7 +1146,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1789,7 +1188,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1831,7 +1230,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-13</v>
@@ -1873,7 +1272,7 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-13</v>
@@ -1915,7 +1314,7 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1957,7 +1356,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1999,7 +1398,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -2041,7 +1440,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -2083,7 +1482,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -2125,7 +1524,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -2167,7 +1566,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -2209,7 +1608,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-21</v>
@@ -2251,7 +1650,7 @@
         <v>20160121</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -2293,7 +1692,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -2335,7 +1734,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -2377,7 +1776,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-25</v>
@@ -2419,7 +1818,7 @@
         <v>20160125</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-26</v>
@@ -2461,7 +1860,7 @@
         <v>20160126</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-03</v>
@@ -2503,7 +1902,7 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-03</v>
@@ -2545,7 +1944,7 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-04</v>
@@ -2587,7 +1986,7 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-04</v>
@@ -2629,7 +2028,7 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-16</v>
@@ -2671,7 +2070,7 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-16</v>
@@ -2713,7 +2112,7 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-17</v>
@@ -2755,7 +2154,7 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-17</v>
@@ -2776,7 +2175,7 @@
         <v>-300</v>
       </c>
       <c r="G34" s="1">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="H34" s="1">
         <v>4953</v>
@@ -2797,7 +2196,7 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2839,7 +2238,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2860,7 +2259,7 @@
         <v>300</v>
       </c>
       <c r="G36" s="1">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="H36" s="1">
         <v>5643</v>
@@ -2881,7 +2280,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2923,7 +2322,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-22</v>
@@ -2965,7 +2364,7 @@
         <v>20160222</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -3007,7 +2406,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -3049,7 +2448,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -3091,7 +2490,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -3133,7 +2532,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -3175,7 +2574,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -3217,7 +2616,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -3259,7 +2658,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -3301,7 +2700,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -3343,7 +2742,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-26</v>
@@ -3385,7 +2784,7 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-26</v>
@@ -3427,7 +2826,7 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -3469,7 +2868,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -3511,7 +2910,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -3553,7 +2952,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -3595,7 +2994,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-01</v>
@@ -3637,7 +3036,7 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-01</v>
@@ -3679,7 +3078,7 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-28</v>
@@ -3721,7 +3120,7 @@
         <v>20160328</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-29</v>
@@ -3763,7 +3162,7 @@
         <v>20160329</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-30</v>
@@ -3784,7 +3183,7 @@
         <v>1200</v>
       </c>
       <c r="G58" s="1">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H58" s="1">
         <v>23088</v>
@@ -3805,7 +3204,7 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-30</v>
@@ -3847,7 +3246,7 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3868,7 +3267,7 @@
         <v>-1200</v>
       </c>
       <c r="G60" s="1">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H60" s="1">
         <v>23088</v>
@@ -3889,7 +3288,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3931,7 +3330,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3973,7 +3372,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-01</v>
@@ -4015,7 +3414,7 @@
         <v>20160401</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-05</v>
@@ -4057,7 +3456,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-05</v>
@@ -4078,7 +3477,7 @@
         <v>2300</v>
       </c>
       <c r="G65" s="1">
-        <v>7.051</v>
+        <v>7.0510000000000002</v>
       </c>
       <c r="H65" s="1">
         <v>16218</v>
@@ -4099,7 +3498,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
         <v>2016-04-05</v>
@@ -4141,7 +3540,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -4183,7 +3582,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -4204,7 +3603,7 @@
         <v>-2800</v>
       </c>
       <c r="G68" s="1">
-        <v>5.371</v>
+        <v>5.3710000000000004</v>
       </c>
       <c r="H68" s="1">
         <v>15040</v>
@@ -4225,7 +3624,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -4267,7 +3666,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-11</v>
@@ -4309,7 +3708,7 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-11</v>
@@ -4351,7 +3750,7 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -4393,7 +3792,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -4435,7 +3834,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -4477,7 +3876,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4519,7 +3918,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4561,7 +3960,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4603,7 +4002,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4645,7 +4044,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4687,7 +4086,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4729,7 +4128,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4771,7 +4170,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4813,7 +4212,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4855,7 +4254,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4897,7 +4296,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4939,7 +4338,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4981,7 +4380,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -5023,7 +4422,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -5065,7 +4464,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -5107,7 +4506,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-20</v>
@@ -5149,7 +4548,7 @@
         <v>20160420</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-29</v>
@@ -5191,7 +4590,7 @@
         <v>20160429</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-02</v>
@@ -5212,7 +4611,7 @@
         <v>1300</v>
       </c>
       <c r="G92" s="1">
-        <v>9.13</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="H92" s="1">
         <v>11869</v>
@@ -5233,7 +4632,7 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-02</v>
@@ -5275,7 +4674,7 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -5317,7 +4716,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -5359,7 +4758,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -5401,7 +4800,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -5443,7 +4842,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -5485,7 +4884,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -5527,7 +4926,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -5569,7 +4968,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-13</v>
@@ -5611,7 +5010,7 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-13</v>
@@ -5632,7 +5031,7 @@
         <v>-2200</v>
       </c>
       <c r="G102" s="1">
-        <v>20.106</v>
+        <v>20.106000000000002</v>
       </c>
       <c r="H102" s="1">
         <v>44233</v>
@@ -5653,7 +5052,7 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-21</v>
@@ -5695,7 +5094,7 @@
         <v>20160621</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-13</v>
@@ -5737,7 +5136,7 @@
         <v>20160713</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-14</v>
@@ -5779,7 +5178,7 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-14</v>
@@ -5821,7 +5220,7 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-18</v>
@@ -5863,7 +5262,7 @@
         <v>20160718</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-19</v>
@@ -5905,7 +5304,7 @@
         <v>20160719</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -5947,7 +5346,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -5989,7 +5388,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -6031,7 +5430,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -6073,7 +5472,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -6115,7 +5514,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -6157,7 +5556,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -6199,7 +5598,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-25</v>
@@ -6241,7 +5640,7 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-25</v>
@@ -6283,7 +5682,7 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -6325,7 +5724,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -6367,7 +5766,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -6409,7 +5808,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -6451,7 +5850,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -6493,7 +5892,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -6535,7 +5934,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -6577,7 +5976,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-28</v>
@@ -6619,7 +6018,7 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-28</v>
@@ -6661,7 +6060,7 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-01</v>
@@ -6682,7 +6081,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="1">
-        <v>9.21</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="H127" s="1">
         <v>9210</v>
@@ -6703,7 +6102,7 @@
         <v>20160801</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-03</v>
@@ -6724,7 +6123,7 @@
         <v>-1000</v>
       </c>
       <c r="G128" s="1">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H128" s="1">
         <v>9280</v>
@@ -6745,7 +6144,7 @@
         <v>20160803</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-05</v>
@@ -6787,7 +6186,7 @@
         <v>20160805</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
         <v>2016-08-10</v>
@@ -6829,7 +6228,7 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-10</v>
@@ -6871,7 +6270,7 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-12</v>
@@ -6913,7 +6312,7 @@
         <v>20160812</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-16</v>
@@ -6955,7 +6354,7 @@
         <v>20160816</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-18</v>
@@ -6997,7 +6396,7 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-18</v>
@@ -7018,7 +6417,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H135" s="1">
         <v>8370</v>
@@ -7039,7 +6438,7 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-19</v>
@@ -7081,7 +6480,7 @@
         <v>20160819</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -7123,7 +6522,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -7165,7 +6564,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -7207,7 +6606,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-25</v>
@@ -7249,7 +6648,7 @@
         <v>20160825</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -7291,7 +6690,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -7333,7 +6732,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -7375,7 +6774,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -7417,7 +6816,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -7459,7 +6858,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -7501,7 +6900,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-31</v>
@@ -7543,7 +6942,7 @@
         <v>20160831</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-01</v>
@@ -7585,7 +6984,7 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-01</v>
@@ -7606,7 +7005,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H149" s="1">
         <v>4185</v>
@@ -7627,7 +7026,7 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7669,7 +7068,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7711,7 +7110,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7732,7 +7131,7 @@
         <v>-300</v>
       </c>
       <c r="G152" s="1">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="H152" s="1">
         <v>2487</v>
@@ -7753,7 +7152,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7774,7 +7173,7 @@
         <v>-400</v>
       </c>
       <c r="G153" s="1">
-        <v>11.688</v>
+        <v>11.688000000000001</v>
       </c>
       <c r="H153" s="1">
         <v>4675</v>
@@ -7795,7 +7194,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7837,7 +7236,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7879,7 +7278,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7900,7 +7299,7 @@
         <v>400</v>
       </c>
       <c r="G156" s="1">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="H156" s="1">
         <v>3420</v>
@@ -7921,7 +7320,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-12</v>
@@ -7963,7 +7362,7 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-12</v>
@@ -8005,7 +7404,7 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-14</v>
@@ -8026,7 +7425,7 @@
         <v>-400</v>
       </c>
       <c r="G159" s="1">
-        <v>8.72</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="H159" s="1">
         <v>3488</v>
@@ -8047,7 +7446,7 @@
         <v>20160914</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-26</v>
@@ -8089,7 +7488,7 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-26</v>
@@ -8131,7 +7530,7 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-28</v>
@@ -8173,7 +7572,7 @@
         <v>20160928</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-13</v>
@@ -8215,7 +7614,7 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-13</v>
@@ -8236,7 +7635,7 @@
         <v>-400</v>
       </c>
       <c r="G164" s="1">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H164" s="1">
         <v>3416</v>
@@ -8257,7 +7656,7 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-21</v>
@@ -8299,7 +7698,7 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-21</v>
@@ -8320,7 +7719,7 @@
         <v>400</v>
       </c>
       <c r="G166" s="1">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="H166" s="1">
         <v>3348</v>
@@ -8341,7 +7740,7 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-25</v>
@@ -8383,7 +7782,7 @@
         <v>20161025</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-28</v>
@@ -8425,7 +7824,7 @@
         <v>20161028</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-08</v>
@@ -8467,7 +7866,7 @@
         <v>20161108</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-09</v>
@@ -8509,7 +7908,7 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-09</v>
@@ -8551,7 +7950,7 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-10</v>
@@ -8593,7 +7992,7 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-10</v>
@@ -8635,7 +8034,7 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-14</v>
@@ -8656,7 +8055,7 @@
         <v>-200</v>
       </c>
       <c r="G174" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H174" s="1">
         <v>1660</v>
@@ -8677,7 +8076,7 @@
         <v>20161114</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-17</v>
@@ -8719,7 +8118,7 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-17</v>
@@ -8740,7 +8139,7 @@
         <v>-200</v>
       </c>
       <c r="G176" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="H176" s="1">
         <v>1644</v>
@@ -8761,7 +8160,7 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-21</v>
@@ -8803,7 +8202,7 @@
         <v>20161121</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-13</v>
@@ -8845,7 +8244,7 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-13</v>
@@ -8887,7 +8286,7 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-18</v>
@@ -8929,7 +8328,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-18</v>
@@ -8971,7 +8370,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-24</v>
@@ -9013,7 +8412,7 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-24</v>
@@ -9055,7 +8454,7 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -9097,7 +8496,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -9139,7 +8538,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -9160,7 +8559,7 @@
         <v>-100</v>
       </c>
       <c r="G186">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H186">
         <v>3620</v>
@@ -9181,7 +8580,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -9223,7 +8622,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -9265,7 +8664,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -9307,7 +8706,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -9349,7 +8748,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -9370,7 +8769,7 @@
         <v>-100</v>
       </c>
       <c r="G191">
-        <v>36.38</v>
+        <v>36.380000000000003</v>
       </c>
       <c r="H191">
         <v>3638</v>
@@ -9391,7 +8790,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-28</v>
@@ -9433,7 +8832,7 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-28</v>
@@ -9475,7 +8874,7 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
         <v>2017-05-02</v>
@@ -9517,7 +8916,7 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-02</v>
@@ -9559,7 +8958,7 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-05</v>
@@ -9601,7 +9000,7 @@
         <v>20170505</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-08</v>
@@ -9643,7 +9042,7 @@
         <v>20170508</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-12</v>
@@ -9685,7 +9084,7 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-12</v>
@@ -9727,7 +9126,7 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-19</v>
@@ -9769,7 +9168,7 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-19</v>
@@ -9811,7 +9210,7 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-23</v>
@@ -9853,7 +9252,7 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-23</v>
@@ -9895,7 +9294,7 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-09</v>
@@ -9937,7 +9336,7 @@
         <v>20170609</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-26</v>
@@ -9979,7 +9378,7 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-26</v>
@@ -10021,7 +9420,7 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-28</v>
@@ -10063,7 +9462,7 @@
         <v>20170628</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-30</v>
@@ -10105,7 +9504,7 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-30</v>
@@ -10147,7 +9546,7 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-05</v>
@@ -10189,7 +9588,7 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-05</v>
@@ -10231,7 +9630,7 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-07</v>
@@ -10273,7 +9672,7 @@
         <v>20170707</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-11</v>
@@ -10315,7 +9714,7 @@
         <v>20170711</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-25</v>
@@ -10357,7 +9756,7 @@
         <v>20170725</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-26</v>
@@ -10399,7 +9798,7 @@
         <v>20170726</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-27</v>
@@ -10441,7 +9840,7 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-27</v>
@@ -10483,7 +9882,7 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-09</v>
@@ -10525,7 +9924,7 @@
         <v>20170809</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-11</v>
@@ -10567,7 +9966,7 @@
         <v>20170811</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-18</v>
@@ -10609,7 +10008,7 @@
         <v>20170818</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-23</v>
@@ -10651,7 +10050,7 @@
         <v>20170823</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-25</v>
@@ -10693,7 +10092,7 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-25</v>
@@ -10735,7 +10134,7 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-01</v>
@@ -10777,7 +10176,7 @@
         <v>20170901</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-05</v>
@@ -10798,7 +10197,7 @@
         <v>100</v>
       </c>
       <c r="G225">
-        <v>19.31</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="H225">
         <v>1931</v>
@@ -10819,7 +10218,7 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-05</v>
@@ -10861,7 +10260,7 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-11</v>
@@ -10882,7 +10281,7 @@
         <v>100</v>
       </c>
       <c r="G227">
-        <v>18.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="H227">
         <v>1876</v>
@@ -10903,7 +10302,7 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-11</v>
@@ -10945,7 +10344,7 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-13</v>
@@ -10987,7 +10386,7 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-13</v>
@@ -11008,7 +10407,7 @@
         <v>300</v>
       </c>
       <c r="G230">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H230">
         <v>2634</v>
@@ -11029,7 +10428,7 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-15</v>
@@ -11071,7 +10470,7 @@
         <v>20170915</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -11113,7 +10512,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -11155,7 +10554,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -11197,7 +10596,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -11239,7 +10638,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-19</v>
@@ -11281,7 +10680,7 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-19</v>
@@ -11302,7 +10701,7 @@
         <v>-300</v>
       </c>
       <c r="G237">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H237">
         <v>2559</v>
@@ -11323,7 +10722,7 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-22</v>
@@ -11365,7 +10764,7 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-22</v>
@@ -11407,7 +10806,7 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -11449,7 +10848,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -11491,7 +10890,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -11533,7 +10932,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -11575,7 +10974,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11617,7 +11016,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11659,7 +11058,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11701,7 +11100,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-19</v>
@@ -11743,7 +11142,7 @@
         <v>20171019</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-25</v>
@@ -11785,7 +11184,7 @@
         <v>20171025</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-07</v>
@@ -11827,7 +11226,7 @@
         <v>20171107</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-14</v>
@@ -11869,7 +11268,7 @@
         <v>20171114</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-16</v>
@@ -11911,7 +11310,7 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-17</v>
@@ -11953,7 +11352,7 @@
         <v>20171117</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-20</v>
@@ -11995,7 +11394,7 @@
         <v>20171120</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-23</v>
@@ -12037,7 +11436,7 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-23</v>
@@ -12079,7 +11478,7 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-28</v>
@@ -12121,7 +11520,7 @@
         <v>20171128</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>2017-12-04</v>
@@ -12142,7 +11541,7 @@
         <v>-100</v>
       </c>
       <c r="G257">
-        <v>18.56</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="H257">
         <v>1856</v>
@@ -12163,7 +11562,7 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A321" si="4">CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
         <v>2017-12-04</v>
@@ -12205,7 +11604,7 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-05</v>
@@ -12247,7 +11646,7 @@
         <v>20171205</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-11</v>
@@ -12289,7 +11688,7 @@
         <v>20171211</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-13</v>
@@ -12310,7 +11709,7 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>18.06</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H261">
         <v>1806</v>
@@ -12331,7 +11730,7 @@
         <v>20171213</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-15</v>
@@ -12373,7 +11772,7 @@
         <v>20171215</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-22</v>
@@ -12394,7 +11793,7 @@
         <v>200</v>
       </c>
       <c r="G263">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="H263">
         <v>3488</v>
@@ -12415,7 +11814,7 @@
         <v>20171222</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-27</v>
@@ -12457,7 +11856,7 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-27</v>
@@ -12499,7 +11898,7 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-02</v>
@@ -12541,7 +11940,7 @@
         <v>20180102</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-11</v>
@@ -12562,7 +11961,7 @@
         <v>200</v>
       </c>
       <c r="G267">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H267">
         <v>3620</v>
@@ -12583,7 +11982,7 @@
         <v>20180111</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-22</v>
@@ -12604,7 +12003,7 @@
         <v>-200</v>
       </c>
       <c r="G268">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="H268">
         <v>3848</v>
@@ -12625,7 +12024,7 @@
         <v>20180122</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-24</v>
@@ -12646,7 +12045,7 @@
         <v>-500</v>
       </c>
       <c r="G269">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="H269">
         <v>10175</v>
@@ -12667,7 +12066,7 @@
         <v>20180124</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-06</v>
@@ -12709,7 +12108,7 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-06</v>
@@ -12751,7 +12150,7 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-20</v>
@@ -12793,7 +12192,7 @@
         <v>20180320</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-21</v>
@@ -12835,7 +12234,7 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-21</v>
@@ -12877,7 +12276,7 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-23</v>
@@ -12919,7 +12318,7 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-23</v>
@@ -12961,7 +12360,7 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-26</v>
@@ -13003,7 +12402,7 @@
         <v>20180326</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-29</v>
@@ -13024,7 +12423,7 @@
         <v>1600</v>
       </c>
       <c r="G278">
-        <v>8.96</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="H278">
         <v>14336</v>
@@ -13045,7 +12444,7 @@
         <v>20180329</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-30</v>
@@ -13087,7 +12486,7 @@
         <v>20180330</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>2018-04-17</v>
@@ -13129,7 +12528,7 @@
         <v>20180417</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>2018-04-20</v>
@@ -13171,7 +12570,7 @@
         <v>20180420</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -13213,7 +12612,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -13255,7 +12654,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -13297,7 +12696,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-07</v>
@@ -13339,7 +12738,7 @@
         <v>20180507</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-08</v>
@@ -13381,7 +12780,7 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-08</v>
@@ -13423,7 +12822,7 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-18</v>
@@ -13465,7 +12864,7 @@
         <v>20180518</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-21</v>
@@ -13507,7 +12906,7 @@
         <v>20180521</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-29</v>
@@ -13549,7 +12948,7 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-29</v>
@@ -13570,7 +12969,7 @@
         <v>300</v>
       </c>
       <c r="G291">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H291">
         <v>2559</v>
@@ -13591,7 +12990,7 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-01</v>
@@ -13612,7 +13011,7 @@
         <v>200</v>
       </c>
       <c r="G292">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H292">
         <v>3320</v>
@@ -13633,7 +13032,7 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-01</v>
@@ -13675,7 +13074,7 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13717,7 +13116,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13759,7 +13158,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13801,7 +13200,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-11</v>
@@ -13843,7 +13242,7 @@
         <v>20180611</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-15</v>
@@ -13885,7 +13284,7 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-15</v>
@@ -13927,7 +13326,7 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-20</v>
@@ -13969,7 +13368,7 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-20</v>
@@ -14011,7 +13410,7 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-22</v>
@@ -14053,7 +13452,7 @@
         <v>20180622</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-25</v>
@@ -14095,7 +13494,7 @@
         <v>20180625</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-27</v>
@@ -14137,7 +13536,7 @@
         <v>20180627</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-28</v>
@@ -14179,7 +13578,7 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-28</v>
@@ -14221,7 +13620,7 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -14263,7 +13662,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -14305,7 +13704,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -14326,7 +13725,7 @@
         <v>700</v>
       </c>
       <c r="G309">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="H309">
         <v>6279</v>
@@ -14347,7 +13746,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -14389,7 +13788,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -14431,7 +13830,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -14473,7 +13872,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-04</v>
@@ -14515,7 +13914,7 @@
         <v>20180704</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-06</v>
@@ -14557,7 +13956,7 @@
         <v>20180706</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-09</v>
@@ -14578,7 +13977,7 @@
         <v>-300</v>
       </c>
       <c r="G315">
-        <v>16.94</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="H315">
         <v>5082</v>
@@ -14599,7 +13998,7 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-09</v>
@@ -14641,7 +14040,7 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-11</v>
@@ -14683,7 +14082,7 @@
         <v>20180711</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-12</v>
@@ -14725,7 +14124,7 @@
         <v>20180712</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-17</v>
@@ -14767,7 +14166,7 @@
         <v>20180717</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-20</v>
@@ -14809,7 +14208,7 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-20</v>
@@ -14851,7 +14250,7 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
         <f t="shared" ref="A322:A340" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
@@ -14893,7 +14292,7 @@
         <v>20180723</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
         <f t="shared" si="5"/>
         <v>2018-07-25</v>
@@ -14914,7 +14313,7 @@
         <v>200</v>
       </c>
       <c r="G323">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="H323">
         <v>3652</v>
@@ -14935,7 +14334,7 @@
         <v>20180725</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -14977,7 +14376,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -15019,7 +14418,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -15061,7 +14460,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-13</v>
@@ -15082,7 +14481,7 @@
         <v>200</v>
       </c>
       <c r="G327">
-        <v>16.81</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="H327">
         <v>3362</v>
@@ -15103,7 +14502,7 @@
         <v>20180813</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-15</v>
@@ -15145,7 +14544,7 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-15</v>
@@ -15187,7 +14586,7 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-17</v>
@@ -15229,7 +14628,7 @@
         <v>20180817</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-03</v>
@@ -15271,7 +14670,7 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-03</v>
@@ -15313,7 +14712,7 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-18</v>
@@ -15355,7 +14754,7 @@
         <v>20180918</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-20</v>
@@ -15397,7 +14796,7 @@
         <v>20180920</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-28</v>
@@ -15439,7 +14838,7 @@
         <v>20180928</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v>2018-10-09</v>
@@ -15481,7 +14880,7 @@
         <v>20181009</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v>2018-10-31</v>
@@ -15502,7 +14901,7 @@
         <v>500</v>
       </c>
       <c r="G337">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="H337">
         <v>4315</v>
@@ -15523,7 +14922,7 @@
         <v>20181031</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-09</v>
@@ -15565,7 +14964,7 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-16</v>
@@ -15607,7 +15006,7 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-16</v>
@@ -15649,7 +15048,7 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
         <f t="shared" ref="A341:A378" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
@@ -15691,7 +15090,7 @@
         <v>20181120</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
         <f t="shared" si="6"/>
         <v>2018-11-23</v>
@@ -15733,7 +15132,7 @@
         <v>20181123</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
         <f t="shared" si="6"/>
         <v>2018-11-30</v>
@@ -15775,7 +15174,7 @@
         <v>20181130</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15817,7 +15216,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15859,7 +15258,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15901,7 +15300,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15943,7 +15342,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-06</v>
@@ -15985,7 +15384,7 @@
         <v>20181206</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-17</v>
@@ -16027,7 +15426,7 @@
         <v>20181217</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-18</v>
@@ -16069,7 +15468,7 @@
         <v>20181218</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-21</v>
@@ -16111,7 +15510,7 @@
         <v>20181221</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-24</v>
@@ -16153,7 +15552,7 @@
         <v>20181224</v>
       </c>
     </row>
-    <row r="353" spans="1:13">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f t="shared" si="6"/>
         <v>2019-01-08</v>
@@ -16195,7 +15594,7 @@
         <v>20190108</v>
       </c>
     </row>
-    <row r="354" spans="1:13">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
         <f t="shared" si="6"/>
         <v>2019-02-01</v>
@@ -16237,7 +15636,7 @@
         <v>20190201</v>
       </c>
     </row>
-    <row r="355" spans="1:13">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
         <f t="shared" si="6"/>
         <v>2019-02-25</v>
@@ -16279,7 +15678,7 @@
         <v>20190225</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-01</v>
@@ -16321,7 +15720,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
         <f t="shared" si="6"/>
         <v>2019-03-19</v>
@@ -16363,7 +15762,7 @@
         <v>20190319</v>
       </c>
     </row>
-    <row r="358" spans="1:13">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-09</v>
@@ -16405,7 +15804,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="359" spans="1:13">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-16</v>
@@ -16447,7 +15846,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="360" spans="1:13">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-26</v>
@@ -16489,7 +15888,7 @@
         <v>20190426</v>
       </c>
     </row>
-    <row r="361" spans="1:13">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-26</v>
@@ -16531,7 +15930,7 @@
         <v>20190426</v>
       </c>
     </row>
-    <row r="362" spans="1:13">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-15</v>
@@ -16573,7 +15972,7 @@
         <v>20190515</v>
       </c>
     </row>
-    <row r="363" spans="1:13">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-10</v>
@@ -16615,7 +16014,7 @@
         <v>20190510</v>
       </c>
     </row>
-    <row r="364" spans="1:13">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-10</v>
@@ -16657,7 +16056,7 @@
         <v>20190510</v>
       </c>
     </row>
-    <row r="365" spans="1:13">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-17</v>
@@ -16699,7 +16098,7 @@
         <v>20190517</v>
       </c>
     </row>
-    <row r="366" spans="1:13">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-23</v>
@@ -16741,7 +16140,7 @@
         <v>20190523</v>
       </c>
     </row>
-    <row r="367" spans="1:13">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-06-11</v>
@@ -16783,7 +16182,7 @@
         <v>20190611</v>
       </c>
     </row>
-    <row r="368" spans="1:13">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-06-20</v>
@@ -16825,7 +16224,7 @@
         <v>20190620</v>
       </c>
     </row>
-    <row r="369" spans="1:13">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-01</v>
@@ -16867,7 +16266,7 @@
         <v>20190701</v>
       </c>
     </row>
-    <row r="370" spans="1:13">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-08</v>
@@ -16888,7 +16287,7 @@
         <v>-1300</v>
       </c>
       <c r="G370" s="1">
-        <v>8.28</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="H370" s="1">
         <v>10764</v>
@@ -16909,7 +16308,7 @@
         <v>20190708</v>
       </c>
     </row>
-    <row r="371" spans="1:13">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-15</v>
@@ -16951,7 +16350,7 @@
         <v>20190715</v>
       </c>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-15</v>
@@ -16993,7 +16392,7 @@
         <v>20190715</v>
       </c>
     </row>
-    <row r="373" spans="1:13">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-19</v>
@@ -17035,7 +16434,7 @@
         <v>20190719</v>
       </c>
     </row>
-    <row r="374" spans="1:13">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-22</v>
@@ -17077,7 +16476,7 @@
         <v>20190722</v>
       </c>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-09-12</v>
@@ -17119,7 +16518,7 @@
         <v>20190912</v>
       </c>
     </row>
-    <row r="376" spans="1:13">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-09-26</v>
@@ -17161,7 +16560,7 @@
         <v>20190926</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-10-22</v>
@@ -17203,7 +16602,7 @@
         <v>20191022</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-10-25</v>
@@ -17245,9 +16644,9 @@
         <v>20191025</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="str">
-        <f t="shared" ref="A379:A385" si="7">CONCATENATE(LEFT(M379,4),"-",MID(M379,5,2),"-",RIGHT(M379,2))</f>
+        <f t="shared" ref="A379:A387" si="7">CONCATENATE(LEFT(M379,4),"-",MID(M379,5,2),"-",RIGHT(M379,2))</f>
         <v>2019-12-12</v>
       </c>
       <c r="B379" s="5">
@@ -17287,7 +16686,7 @@
         <v>20191212</v>
       </c>
     </row>
-    <row r="380" spans="1:13">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2019-12-13</v>
@@ -17329,7 +16728,7 @@
         <v>20191213</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-02-03</v>
@@ -17371,7 +16770,7 @@
         <v>20200203</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-02</v>
@@ -17392,7 +16791,7 @@
         <v>300</v>
       </c>
       <c r="G382" s="5">
-        <v>17.31</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="H382" s="5">
         <v>5193</v>
@@ -17413,7 +16812,7 @@
         <v>20200302</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-10</v>
@@ -17455,7 +16854,7 @@
         <v>20200310</v>
       </c>
     </row>
-    <row r="384" spans="1:13">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-13</v>
@@ -17497,7 +16896,7 @@
         <v>20200313</v>
       </c>
     </row>
-    <row r="385" spans="1:13">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-17</v>
@@ -17539,43 +16938,121 @@
         <v>20200317</v>
       </c>
     </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-04-30</v>
+      </c>
+      <c r="B386">
+        <v>12699</v>
+      </c>
+      <c r="C386">
+        <v>300033</v>
+      </c>
+      <c r="D386" t="s">
+        <v>117</v>
+      </c>
+      <c r="E386" t="s">
+        <v>20</v>
+      </c>
+      <c r="F386">
+        <v>400</v>
+      </c>
+      <c r="G386">
+        <v>119.5</v>
+      </c>
+      <c r="H386">
+        <v>47800</v>
+      </c>
+      <c r="I386" t="s">
+        <v>19</v>
+      </c>
+      <c r="J386">
+        <v>182173908</v>
+      </c>
+      <c r="K386">
+        <v>12472</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>20200430</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>2020-05-21</v>
+      </c>
+      <c r="B387">
+        <v>22046</v>
+      </c>
+      <c r="C387">
+        <v>300033</v>
+      </c>
+      <c r="D387" t="s">
+        <v>117</v>
+      </c>
+      <c r="E387" t="s">
+        <v>14</v>
+      </c>
+      <c r="F387">
+        <v>-400</v>
+      </c>
+      <c r="G387">
+        <v>112.9</v>
+      </c>
+      <c r="H387">
+        <v>45160</v>
+      </c>
+      <c r="I387" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387">
+        <v>182173908</v>
+      </c>
+      <c r="K387">
+        <v>10520</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>20200521</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/HelloWorld/tools/data.xlsx
+++ b/HelloWorld/tools/data.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\tshare\HelloWorld\tools\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="8110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="120">
   <si>
     <t>date</t>
   </si>
@@ -44,9 +39,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>useless2</t>
   </si>
   <si>
@@ -60,6 +52,9 @@
   </si>
   <si>
     <t>useless6</t>
+  </si>
+  <si>
+    <t>useless7</t>
   </si>
   <si>
     <t>铁龙物流</t>
@@ -376,12 +371,24 @@
   <si>
     <t>同花顺</t>
   </si>
+  <si>
+    <t>永辉超市</t>
+  </si>
+  <si>
+    <t>杭州解百</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,28 +405,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -427,13 +751,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,18 +1018,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -750,26 +1363,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M387"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="F391" sqref="F391"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875"/>
-    <col min="13" max="13" width="10.26953125"/>
+    <col min="1" max="1" width="13.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="9.54545454545454"/>
+    <col min="10" max="10" width="11.5454545454545"/>
+    <col min="11" max="11" width="10.5454545454545"/>
+    <col min="13" max="13" width="10.2727272727273"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +1425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(LEFT(M2,4),"-",MID(M2,5,2),"-",RIGHT(M2,2))</f>
         <v>2016-01-04</v>
@@ -831,7 +1446,7 @@
         <v>-800</v>
       </c>
       <c r="G2" s="1">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="H2" s="1">
         <v>7040</v>
@@ -852,7 +1467,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-04</v>
@@ -894,7 +1509,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-04</v>
@@ -915,7 +1530,7 @@
         <v>-500</v>
       </c>
       <c r="G4" s="1">
-        <v>17.420000000000002</v>
+        <v>17.42</v>
       </c>
       <c r="H4" s="1">
         <v>8710</v>
@@ -936,7 +1551,7 @@
         <v>20160104</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-05</v>
@@ -978,7 +1593,7 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-05</v>
@@ -1020,7 +1635,7 @@
         <v>20160105</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-06</v>
@@ -1062,7 +1677,7 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-06</v>
@@ -1104,7 +1719,7 @@
         <v>20160106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1146,7 +1761,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1188,7 +1803,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-12</v>
@@ -1230,7 +1845,7 @@
         <v>20160112</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-13</v>
@@ -1272,7 +1887,7 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-13</v>
@@ -1314,7 +1929,7 @@
         <v>20160113</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1356,7 +1971,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1398,7 +2013,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1440,7 +2055,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-15</v>
@@ -1482,7 +2097,7 @@
         <v>20160115</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -1524,7 +2139,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -1566,7 +2181,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-19</v>
@@ -1608,7 +2223,7 @@
         <v>20160119</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-21</v>
@@ -1650,7 +2265,7 @@
         <v>20160121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -1692,7 +2307,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -1734,7 +2349,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-22</v>
@@ -1776,7 +2391,7 @@
         <v>20160122</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-25</v>
@@ -1818,7 +2433,7 @@
         <v>20160125</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2016-01-26</v>
@@ -1860,7 +2475,7 @@
         <v>20160126</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-03</v>
@@ -1902,7 +2517,7 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-03</v>
@@ -1944,7 +2559,7 @@
         <v>20160203</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-04</v>
@@ -1986,7 +2601,7 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-04</v>
@@ -2028,7 +2643,7 @@
         <v>20160204</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-16</v>
@@ -2070,7 +2685,7 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-16</v>
@@ -2112,7 +2727,7 @@
         <v>20160216</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-17</v>
@@ -2154,7 +2769,7 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-17</v>
@@ -2175,7 +2790,7 @@
         <v>-300</v>
       </c>
       <c r="G34" s="1">
-        <v>16.510000000000002</v>
+        <v>16.51</v>
       </c>
       <c r="H34" s="1">
         <v>4953</v>
@@ -2196,7 +2811,7 @@
         <v>20160217</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2238,7 +2853,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2259,7 +2874,7 @@
         <v>300</v>
       </c>
       <c r="G36" s="1">
-        <v>18.809999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="H36" s="1">
         <v>5643</v>
@@ -2280,7 +2895,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-19</v>
@@ -2322,7 +2937,7 @@
         <v>20160219</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-22</v>
@@ -2364,7 +2979,7 @@
         <v>20160222</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -2406,7 +3021,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -2448,7 +3063,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -2490,7 +3105,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-23</v>
@@ -2532,7 +3147,7 @@
         <v>20160223</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -2574,7 +3189,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -2616,7 +3231,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -2658,7 +3273,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -2700,7 +3315,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-24</v>
@@ -2742,7 +3357,7 @@
         <v>20160224</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-26</v>
@@ -2784,7 +3399,7 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-26</v>
@@ -2826,7 +3441,7 @@
         <v>20160226</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -2868,7 +3483,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -2910,7 +3525,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -2952,7 +3567,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>2016-02-29</v>
@@ -2994,7 +3609,7 @@
         <v>20160229</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-01</v>
@@ -3036,7 +3651,7 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-01</v>
@@ -3078,7 +3693,7 @@
         <v>20160301</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-28</v>
@@ -3120,7 +3735,7 @@
         <v>20160328</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-29</v>
@@ -3162,7 +3777,7 @@
         <v>20160329</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-30</v>
@@ -3183,7 +3798,7 @@
         <v>1200</v>
       </c>
       <c r="G58" s="1">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H58" s="1">
         <v>23088</v>
@@ -3204,7 +3819,7 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-30</v>
@@ -3246,7 +3861,7 @@
         <v>20160330</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3267,7 +3882,7 @@
         <v>-1200</v>
       </c>
       <c r="G60" s="1">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H60" s="1">
         <v>23088</v>
@@ -3288,7 +3903,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3330,7 +3945,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>2016-03-31</v>
@@ -3372,7 +3987,7 @@
         <v>20160331</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-01</v>
@@ -3414,7 +4029,7 @@
         <v>20160401</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-05</v>
@@ -3456,7 +4071,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>2016-04-05</v>
@@ -3477,7 +4092,7 @@
         <v>2300</v>
       </c>
       <c r="G65" s="1">
-        <v>7.0510000000000002</v>
+        <v>7.051</v>
       </c>
       <c r="H65" s="1">
         <v>16218</v>
@@ -3498,7 +4113,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(LEFT(M66,4),"-",MID(M66,5,2),"-",RIGHT(M66,2))</f>
         <v>2016-04-05</v>
@@ -3540,7 +4155,7 @@
         <v>20160405</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -3582,7 +4197,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -3603,7 +4218,7 @@
         <v>-2800</v>
       </c>
       <c r="G68" s="1">
-        <v>5.3710000000000004</v>
+        <v>5.371</v>
       </c>
       <c r="H68" s="1">
         <v>15040</v>
@@ -3624,7 +4239,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-06</v>
@@ -3666,7 +4281,7 @@
         <v>20160406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-11</v>
@@ -3708,7 +4323,7 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-11</v>
@@ -3750,7 +4365,7 @@
         <v>20160411</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -3792,7 +4407,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -3834,7 +4449,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-12</v>
@@ -3876,7 +4491,7 @@
         <v>20160412</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -3918,7 +4533,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -3960,7 +4575,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4002,7 +4617,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4044,7 +4659,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-13</v>
@@ -4086,7 +4701,7 @@
         <v>20160413</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4128,7 +4743,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4170,7 +4785,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4212,7 +4827,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4254,7 +4869,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4296,7 +4911,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4338,7 +4953,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-14</v>
@@ -4380,7 +4995,7 @@
         <v>20160414</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -4422,7 +5037,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -4464,7 +5079,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-18</v>
@@ -4506,7 +5121,7 @@
         <v>20160418</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-20</v>
@@ -4548,7 +5163,7 @@
         <v>20160420</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>2016-04-29</v>
@@ -4590,7 +5205,7 @@
         <v>20160429</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-02</v>
@@ -4611,7 +5226,7 @@
         <v>1300</v>
       </c>
       <c r="G92" s="1">
-        <v>9.1300000000000008</v>
+        <v>9.13</v>
       </c>
       <c r="H92" s="1">
         <v>11869</v>
@@ -4632,7 +5247,7 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-02</v>
@@ -4674,7 +5289,7 @@
         <v>20160602</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -4716,7 +5331,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -4758,7 +5373,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -4800,7 +5415,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-03</v>
@@ -4842,7 +5457,7 @@
         <v>20160603</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -4884,7 +5499,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -4926,7 +5541,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-07</v>
@@ -4968,7 +5583,7 @@
         <v>20160607</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-13</v>
@@ -5010,7 +5625,7 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-13</v>
@@ -5031,7 +5646,7 @@
         <v>-2200</v>
       </c>
       <c r="G102" s="1">
-        <v>20.106000000000002</v>
+        <v>20.106</v>
       </c>
       <c r="H102" s="1">
         <v>44233</v>
@@ -5052,7 +5667,7 @@
         <v>20160613</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>2016-06-21</v>
@@ -5094,7 +5709,7 @@
         <v>20160621</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-13</v>
@@ -5136,7 +5751,7 @@
         <v>20160713</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-14</v>
@@ -5178,7 +5793,7 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-14</v>
@@ -5220,7 +5835,7 @@
         <v>20160714</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-18</v>
@@ -5262,7 +5877,7 @@
         <v>20160718</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-19</v>
@@ -5304,7 +5919,7 @@
         <v>20160719</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -5346,7 +5961,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -5388,7 +6003,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-21</v>
@@ -5430,7 +6045,7 @@
         <v>20160721</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -5472,7 +6087,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -5514,7 +6129,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -5556,7 +6171,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-22</v>
@@ -5598,7 +6213,7 @@
         <v>20160722</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-25</v>
@@ -5640,7 +6255,7 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-25</v>
@@ -5682,7 +6297,7 @@
         <v>20160725</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -5724,7 +6339,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -5766,7 +6381,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -5808,7 +6423,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-26</v>
@@ -5850,7 +6465,7 @@
         <v>20160726</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -5892,7 +6507,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -5934,7 +6549,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-27</v>
@@ -5976,7 +6591,7 @@
         <v>20160727</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-28</v>
@@ -6018,7 +6633,7 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>2016-07-28</v>
@@ -6060,7 +6675,7 @@
         <v>20160728</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-01</v>
@@ -6081,7 +6696,7 @@
         <v>1000</v>
       </c>
       <c r="G127" s="1">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="H127" s="1">
         <v>9210</v>
@@ -6102,7 +6717,7 @@
         <v>20160801</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-03</v>
@@ -6123,7 +6738,7 @@
         <v>-1000</v>
       </c>
       <c r="G128" s="1">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="H128" s="1">
         <v>9280</v>
@@ -6144,7 +6759,7 @@
         <v>20160803</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>2016-08-05</v>
@@ -6186,7 +6801,7 @@
         <v>20160805</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">CONCATENATE(LEFT(M130,4),"-",MID(M130,5,2),"-",RIGHT(M130,2))</f>
         <v>2016-08-10</v>
@@ -6228,7 +6843,7 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-10</v>
@@ -6270,7 +6885,7 @@
         <v>20160810</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-12</v>
@@ -6312,7 +6927,7 @@
         <v>20160812</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-16</v>
@@ -6354,7 +6969,7 @@
         <v>20160816</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-18</v>
@@ -6396,7 +7011,7 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-18</v>
@@ -6417,7 +7032,7 @@
         <v>1000</v>
       </c>
       <c r="G135" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H135" s="1">
         <v>8370</v>
@@ -6438,7 +7053,7 @@
         <v>20160818</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-19</v>
@@ -6480,7 +7095,7 @@
         <v>20160819</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -6522,7 +7137,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -6564,7 +7179,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-24</v>
@@ -6606,7 +7221,7 @@
         <v>20160824</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-25</v>
@@ -6648,7 +7263,7 @@
         <v>20160825</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -6690,7 +7305,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -6732,7 +7347,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-26</v>
@@ -6774,7 +7389,7 @@
         <v>20160826</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -6816,7 +7431,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -6858,7 +7473,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-30</v>
@@ -6900,7 +7515,7 @@
         <v>20160830</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>2016-08-31</v>
@@ -6942,7 +7557,7 @@
         <v>20160831</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-01</v>
@@ -6984,7 +7599,7 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-01</v>
@@ -7005,7 +7620,7 @@
         <v>500</v>
       </c>
       <c r="G149" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H149" s="1">
         <v>4185</v>
@@ -7026,7 +7641,7 @@
         <v>20160901</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7068,7 +7683,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7110,7 +7725,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-02</v>
@@ -7131,7 +7746,7 @@
         <v>-300</v>
       </c>
       <c r="G152" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="H152" s="1">
         <v>2487</v>
@@ -7152,7 +7767,7 @@
         <v>20160902</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7173,7 +7788,7 @@
         <v>-400</v>
       </c>
       <c r="G153" s="1">
-        <v>11.688000000000001</v>
+        <v>11.688</v>
       </c>
       <c r="H153" s="1">
         <v>4675</v>
@@ -7194,7 +7809,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7236,7 +7851,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7278,7 +7893,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-09</v>
@@ -7299,7 +7914,7 @@
         <v>400</v>
       </c>
       <c r="G156" s="1">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="H156" s="1">
         <v>3420</v>
@@ -7320,7 +7935,7 @@
         <v>20160909</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-12</v>
@@ -7362,7 +7977,7 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-12</v>
@@ -7404,7 +8019,7 @@
         <v>20160912</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-14</v>
@@ -7425,7 +8040,7 @@
         <v>-400</v>
       </c>
       <c r="G159" s="1">
-        <v>8.7200000000000006</v>
+        <v>8.72</v>
       </c>
       <c r="H159" s="1">
         <v>3488</v>
@@ -7446,7 +8061,7 @@
         <v>20160914</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-26</v>
@@ -7488,7 +8103,7 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-26</v>
@@ -7530,7 +8145,7 @@
         <v>20160926</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>2016-09-28</v>
@@ -7572,7 +8187,7 @@
         <v>20160928</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-13</v>
@@ -7614,7 +8229,7 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-13</v>
@@ -7635,7 +8250,7 @@
         <v>-400</v>
       </c>
       <c r="G164" s="1">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="H164" s="1">
         <v>3416</v>
@@ -7656,7 +8271,7 @@
         <v>20161013</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-21</v>
@@ -7698,7 +8313,7 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-21</v>
@@ -7719,7 +8334,7 @@
         <v>400</v>
       </c>
       <c r="G166" s="1">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="H166" s="1">
         <v>3348</v>
@@ -7740,7 +8355,7 @@
         <v>20161021</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-25</v>
@@ -7782,7 +8397,7 @@
         <v>20161025</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>2016-10-28</v>
@@ -7824,7 +8439,7 @@
         <v>20161028</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-08</v>
@@ -7866,7 +8481,7 @@
         <v>20161108</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-09</v>
@@ -7908,7 +8523,7 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-09</v>
@@ -7950,7 +8565,7 @@
         <v>20161109</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-10</v>
@@ -7992,7 +8607,7 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-10</v>
@@ -8034,7 +8649,7 @@
         <v>20161110</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-14</v>
@@ -8055,7 +8670,7 @@
         <v>-200</v>
       </c>
       <c r="G174" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="H174" s="1">
         <v>1660</v>
@@ -8076,7 +8691,7 @@
         <v>20161114</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-17</v>
@@ -8118,7 +8733,7 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-17</v>
@@ -8139,7 +8754,7 @@
         <v>-200</v>
       </c>
       <c r="G176" s="1">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="H176" s="1">
         <v>1644</v>
@@ -8160,7 +8775,7 @@
         <v>20161117</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>2016-11-21</v>
@@ -8202,7 +8817,7 @@
         <v>20161121</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-13</v>
@@ -8244,7 +8859,7 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-13</v>
@@ -8286,7 +8901,7 @@
         <v>20170413</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-18</v>
@@ -8328,7 +8943,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-18</v>
@@ -8370,7 +8985,7 @@
         <v>20170418</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-24</v>
@@ -8412,7 +9027,7 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-24</v>
@@ -8454,7 +9069,7 @@
         <v>20170424</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -8496,7 +9111,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -8538,7 +9153,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -8559,7 +9174,7 @@
         <v>-100</v>
       </c>
       <c r="G186">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="H186">
         <v>3620</v>
@@ -8580,7 +9195,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-26</v>
@@ -8622,7 +9237,7 @@
         <v>20170426</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -8664,7 +9279,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -8706,7 +9321,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -8748,7 +9363,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-27</v>
@@ -8769,7 +9384,7 @@
         <v>-100</v>
       </c>
       <c r="G191">
-        <v>36.380000000000003</v>
+        <v>36.38</v>
       </c>
       <c r="H191">
         <v>3638</v>
@@ -8790,7 +9405,7 @@
         <v>20170427</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-28</v>
@@ -8832,7 +9447,7 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>2017-04-28</v>
@@ -8874,7 +9489,7 @@
         <v>20170428</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13">
       <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">CONCATENATE(LEFT(M194,4),"-",MID(M194,5,2),"-",RIGHT(M194,2))</f>
         <v>2017-05-02</v>
@@ -8916,7 +9531,7 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-02</v>
@@ -8958,7 +9573,7 @@
         <v>20170502</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-05</v>
@@ -9000,7 +9615,7 @@
         <v>20170505</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-08</v>
@@ -9042,7 +9657,7 @@
         <v>20170508</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-12</v>
@@ -9084,7 +9699,7 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-12</v>
@@ -9126,7 +9741,7 @@
         <v>20170512</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-19</v>
@@ -9168,7 +9783,7 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-19</v>
@@ -9210,7 +9825,7 @@
         <v>20170519</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-23</v>
@@ -9252,7 +9867,7 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>2017-05-23</v>
@@ -9294,7 +9909,7 @@
         <v>20170523</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-09</v>
@@ -9336,7 +9951,7 @@
         <v>20170609</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-26</v>
@@ -9378,7 +9993,7 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-26</v>
@@ -9420,7 +10035,7 @@
         <v>20170626</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-28</v>
@@ -9462,7 +10077,7 @@
         <v>20170628</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-30</v>
@@ -9504,7 +10119,7 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>2017-06-30</v>
@@ -9546,7 +10161,7 @@
         <v>20170630</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-05</v>
@@ -9588,7 +10203,7 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-05</v>
@@ -9630,7 +10245,7 @@
         <v>20170705</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-07</v>
@@ -9672,7 +10287,7 @@
         <v>20170707</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-11</v>
@@ -9714,7 +10329,7 @@
         <v>20170711</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-25</v>
@@ -9756,7 +10371,7 @@
         <v>20170725</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-26</v>
@@ -9798,7 +10413,7 @@
         <v>20170726</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-27</v>
@@ -9840,7 +10455,7 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>2017-07-27</v>
@@ -9882,7 +10497,7 @@
         <v>20170727</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-09</v>
@@ -9924,7 +10539,7 @@
         <v>20170809</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-11</v>
@@ -9966,7 +10581,7 @@
         <v>20170811</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-18</v>
@@ -10008,7 +10623,7 @@
         <v>20170818</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-23</v>
@@ -10050,7 +10665,7 @@
         <v>20170823</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-25</v>
@@ -10092,7 +10707,7 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>2017-08-25</v>
@@ -10134,7 +10749,7 @@
         <v>20170825</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-01</v>
@@ -10176,7 +10791,7 @@
         <v>20170901</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-05</v>
@@ -10197,7 +10812,7 @@
         <v>100</v>
       </c>
       <c r="G225">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="H225">
         <v>1931</v>
@@ -10218,7 +10833,7 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-05</v>
@@ -10260,7 +10875,7 @@
         <v>20170905</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-11</v>
@@ -10281,7 +10896,7 @@
         <v>100</v>
       </c>
       <c r="G227">
-        <v>18.760000000000002</v>
+        <v>18.76</v>
       </c>
       <c r="H227">
         <v>1876</v>
@@ -10302,7 +10917,7 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-11</v>
@@ -10344,7 +10959,7 @@
         <v>20170911</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-13</v>
@@ -10386,7 +11001,7 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-13</v>
@@ -10407,7 +11022,7 @@
         <v>300</v>
       </c>
       <c r="G230">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="H230">
         <v>2634</v>
@@ -10428,7 +11043,7 @@
         <v>20170913</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-15</v>
@@ -10470,7 +11085,7 @@
         <v>20170915</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -10512,7 +11127,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -10554,7 +11169,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -10596,7 +11211,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-18</v>
@@ -10638,7 +11253,7 @@
         <v>20170918</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-19</v>
@@ -10680,7 +11295,7 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-19</v>
@@ -10701,7 +11316,7 @@
         <v>-300</v>
       </c>
       <c r="G237">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="H237">
         <v>2559</v>
@@ -10722,7 +11337,7 @@
         <v>20170919</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-22</v>
@@ -10764,7 +11379,7 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-22</v>
@@ -10806,7 +11421,7 @@
         <v>20170922</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -10848,7 +11463,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -10890,7 +11505,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -10932,7 +11547,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>2017-09-29</v>
@@ -10974,7 +11589,7 @@
         <v>20170929</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11016,7 +11631,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11058,7 +11673,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-13</v>
@@ -11100,7 +11715,7 @@
         <v>20171013</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-19</v>
@@ -11142,7 +11757,7 @@
         <v>20171019</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>2017-10-25</v>
@@ -11184,7 +11799,7 @@
         <v>20171025</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-07</v>
@@ -11226,7 +11841,7 @@
         <v>20171107</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-14</v>
@@ -11268,7 +11883,7 @@
         <v>20171114</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-16</v>
@@ -11310,7 +11925,7 @@
         <v>20171116</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-17</v>
@@ -11352,7 +11967,7 @@
         <v>20171117</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-20</v>
@@ -11394,7 +12009,7 @@
         <v>20171120</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-23</v>
@@ -11436,7 +12051,7 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-23</v>
@@ -11478,7 +12093,7 @@
         <v>20171123</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>2017-11-28</v>
@@ -11520,7 +12135,7 @@
         <v>20171128</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13">
       <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>2017-12-04</v>
@@ -11541,7 +12156,7 @@
         <v>-100</v>
       </c>
       <c r="G257">
-        <v>18.559999999999999</v>
+        <v>18.56</v>
       </c>
       <c r="H257">
         <v>1856</v>
@@ -11562,7 +12177,7 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13">
       <c r="A258" t="str">
         <f t="shared" ref="A258:A321" si="4">CONCATENATE(LEFT(M258,4),"-",MID(M258,5,2),"-",RIGHT(M258,2))</f>
         <v>2017-12-04</v>
@@ -11604,7 +12219,7 @@
         <v>20171204</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-05</v>
@@ -11646,7 +12261,7 @@
         <v>20171205</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-11</v>
@@ -11688,7 +12303,7 @@
         <v>20171211</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-13</v>
@@ -11709,7 +12324,7 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>18.059999999999999</v>
+        <v>18.06</v>
       </c>
       <c r="H261">
         <v>1806</v>
@@ -11730,7 +12345,7 @@
         <v>20171213</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-15</v>
@@ -11772,7 +12387,7 @@
         <v>20171215</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-22</v>
@@ -11793,7 +12408,7 @@
         <v>200</v>
       </c>
       <c r="G263">
-        <v>17.440000000000001</v>
+        <v>17.44</v>
       </c>
       <c r="H263">
         <v>3488</v>
@@ -11814,7 +12429,7 @@
         <v>20171222</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-27</v>
@@ -11856,7 +12471,7 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>2017-12-27</v>
@@ -11898,7 +12513,7 @@
         <v>20171227</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-02</v>
@@ -11940,7 +12555,7 @@
         <v>20180102</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-11</v>
@@ -11961,7 +12576,7 @@
         <v>200</v>
       </c>
       <c r="G267">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="H267">
         <v>3620</v>
@@ -11982,7 +12597,7 @@
         <v>20180111</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-22</v>
@@ -12003,7 +12618,7 @@
         <v>-200</v>
       </c>
       <c r="G268">
-        <v>19.239999999999998</v>
+        <v>19.24</v>
       </c>
       <c r="H268">
         <v>3848</v>
@@ -12024,7 +12639,7 @@
         <v>20180122</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>2018-01-24</v>
@@ -12045,7 +12660,7 @@
         <v>-500</v>
       </c>
       <c r="G269">
-        <v>20.350000000000001</v>
+        <v>20.35</v>
       </c>
       <c r="H269">
         <v>10175</v>
@@ -12066,7 +12681,7 @@
         <v>20180124</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-06</v>
@@ -12108,7 +12723,7 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-06</v>
@@ -12150,7 +12765,7 @@
         <v>20180306</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-20</v>
@@ -12192,7 +12807,7 @@
         <v>20180320</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-21</v>
@@ -12234,7 +12849,7 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-21</v>
@@ -12276,7 +12891,7 @@
         <v>20180321</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-23</v>
@@ -12318,7 +12933,7 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-23</v>
@@ -12360,7 +12975,7 @@
         <v>20180323</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-26</v>
@@ -12402,7 +13017,7 @@
         <v>20180326</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-29</v>
@@ -12423,7 +13038,7 @@
         <v>1600</v>
       </c>
       <c r="G278">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="H278">
         <v>14336</v>
@@ -12444,7 +13059,7 @@
         <v>20180329</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>2018-03-30</v>
@@ -12486,7 +13101,7 @@
         <v>20180330</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>2018-04-17</v>
@@ -12528,7 +13143,7 @@
         <v>20180417</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>2018-04-20</v>
@@ -12570,7 +13185,7 @@
         <v>20180420</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -12612,7 +13227,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -12654,7 +13269,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-03</v>
@@ -12696,7 +13311,7 @@
         <v>20180503</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-07</v>
@@ -12738,7 +13353,7 @@
         <v>20180507</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-08</v>
@@ -12780,7 +13395,7 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-08</v>
@@ -12822,7 +13437,7 @@
         <v>20180508</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-18</v>
@@ -12864,7 +13479,7 @@
         <v>20180518</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-21</v>
@@ -12906,7 +13521,7 @@
         <v>20180521</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-29</v>
@@ -12948,7 +13563,7 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>2018-05-29</v>
@@ -12969,7 +13584,7 @@
         <v>300</v>
       </c>
       <c r="G291">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="H291">
         <v>2559</v>
@@ -12990,7 +13605,7 @@
         <v>20180529</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-01</v>
@@ -13011,7 +13626,7 @@
         <v>200</v>
       </c>
       <c r="G292">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="H292">
         <v>3320</v>
@@ -13032,7 +13647,7 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-01</v>
@@ -13074,7 +13689,7 @@
         <v>20180601</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13116,7 +13731,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13158,7 +13773,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-04</v>
@@ -13200,7 +13815,7 @@
         <v>20180604</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-11</v>
@@ -13242,7 +13857,7 @@
         <v>20180611</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-15</v>
@@ -13284,7 +13899,7 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-15</v>
@@ -13326,7 +13941,7 @@
         <v>20180615</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-20</v>
@@ -13368,7 +13983,7 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-20</v>
@@ -13410,7 +14025,7 @@
         <v>20180620</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-22</v>
@@ -13452,7 +14067,7 @@
         <v>20180622</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-25</v>
@@ -13494,7 +14109,7 @@
         <v>20180625</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-27</v>
@@ -13536,7 +14151,7 @@
         <v>20180627</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-28</v>
@@ -13578,7 +14193,7 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-28</v>
@@ -13620,7 +14235,7 @@
         <v>20180628</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -13662,7 +14277,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -13704,7 +14319,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>2018-06-29</v>
@@ -13725,7 +14340,7 @@
         <v>700</v>
       </c>
       <c r="G309">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="H309">
         <v>6279</v>
@@ -13746,7 +14361,7 @@
         <v>20180629</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -13788,7 +14403,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -13830,7 +14445,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-03</v>
@@ -13872,7 +14487,7 @@
         <v>20180703</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-04</v>
@@ -13914,7 +14529,7 @@
         <v>20180704</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-06</v>
@@ -13956,7 +14571,7 @@
         <v>20180706</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-09</v>
@@ -13977,7 +14592,7 @@
         <v>-300</v>
       </c>
       <c r="G315">
-        <v>16.940000000000001</v>
+        <v>16.94</v>
       </c>
       <c r="H315">
         <v>5082</v>
@@ -13998,7 +14613,7 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13">
       <c r="A316" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-09</v>
@@ -14040,7 +14655,7 @@
         <v>20180709</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13">
       <c r="A317" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-11</v>
@@ -14082,7 +14697,7 @@
         <v>20180711</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13">
       <c r="A318" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-12</v>
@@ -14124,7 +14739,7 @@
         <v>20180712</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13">
       <c r="A319" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-17</v>
@@ -14166,7 +14781,7 @@
         <v>20180717</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13">
       <c r="A320" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-20</v>
@@ -14208,7 +14823,7 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13">
       <c r="A321" t="str">
         <f t="shared" si="4"/>
         <v>2018-07-20</v>
@@ -14250,7 +14865,7 @@
         <v>20180720</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13">
       <c r="A322" t="str">
         <f t="shared" ref="A322:A340" si="5">CONCATENATE(LEFT(M322,4),"-",MID(M322,5,2),"-",RIGHT(M322,2))</f>
         <v>2018-07-23</v>
@@ -14292,7 +14907,7 @@
         <v>20180723</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13">
       <c r="A323" t="str">
         <f t="shared" si="5"/>
         <v>2018-07-25</v>
@@ -14313,7 +14928,7 @@
         <v>200</v>
       </c>
       <c r="G323">
-        <v>18.260000000000002</v>
+        <v>18.26</v>
       </c>
       <c r="H323">
         <v>3652</v>
@@ -14334,7 +14949,7 @@
         <v>20180725</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13">
       <c r="A324" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -14376,7 +14991,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13">
       <c r="A325" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -14418,7 +15033,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13">
       <c r="A326" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-09</v>
@@ -14460,7 +15075,7 @@
         <v>20180809</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13">
       <c r="A327" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-13</v>
@@ -14481,7 +15096,7 @@
         <v>200</v>
       </c>
       <c r="G327">
-        <v>16.809999999999999</v>
+        <v>16.81</v>
       </c>
       <c r="H327">
         <v>3362</v>
@@ -14502,7 +15117,7 @@
         <v>20180813</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13">
       <c r="A328" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-15</v>
@@ -14544,7 +15159,7 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13">
       <c r="A329" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-15</v>
@@ -14586,7 +15201,7 @@
         <v>20180815</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13">
       <c r="A330" t="str">
         <f t="shared" si="5"/>
         <v>2018-08-17</v>
@@ -14628,7 +15243,7 @@
         <v>20180817</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13">
       <c r="A331" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-03</v>
@@ -14670,7 +15285,7 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13">
       <c r="A332" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-03</v>
@@ -14712,7 +15327,7 @@
         <v>20180903</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13">
       <c r="A333" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-18</v>
@@ -14754,7 +15369,7 @@
         <v>20180918</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13">
       <c r="A334" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-20</v>
@@ -14796,7 +15411,7 @@
         <v>20180920</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13">
       <c r="A335" t="str">
         <f t="shared" si="5"/>
         <v>2018-09-28</v>
@@ -14838,7 +15453,7 @@
         <v>20180928</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13">
       <c r="A336" t="str">
         <f t="shared" si="5"/>
         <v>2018-10-09</v>
@@ -14880,7 +15495,7 @@
         <v>20181009</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13">
       <c r="A337" t="str">
         <f t="shared" si="5"/>
         <v>2018-10-31</v>
@@ -14901,7 +15516,7 @@
         <v>500</v>
       </c>
       <c r="G337">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="H337">
         <v>4315</v>
@@ -14922,7 +15537,7 @@
         <v>20181031</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13">
       <c r="A338" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-09</v>
@@ -14964,7 +15579,7 @@
         <v>20181109</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13">
       <c r="A339" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-16</v>
@@ -15006,7 +15621,7 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13">
       <c r="A340" t="str">
         <f t="shared" si="5"/>
         <v>2018-11-16</v>
@@ -15048,7 +15663,7 @@
         <v>20181116</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13">
       <c r="A341" t="str">
         <f t="shared" ref="A341:A378" si="6">CONCATENATE(LEFT(M341,4),"-",MID(M341,5,2),"-",RIGHT(M341,2))</f>
         <v>2018-11-20</v>
@@ -15090,7 +15705,7 @@
         <v>20181120</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13">
       <c r="A342" t="str">
         <f t="shared" si="6"/>
         <v>2018-11-23</v>
@@ -15132,7 +15747,7 @@
         <v>20181123</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13">
       <c r="A343" t="str">
         <f t="shared" si="6"/>
         <v>2018-11-30</v>
@@ -15174,7 +15789,7 @@
         <v>20181130</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13">
       <c r="A344" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15216,7 +15831,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13">
       <c r="A345" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15258,7 +15873,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13">
       <c r="A346" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15300,7 +15915,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13">
       <c r="A347" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-03</v>
@@ -15342,7 +15957,7 @@
         <v>20181203</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13">
       <c r="A348" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-06</v>
@@ -15384,7 +15999,7 @@
         <v>20181206</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13">
       <c r="A349" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-17</v>
@@ -15426,7 +16041,7 @@
         <v>20181217</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13">
       <c r="A350" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-18</v>
@@ -15468,7 +16083,7 @@
         <v>20181218</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13">
       <c r="A351" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-21</v>
@@ -15510,7 +16125,7 @@
         <v>20181221</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13">
       <c r="A352" t="str">
         <f t="shared" si="6"/>
         <v>2018-12-24</v>
@@ -15552,7 +16167,7 @@
         <v>20181224</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13">
       <c r="A353" t="str">
         <f t="shared" si="6"/>
         <v>2019-01-08</v>
@@ -15594,7 +16209,7 @@
         <v>20190108</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13">
       <c r="A354" t="str">
         <f t="shared" si="6"/>
         <v>2019-02-01</v>
@@ -15636,7 +16251,7 @@
         <v>20190201</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13">
       <c r="A355" t="str">
         <f t="shared" si="6"/>
         <v>2019-02-25</v>
@@ -15678,7 +16293,7 @@
         <v>20190225</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13">
       <c r="A356" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-01</v>
@@ -15720,7 +16335,7 @@
         <v>20190401</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13">
       <c r="A357" t="str">
         <f t="shared" si="6"/>
         <v>2019-03-19</v>
@@ -15762,7 +16377,7 @@
         <v>20190319</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13">
       <c r="A358" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-09</v>
@@ -15804,7 +16419,7 @@
         <v>20190409</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13">
       <c r="A359" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-16</v>
@@ -15846,7 +16461,7 @@
         <v>20190416</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13">
       <c r="A360" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-26</v>
@@ -15888,7 +16503,7 @@
         <v>20190426</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13">
       <c r="A361" t="str">
         <f t="shared" si="6"/>
         <v>2019-04-26</v>
@@ -15930,7 +16545,7 @@
         <v>20190426</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13">
       <c r="A362" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-15</v>
@@ -15972,7 +16587,7 @@
         <v>20190515</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13">
       <c r="A363" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-10</v>
@@ -16014,7 +16629,7 @@
         <v>20190510</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13">
       <c r="A364" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-10</v>
@@ -16056,7 +16671,7 @@
         <v>20190510</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13">
       <c r="A365" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-17</v>
@@ -16098,7 +16713,7 @@
         <v>20190517</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13">
       <c r="A366" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-05-23</v>
@@ -16140,7 +16755,7 @@
         <v>20190523</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13">
       <c r="A367" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-06-11</v>
@@ -16182,7 +16797,7 @@
         <v>20190611</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13">
       <c r="A368" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-06-20</v>
@@ -16224,7 +16839,7 @@
         <v>20190620</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13">
       <c r="A369" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-01</v>
@@ -16266,7 +16881,7 @@
         <v>20190701</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13">
       <c r="A370" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-08</v>
@@ -16287,7 +16902,7 @@
         <v>-1300</v>
       </c>
       <c r="G370" s="1">
-        <v>8.2799999999999994</v>
+        <v>8.28</v>
       </c>
       <c r="H370" s="1">
         <v>10764</v>
@@ -16308,7 +16923,7 @@
         <v>20190708</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13">
       <c r="A371" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-15</v>
@@ -16350,7 +16965,7 @@
         <v>20190715</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13">
       <c r="A372" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-15</v>
@@ -16392,7 +17007,7 @@
         <v>20190715</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13">
       <c r="A373" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-19</v>
@@ -16434,7 +17049,7 @@
         <v>20190719</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13">
       <c r="A374" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-07-22</v>
@@ -16476,7 +17091,7 @@
         <v>20190722</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13">
       <c r="A375" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-09-12</v>
@@ -16518,7 +17133,7 @@
         <v>20190912</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13">
       <c r="A376" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-09-26</v>
@@ -16560,7 +17175,7 @@
         <v>20190926</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13">
       <c r="A377" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-10-22</v>
@@ -16602,7 +17217,7 @@
         <v>20191022</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13">
       <c r="A378" s="3" t="str">
         <f t="shared" si="6"/>
         <v>2019-10-25</v>
@@ -16644,301 +17259,301 @@
         <v>20191025</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13">
       <c r="A379" s="3" t="str">
         <f t="shared" ref="A379:A387" si="7">CONCATENATE(LEFT(M379,4),"-",MID(M379,5,2),"-",RIGHT(M379,2))</f>
         <v>2019-12-12</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379" s="1">
         <v>10045</v>
       </c>
-      <c r="C379" s="5">
+      <c r="C379" s="1">
         <v>2111</v>
       </c>
-      <c r="D379" s="5" t="s">
+      <c r="D379" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E379" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F379" s="5">
+      <c r="E379" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F379" s="1">
         <v>1400</v>
       </c>
-      <c r="G379" s="5">
+      <c r="G379" s="1">
         <v>14.68</v>
       </c>
-      <c r="H379" s="5">
+      <c r="H379" s="1">
         <v>20552</v>
       </c>
-      <c r="I379" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J379" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K379" s="5">
+      <c r="I379" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K379" s="1">
         <v>7490</v>
       </c>
-      <c r="L379" s="5">
-        <v>0</v>
-      </c>
-      <c r="M379" s="5">
+      <c r="L379" s="1">
+        <v>0</v>
+      </c>
+      <c r="M379" s="1">
         <v>20191212</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13">
       <c r="A380" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2019-12-13</v>
       </c>
-      <c r="B380" s="5">
+      <c r="B380" s="1">
         <v>7811</v>
       </c>
-      <c r="C380" s="5">
+      <c r="C380" s="1">
         <v>513</v>
       </c>
-      <c r="D380" s="5" t="s">
+      <c r="D380" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E380" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F380" s="5">
+      <c r="E380" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F380" s="1">
         <v>400</v>
       </c>
-      <c r="G380" s="5">
+      <c r="G380" s="1">
         <v>30.36</v>
       </c>
-      <c r="H380" s="5">
+      <c r="H380" s="1">
         <v>12144</v>
       </c>
-      <c r="I380" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J380" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K380" s="5">
+      <c r="I380" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K380" s="1">
         <v>9026</v>
       </c>
-      <c r="L380" s="5">
-        <v>0</v>
-      </c>
-      <c r="M380" s="5">
+      <c r="L380" s="1">
+        <v>0</v>
+      </c>
+      <c r="M380" s="1">
         <v>20191213</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13">
       <c r="A381" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-02-03</v>
       </c>
-      <c r="B381" s="5">
+      <c r="B381" s="1">
         <v>22739</v>
       </c>
-      <c r="C381" s="5">
+      <c r="C381" s="1">
         <v>513</v>
       </c>
-      <c r="D381" s="5" t="s">
+      <c r="D381" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E381" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F381" s="5">
+      <c r="E381" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F381" s="1">
         <v>-400</v>
       </c>
-      <c r="G381" s="5">
+      <c r="G381" s="1">
         <v>35.64</v>
       </c>
-      <c r="H381" s="5">
+      <c r="H381" s="1">
         <v>14256</v>
       </c>
-      <c r="I381" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J381" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K381" s="5">
+      <c r="I381" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K381" s="1">
         <v>18109</v>
       </c>
-      <c r="L381" s="5">
-        <v>0</v>
-      </c>
-      <c r="M381" s="5">
+      <c r="L381" s="1">
+        <v>0</v>
+      </c>
+      <c r="M381" s="1">
         <v>20200203</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13">
       <c r="A382" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-02</v>
       </c>
-      <c r="B382" s="5">
+      <c r="B382" s="1">
         <v>16546</v>
       </c>
-      <c r="C382" s="5">
+      <c r="C382" s="1">
         <v>2111</v>
       </c>
-      <c r="D382" s="5" t="s">
+      <c r="D382" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E382" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F382" s="5">
+      <c r="E382" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F382" s="1">
         <v>300</v>
       </c>
-      <c r="G382" s="5">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="H382" s="5">
+      <c r="G382" s="1">
+        <v>17.31</v>
+      </c>
+      <c r="H382" s="1">
         <v>5193</v>
       </c>
-      <c r="I382" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J382" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K382" s="5">
+      <c r="I382" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K382" s="1">
         <v>14975</v>
       </c>
-      <c r="L382" s="5">
-        <v>0</v>
-      </c>
-      <c r="M382" s="5">
+      <c r="L382" s="1">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1">
         <v>20200302</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13">
       <c r="A383" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-10</v>
       </c>
-      <c r="B383" s="5">
+      <c r="B383" s="1">
         <v>25527</v>
       </c>
-      <c r="C383" s="5">
+      <c r="C383" s="1">
         <v>601186</v>
       </c>
-      <c r="D383" s="5" t="s">
+      <c r="D383" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E383" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F383" s="5">
+      <c r="E383" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F383" s="1">
         <v>1900</v>
       </c>
-      <c r="G383" s="5">
+      <c r="G383" s="1">
         <v>10.61</v>
       </c>
-      <c r="H383" s="5">
+      <c r="H383" s="1">
         <v>20159</v>
       </c>
-      <c r="I383" s="5" t="s">
+      <c r="I383" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J383" s="5" t="s">
+      <c r="J383" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K383" s="5">
+      <c r="K383" s="1">
         <v>14076</v>
       </c>
-      <c r="L383" s="5">
-        <v>0</v>
-      </c>
-      <c r="M383" s="5">
+      <c r="L383" s="1">
+        <v>0</v>
+      </c>
+      <c r="M383" s="1">
         <v>20200310</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13">
       <c r="A384" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-13</v>
       </c>
-      <c r="B384" s="5">
+      <c r="B384" s="1">
         <v>13243</v>
       </c>
-      <c r="C384" s="5">
+      <c r="C384" s="1">
         <v>2111</v>
       </c>
-      <c r="D384" s="5" t="s">
+      <c r="D384" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E384" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F384" s="5">
+      <c r="E384" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F384" s="1">
         <v>-1700</v>
       </c>
-      <c r="G384" s="5">
+      <c r="G384" s="1">
         <v>14.71</v>
       </c>
-      <c r="H384" s="5">
+      <c r="H384" s="1">
         <v>25007</v>
       </c>
-      <c r="I384" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J384" s="5">
-        <v>182173908</v>
-      </c>
-      <c r="K384" s="5">
+      <c r="I384" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J384" s="1">
+        <v>182173908</v>
+      </c>
+      <c r="K384" s="1">
         <v>20725</v>
       </c>
-      <c r="L384" s="5">
-        <v>0</v>
-      </c>
-      <c r="M384" s="5">
+      <c r="L384" s="1">
+        <v>0</v>
+      </c>
+      <c r="M384" s="1">
         <v>20200313</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13">
       <c r="A385" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-03-17</v>
       </c>
-      <c r="B385" s="5">
+      <c r="B385" s="1">
         <v>8217</v>
       </c>
-      <c r="C385" s="5">
+      <c r="C385" s="1">
         <v>601186</v>
       </c>
-      <c r="D385" s="5" t="s">
+      <c r="D385" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E385" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F385" s="5">
+      <c r="E385" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F385" s="1">
         <v>-1900</v>
       </c>
-      <c r="G385" s="5">
+      <c r="G385" s="1">
         <v>10.06</v>
       </c>
-      <c r="H385" s="5">
+      <c r="H385" s="1">
         <v>19114</v>
       </c>
-      <c r="I385" s="5" t="s">
+      <c r="I385" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J385" s="5" t="s">
+      <c r="J385" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K385" s="5">
+      <c r="K385" s="1">
         <v>6921</v>
       </c>
-      <c r="L385" s="5">
-        <v>0</v>
-      </c>
-      <c r="M385" s="5">
+      <c r="L385" s="1">
+        <v>0</v>
+      </c>
+      <c r="M385" s="1">
         <v>20200317</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13">
       <c r="A386" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-04-30</v>
@@ -16980,7 +17595,7 @@
         <v>20200430</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13">
       <c r="A387" s="3" t="str">
         <f t="shared" si="7"/>
         <v>2020-05-21</v>
@@ -17022,37 +17637,589 @@
         <v>20200521</v>
       </c>
     </row>
+    <row r="388" spans="1:13">
+      <c r="A388" s="3" t="str">
+        <f>CONCATENATE(LEFT(M388,4),"-",MID(M388,5,2),"-",RIGHT(M388,2))</f>
+        <v>2020-10-20</v>
+      </c>
+      <c r="B388" s="1">
+        <v>29965</v>
+      </c>
+      <c r="C388" s="1">
+        <v>601933</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F388" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G388" s="1">
+        <v>8.11</v>
+      </c>
+      <c r="H388" s="1">
+        <v>32440</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K388" s="1">
+        <v>13570</v>
+      </c>
+      <c r="L388" s="1">
+        <v>0</v>
+      </c>
+      <c r="M388" s="1">
+        <v>20201020</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13">
+      <c r="A389" s="3" t="str">
+        <f>CONCATENATE(LEFT(M389,4),"-",MID(M389,5,2),"-",RIGHT(M389,2))</f>
+        <v>2020-10-30</v>
+      </c>
+      <c r="B389" s="1">
+        <v>16198</v>
+      </c>
+      <c r="C389" s="1">
+        <v>600206</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F389" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G389" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="H389" s="1">
+        <v>34725</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K389">
+        <v>15369.5</v>
+      </c>
+      <c r="L389" s="1">
+        <v>0</v>
+      </c>
+      <c r="M389" s="1">
+        <v>20201030</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13">
+      <c r="A390" s="3" t="str">
+        <f>CONCATENATE(LEFT(M390,4),"-",MID(M390,5,2),"-",RIGHT(M390,2))</f>
+        <v>2021-02-18</v>
+      </c>
+      <c r="B390" s="5">
+        <v>15634</v>
+      </c>
+      <c r="C390" s="5">
+        <v>601933</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F390" s="5">
+        <v>1300</v>
+      </c>
+      <c r="G390" s="5">
+        <v>7.58</v>
+      </c>
+      <c r="H390" s="5">
+        <v>9854</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J390" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K390" s="5">
+        <v>800510501</v>
+      </c>
+      <c r="L390" s="5">
+        <v>0</v>
+      </c>
+      <c r="M390" s="5">
+        <v>20210218</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13">
+      <c r="A391" s="3" t="str">
+        <f>CONCATENATE(LEFT(M391,4),"-",MID(M391,5,2),"-",RIGHT(M391,2))</f>
+        <v>2021-06-29</v>
+      </c>
+      <c r="B391" s="1">
+        <v>13139</v>
+      </c>
+      <c r="C391" s="1">
+        <v>601933</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F391" s="1">
+        <v>-2700</v>
+      </c>
+      <c r="G391" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="H391" s="1">
+        <v>12717</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K391" s="1">
+        <v>18968.5</v>
+      </c>
+      <c r="L391" s="1">
+        <v>0</v>
+      </c>
+      <c r="M391" s="1">
+        <v>20210629</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13">
+      <c r="A392" s="3" t="str">
+        <f>CONCATENATE(LEFT(M392,4),"-",MID(M392,5,2),"-",RIGHT(M392,2))</f>
+        <v>2021-07-19</v>
+      </c>
+      <c r="B392" s="1">
+        <v>29809</v>
+      </c>
+      <c r="C392" s="1">
+        <v>601933</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F392" s="1">
+        <v>-1800</v>
+      </c>
+      <c r="G392" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="H392" s="1">
+        <v>7704</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K392">
+        <v>17169</v>
+      </c>
+      <c r="L392" s="1">
+        <v>0</v>
+      </c>
+      <c r="M392" s="1">
+        <v>20210719</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13">
+      <c r="A393" s="3" t="str">
+        <f>CONCATENATE(LEFT(M393,4),"-",MID(M393,5,2),"-",RIGHT(M393,2))</f>
+        <v>2022-01-05</v>
+      </c>
+      <c r="B393" s="6">
+        <v>0.525613425925926</v>
+      </c>
+      <c r="C393" s="1">
+        <v>601933</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F393" s="1">
+        <v>700</v>
+      </c>
+      <c r="G393" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="H393" s="1">
+        <v>700</v>
+      </c>
+      <c r="I393" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="J393" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="K393" s="1">
+        <v>25660</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M393" s="1">
+        <v>20220105</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13">
+      <c r="A394" s="3" t="str">
+        <f t="shared" ref="A394:A400" si="8">CONCATENATE(LEFT(M394,4),"-",MID(M394,5,2),"-",RIGHT(M394,2))</f>
+        <v>2022-03-08</v>
+      </c>
+      <c r="B394" s="6">
+        <v>0.526331018518518</v>
+      </c>
+      <c r="C394" s="1">
+        <v>601933</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F394" s="1">
+        <v>-1500</v>
+      </c>
+      <c r="G394" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="H394" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I394" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="J394" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="K394" s="1">
+        <v>23517</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M394" s="1">
+        <v>20220308</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13">
+      <c r="A395" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-03-11</v>
+      </c>
+      <c r="B395" s="6">
+        <v>0.519560185185185</v>
+      </c>
+      <c r="C395" s="1">
+        <v>600206</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F395" s="1">
+        <v>-2500</v>
+      </c>
+      <c r="G395" s="1">
+        <v>12.98</v>
+      </c>
+      <c r="H395" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I395" s="1">
+        <v>12.96</v>
+      </c>
+      <c r="J395" s="1">
+        <v>12.98</v>
+      </c>
+      <c r="K395" s="1">
+        <v>24291</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M395" s="1">
+        <v>20220311</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13">
+      <c r="A396" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-04-08</v>
+      </c>
+      <c r="B396" s="6">
+        <v>0.470034722222222</v>
+      </c>
+      <c r="C396" s="1">
+        <v>601069</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F396" s="1">
+        <v>200</v>
+      </c>
+      <c r="G396" s="1">
+        <v>15</v>
+      </c>
+      <c r="H396" s="1">
+        <v>200</v>
+      </c>
+      <c r="I396" s="1">
+        <v>15</v>
+      </c>
+      <c r="J396" s="1">
+        <v>15</v>
+      </c>
+      <c r="K396" s="1">
+        <v>15568</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M396" s="1">
+        <v>20220408</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13">
+      <c r="A397" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-04-13</v>
+      </c>
+      <c r="B397" s="6">
+        <v>0.605787037037037</v>
+      </c>
+      <c r="C397" s="1">
+        <v>600814</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F397" s="1">
+        <v>200</v>
+      </c>
+      <c r="G397" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="H397" s="1">
+        <v>200</v>
+      </c>
+      <c r="I397" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="J397" s="1">
+        <v>8.43</v>
+      </c>
+      <c r="K397" s="1">
+        <v>16897</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M397" s="1">
+        <v>20220413</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13">
+      <c r="A398" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-04-25</v>
+      </c>
+      <c r="B398" s="6">
+        <v>0.602615740740741</v>
+      </c>
+      <c r="C398" s="1">
+        <v>600814</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F398" s="1">
+        <v>100</v>
+      </c>
+      <c r="G398" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="H398" s="1">
+        <v>100</v>
+      </c>
+      <c r="I398" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="J398" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="K398" s="1">
+        <v>17549</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M398" s="1">
+        <v>20220425</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13">
+      <c r="A399" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-04-28</v>
+      </c>
+      <c r="B399" s="6">
+        <v>0.484236111111111</v>
+      </c>
+      <c r="C399" s="1">
+        <v>600814</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F399" s="1">
+        <v>-300</v>
+      </c>
+      <c r="G399" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="H399" s="1">
+        <v>300</v>
+      </c>
+      <c r="I399" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="J399" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="K399" s="1">
+        <v>14783</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M399" s="1">
+        <v>20220428</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13">
+      <c r="A400" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>2022-04-28</v>
+      </c>
+      <c r="B400" s="6">
+        <v>0.484421296296296</v>
+      </c>
+      <c r="C400" s="1">
+        <v>601069</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F400" s="1">
+        <v>-200</v>
+      </c>
+      <c r="G400" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="H400" s="1">
+        <v>200</v>
+      </c>
+      <c r="I400" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="J400" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="K400" s="1">
+        <v>14787</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M400" s="1">
+        <v>20220428</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>